--- a/uploads/order.xlsx
+++ b/uploads/order.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hussain\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7751E6-AB21-4F1E-B1D5-E00E9239617F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="1788" windowWidth="19500" windowHeight="10452" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Orders" sheetId="1" r:id="rId1"/>
+    <sheet name="Orders" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3636" uniqueCount="1422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1422">
   <si>
     <t>Order Number</t>
   </si>
@@ -4293,18 +4288,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd hh:mm"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -4315,42 +4317,37 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="4">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -4640,55 +4637,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:AK168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF15" sqref="AF15"/>
+      <selection pane="bottomLeft" activeCell="AK1" sqref="AK1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="198.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="63.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="37.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="198.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="63.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="44.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="29.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="27" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="140.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.281982" bestFit="true" customWidth="true" style="2"/>
+    <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="2"/>
+    <col min="3" max="3" width="19.995117" bestFit="true" customWidth="true" style="3"/>
+    <col min="4" max="4" width="16.424561" bestFit="true" customWidth="true" style="2"/>
+    <col min="5" max="5" width="24.708252" bestFit="true" customWidth="true" style="2"/>
+    <col min="6" max="6" width="23.422852" bestFit="true" customWidth="true" style="2"/>
+    <col min="7" max="7" width="21.137695" bestFit="true" customWidth="true" style="2"/>
+    <col min="8" max="8" width="198.094482" bestFit="true" customWidth="true" style="2"/>
+    <col min="9" max="9" width="63.555908" bestFit="true" customWidth="true" style="2"/>
+    <col min="10" max="10" width="24.708252" bestFit="true" customWidth="true" style="2"/>
+    <col min="11" max="11" width="22.280273" bestFit="true" customWidth="true" style="2"/>
+    <col min="12" max="12" width="26.993408" bestFit="true" customWidth="true" style="2"/>
+    <col min="13" max="13" width="37.705078" bestFit="true" customWidth="true" style="2"/>
+    <col min="14" max="14" width="18.709717" bestFit="true" customWidth="true" style="2"/>
+    <col min="15" max="15" width="25.85083" bestFit="true" customWidth="true" style="2"/>
+    <col min="16" max="16" width="24.708252" bestFit="true" customWidth="true" style="2"/>
+    <col min="17" max="17" width="198.094482" bestFit="true" customWidth="true" style="2"/>
+    <col min="18" max="18" width="63.555908" bestFit="true" customWidth="true" style="2"/>
+    <col min="19" max="19" width="25.85083" bestFit="true" customWidth="true" style="2"/>
+    <col min="20" max="20" width="23.422852" bestFit="true" customWidth="true" style="2"/>
+    <col min="21" max="21" width="28.135986" bestFit="true" customWidth="true" style="2"/>
+    <col min="22" max="22" width="44.703369" bestFit="true" customWidth="true" style="2"/>
+    <col min="25" max="25" width="29.421387" bestFit="true" customWidth="true" style="2"/>
+    <col min="30" max="30" width="18.709717" bestFit="true" customWidth="true" style="2"/>
+    <col min="32" max="32" width="140.251465" bestFit="true" customWidth="true" style="2"/>
+    <col min="35" max="35" width="13.996582" bestFit="true" customWidth="true" style="2"/>
+    <col min="23" max="23" width="24.708252" bestFit="true" customWidth="true" style="0"/>
+    <col min="24" max="24" width="25.85083" bestFit="true" customWidth="true" style="0"/>
+    <col min="26" max="26" width="25.85083" bestFit="true" customWidth="true" style="0"/>
+    <col min="27" max="27" width="23.422852" bestFit="true" customWidth="true" style="0"/>
+    <col min="28" max="28" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="29" max="29" width="26.993408" bestFit="true" customWidth="true" style="0"/>
+    <col min="31" max="31" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="33" max="33" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="34" max="34" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="36" max="36" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="37" max="37" width="23.422852" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4776,7 +4777,7 @@
       <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
@@ -4801,7 +4802,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -4809,14 +4810,16 @@
         <v>38</v>
       </c>
       <c r="C2" s="3">
-        <v>45154.550578704002</v>
-      </c>
+        <v>45154.550578704</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
         <v>41</v>
       </c>
@@ -4883,6 +4886,7 @@
       <c r="AC2">
         <v>0</v>
       </c>
+      <c r="AD2" s="2"/>
       <c r="AE2">
         <v>1</v>
       </c>
@@ -4895,8 +4899,11 @@
       <c r="AH2">
         <v>820</v>
       </c>
+      <c r="AI2" s="2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37">
       <c r="A3" s="2" t="s">
         <v>51</v>
       </c>
@@ -4904,14 +4911,16 @@
         <v>38</v>
       </c>
       <c r="C3" s="3">
-        <v>45154.547777778003</v>
-      </c>
+        <v>45154.547777778</v>
+      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
         <v>54</v>
       </c>
@@ -4978,7 +4987,7 @@
       <c r="AC3">
         <v>0</v>
       </c>
-      <c r="AD3" s="5" t="s">
+      <c r="AD3" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AE3">
@@ -4993,8 +5002,11 @@
       <c r="AH3">
         <v>110</v>
       </c>
+      <c r="AI3" s="2"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37">
       <c r="A4" s="2" t="s">
         <v>62</v>
       </c>
@@ -5004,12 +5016,14 @@
       <c r="C4" s="3">
         <v>45154.543831019</v>
       </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
         <v>65</v>
       </c>
@@ -5076,6 +5090,7 @@
       <c r="AC4">
         <v>0</v>
       </c>
+      <c r="AD4" s="2"/>
       <c r="AE4">
         <v>1</v>
       </c>
@@ -5088,8 +5103,11 @@
       <c r="AH4">
         <v>340</v>
       </c>
+      <c r="AI4" s="2"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37">
       <c r="A5" s="2" t="s">
         <v>73</v>
       </c>
@@ -5097,14 +5115,16 @@
         <v>38</v>
       </c>
       <c r="C5" s="3">
-        <v>45154.538680555997</v>
-      </c>
+        <v>45154.538680556</v>
+      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
         <v>76</v>
       </c>
@@ -5171,7 +5191,7 @@
       <c r="AC5">
         <v>0</v>
       </c>
-      <c r="AD5" s="5" t="s">
+      <c r="AD5" s="2" t="s">
         <v>81</v>
       </c>
       <c r="AE5">
@@ -5186,8 +5206,11 @@
       <c r="AH5">
         <v>540</v>
       </c>
+      <c r="AI5" s="2"/>
+      <c r="AJ5"/>
+      <c r="AK5"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37">
       <c r="A6" s="2" t="s">
         <v>83</v>
       </c>
@@ -5195,14 +5218,16 @@
         <v>38</v>
       </c>
       <c r="C6" s="3">
-        <v>45154.537280092998</v>
-      </c>
+        <v>45154.537280093</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
         <v>86</v>
       </c>
@@ -5269,6 +5294,7 @@
       <c r="AC6">
         <v>0</v>
       </c>
+      <c r="AD6" s="2"/>
       <c r="AE6">
         <v>1</v>
       </c>
@@ -5281,8 +5307,11 @@
       <c r="AH6">
         <v>495</v>
       </c>
+      <c r="AI6" s="2"/>
+      <c r="AJ6"/>
+      <c r="AK6"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37">
       <c r="A7" s="2" t="s">
         <v>92</v>
       </c>
@@ -5290,14 +5319,16 @@
         <v>38</v>
       </c>
       <c r="C7" s="3">
-        <v>45154.448495370001</v>
-      </c>
+        <v>45154.44849537</v>
+      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
         <v>94</v>
       </c>
@@ -5364,6 +5395,7 @@
       <c r="AC7">
         <v>0</v>
       </c>
+      <c r="AD7" s="2"/>
       <c r="AE7">
         <v>1</v>
       </c>
@@ -5376,8 +5408,11 @@
       <c r="AH7">
         <v>340</v>
       </c>
+      <c r="AI7" s="2"/>
+      <c r="AJ7"/>
+      <c r="AK7"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37">
       <c r="A8" s="2" t="s">
         <v>100</v>
       </c>
@@ -5385,14 +5420,16 @@
         <v>38</v>
       </c>
       <c r="C8" s="3">
-        <v>45154.396759258998</v>
-      </c>
+        <v>45154.396759259</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
         <v>103</v>
       </c>
@@ -5459,7 +5496,7 @@
       <c r="AC8">
         <v>0</v>
       </c>
-      <c r="AD8" s="5" t="s">
+      <c r="AD8" s="2" t="s">
         <v>108</v>
       </c>
       <c r="AE8">
@@ -5474,8 +5511,11 @@
       <c r="AH8">
         <v>440</v>
       </c>
+      <c r="AI8" s="2"/>
+      <c r="AJ8"/>
+      <c r="AK8"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37">
       <c r="A9" s="2" t="s">
         <v>110</v>
       </c>
@@ -5483,14 +5523,16 @@
         <v>38</v>
       </c>
       <c r="C9" s="3">
-        <v>45154.370821759003</v>
-      </c>
+        <v>45154.370821759</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
         <v>111</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
         <v>113</v>
       </c>
@@ -5557,7 +5599,7 @@
       <c r="AC9">
         <v>0</v>
       </c>
-      <c r="AD9" s="5" t="s">
+      <c r="AD9" s="2" t="s">
         <v>119</v>
       </c>
       <c r="AE9">
@@ -5572,8 +5614,11 @@
       <c r="AH9">
         <v>883</v>
       </c>
+      <c r="AI9" s="2"/>
+      <c r="AJ9"/>
+      <c r="AK9"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37">
       <c r="A10" s="2" t="s">
         <v>121</v>
       </c>
@@ -5581,14 +5626,16 @@
         <v>38</v>
       </c>
       <c r="C10" s="3">
-        <v>45153.969502314998</v>
-      </c>
+        <v>45153.969502315</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
         <v>123</v>
       </c>
@@ -5655,7 +5702,7 @@
       <c r="AC10">
         <v>0</v>
       </c>
-      <c r="AD10" s="5" t="s">
+      <c r="AD10" s="2" t="s">
         <v>128</v>
       </c>
       <c r="AE10">
@@ -5670,8 +5717,11 @@
       <c r="AH10">
         <v>285</v>
       </c>
+      <c r="AI10" s="2"/>
+      <c r="AJ10"/>
+      <c r="AK10"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37">
       <c r="A11" s="2" t="s">
         <v>130</v>
       </c>
@@ -5679,14 +5729,16 @@
         <v>38</v>
       </c>
       <c r="C11" s="3">
-        <v>45153.960763889001</v>
-      </c>
+        <v>45153.960763889</v>
+      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
         <v>131</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>132</v>
       </c>
+      <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
         <v>133</v>
       </c>
@@ -5753,7 +5805,7 @@
       <c r="AC11">
         <v>0</v>
       </c>
-      <c r="AD11" s="5" t="s">
+      <c r="AD11" s="2" t="s">
         <v>139</v>
       </c>
       <c r="AE11">
@@ -5768,8 +5820,11 @@
       <c r="AH11">
         <v>278</v>
       </c>
+      <c r="AI11" s="2"/>
+      <c r="AJ11"/>
+      <c r="AK11"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37">
       <c r="A12" s="2" t="s">
         <v>141</v>
       </c>
@@ -5777,14 +5832,16 @@
         <v>38</v>
       </c>
       <c r="C12" s="3">
-        <v>45153.945439814997</v>
-      </c>
+        <v>45153.945439815</v>
+      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
         <v>144</v>
       </c>
@@ -5851,6 +5908,7 @@
       <c r="AC12">
         <v>0</v>
       </c>
+      <c r="AD12" s="2"/>
       <c r="AE12">
         <v>1</v>
       </c>
@@ -5863,8 +5921,11 @@
       <c r="AH12">
         <v>795</v>
       </c>
+      <c r="AI12" s="2"/>
+      <c r="AJ12"/>
+      <c r="AK12"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37">
       <c r="A13" s="2" t="s">
         <v>150</v>
       </c>
@@ -5872,14 +5933,16 @@
         <v>38</v>
       </c>
       <c r="C13" s="3">
-        <v>45153.942349536999</v>
-      </c>
+        <v>45153.942349537</v>
+      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
         <v>151</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>152</v>
       </c>
+      <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
         <v>153</v>
       </c>
@@ -5946,6 +6009,7 @@
       <c r="AC13">
         <v>0</v>
       </c>
+      <c r="AD13" s="2"/>
       <c r="AE13">
         <v>1</v>
       </c>
@@ -5958,8 +6022,11 @@
       <c r="AH13">
         <v>820</v>
       </c>
+      <c r="AI13" s="2"/>
+      <c r="AJ13"/>
+      <c r="AK13"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37">
       <c r="A14" s="2" t="s">
         <v>159</v>
       </c>
@@ -5967,14 +6034,16 @@
         <v>38</v>
       </c>
       <c r="C14" s="3">
-        <v>45153.928217592998</v>
-      </c>
+        <v>45153.928217593</v>
+      </c>
+      <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
         <v>160</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>161</v>
       </c>
+      <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
         <v>162</v>
       </c>
@@ -6041,6 +6110,7 @@
       <c r="AC14">
         <v>0</v>
       </c>
+      <c r="AD14" s="2"/>
       <c r="AE14">
         <v>1</v>
       </c>
@@ -6053,8 +6123,11 @@
       <c r="AH14">
         <v>820</v>
       </c>
+      <c r="AI14" s="2"/>
+      <c r="AJ14"/>
+      <c r="AK14"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37">
       <c r="A15" s="2" t="s">
         <v>167</v>
       </c>
@@ -6062,14 +6135,16 @@
         <v>38</v>
       </c>
       <c r="C15" s="3">
-        <v>45153.926597222002</v>
-      </c>
+        <v>45153.926597222</v>
+      </c>
+      <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
         <v>160</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>161</v>
       </c>
+      <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
         <v>162</v>
       </c>
@@ -6136,6 +6211,7 @@
       <c r="AC15">
         <v>0</v>
       </c>
+      <c r="AD15" s="2"/>
       <c r="AE15">
         <v>1</v>
       </c>
@@ -6148,8 +6224,11 @@
       <c r="AH15">
         <v>820</v>
       </c>
+      <c r="AI15" s="2"/>
+      <c r="AJ15"/>
+      <c r="AK15"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37">
       <c r="A16" s="2" t="s">
         <v>168</v>
       </c>
@@ -6157,14 +6236,16 @@
         <v>38</v>
       </c>
       <c r="C16" s="3">
-        <v>45153.923680555999</v>
-      </c>
+        <v>45153.923680556</v>
+      </c>
+      <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
         <v>160</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>161</v>
       </c>
+      <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
         <v>162</v>
       </c>
@@ -6231,6 +6312,7 @@
       <c r="AC16">
         <v>0</v>
       </c>
+      <c r="AD16" s="2"/>
       <c r="AE16">
         <v>1</v>
       </c>
@@ -6243,8 +6325,11 @@
       <c r="AH16">
         <v>820</v>
       </c>
+      <c r="AI16" s="2"/>
+      <c r="AJ16"/>
+      <c r="AK16"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37">
       <c r="A17" s="2" t="s">
         <v>169</v>
       </c>
@@ -6254,12 +6339,14 @@
       <c r="C17" s="3">
         <v>45153.92025463</v>
       </c>
+      <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
         <v>170</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>171</v>
       </c>
+      <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
         <v>172</v>
       </c>
@@ -6326,6 +6413,7 @@
       <c r="AC17">
         <v>0</v>
       </c>
+      <c r="AD17" s="2"/>
       <c r="AE17">
         <v>1</v>
       </c>
@@ -6338,8 +6426,11 @@
       <c r="AH17">
         <v>650</v>
       </c>
+      <c r="AI17" s="2"/>
+      <c r="AJ17"/>
+      <c r="AK17"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37">
       <c r="A18" s="2" t="s">
         <v>179</v>
       </c>
@@ -6347,14 +6438,16 @@
         <v>38</v>
       </c>
       <c r="C18" s="3">
-        <v>45153.916956018998</v>
-      </c>
+        <v>45153.916956019</v>
+      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
         <v>160</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>161</v>
       </c>
+      <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
         <v>162</v>
       </c>
@@ -6421,6 +6514,7 @@
       <c r="AC18">
         <v>0</v>
       </c>
+      <c r="AD18" s="2"/>
       <c r="AE18">
         <v>1</v>
       </c>
@@ -6433,8 +6527,11 @@
       <c r="AH18">
         <v>820</v>
       </c>
+      <c r="AI18" s="2"/>
+      <c r="AJ18"/>
+      <c r="AK18"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37">
       <c r="A19" s="2" t="s">
         <v>180</v>
       </c>
@@ -6442,14 +6539,16 @@
         <v>38</v>
       </c>
       <c r="C19" s="3">
-        <v>45153.901493056001</v>
-      </c>
+        <v>45153.901493056</v>
+      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
         <v>181</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>182</v>
       </c>
+      <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
         <v>183</v>
       </c>
@@ -6516,7 +6615,7 @@
       <c r="AC19">
         <v>0</v>
       </c>
-      <c r="AD19" s="5" t="s">
+      <c r="AD19" s="2" t="s">
         <v>187</v>
       </c>
       <c r="AE19">
@@ -6531,8 +6630,11 @@
       <c r="AH19">
         <v>1248</v>
       </c>
+      <c r="AI19" s="2"/>
+      <c r="AJ19"/>
+      <c r="AK19"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37">
       <c r="A20" s="2" t="s">
         <v>189</v>
       </c>
@@ -6542,12 +6644,14 @@
       <c r="C20" s="3">
         <v>45153.895787037</v>
       </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
         <v>190</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>191</v>
       </c>
+      <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
         <v>192</v>
       </c>
@@ -6614,6 +6718,7 @@
       <c r="AC20">
         <v>0</v>
       </c>
+      <c r="AD20" s="2"/>
       <c r="AE20">
         <v>1</v>
       </c>
@@ -6626,8 +6731,11 @@
       <c r="AH20">
         <v>820</v>
       </c>
+      <c r="AI20" s="2"/>
+      <c r="AJ20"/>
+      <c r="AK20"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37">
       <c r="A21" s="2" t="s">
         <v>197</v>
       </c>
@@ -6637,12 +6745,14 @@
       <c r="C21" s="3">
         <v>45153.88474537</v>
       </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
         <v>198</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>199</v>
       </c>
+      <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
         <v>200</v>
       </c>
@@ -6709,6 +6819,7 @@
       <c r="AC21">
         <v>0</v>
       </c>
+      <c r="AD21" s="2"/>
       <c r="AE21">
         <v>1</v>
       </c>
@@ -6721,8 +6832,11 @@
       <c r="AH21">
         <v>820</v>
       </c>
+      <c r="AI21" s="2"/>
+      <c r="AJ21"/>
+      <c r="AK21"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37">
       <c r="A22" s="2" t="s">
         <v>205</v>
       </c>
@@ -6732,12 +6846,14 @@
       <c r="C22" s="3">
         <v>45153.86912037</v>
       </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
         <v>206</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>207</v>
       </c>
+      <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
         <v>208</v>
       </c>
@@ -6804,6 +6920,7 @@
       <c r="AC22">
         <v>0</v>
       </c>
+      <c r="AD22" s="2"/>
       <c r="AE22">
         <v>1</v>
       </c>
@@ -6816,8 +6933,11 @@
       <c r="AH22">
         <v>820</v>
       </c>
+      <c r="AI22" s="2"/>
+      <c r="AJ22"/>
+      <c r="AK22"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37">
       <c r="A23" s="2" t="s">
         <v>212</v>
       </c>
@@ -6827,12 +6947,14 @@
       <c r="C23" s="3">
         <v>45153.860601852</v>
       </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
         <v>213</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>214</v>
       </c>
+      <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
         <v>215</v>
       </c>
@@ -6899,7 +7021,7 @@
       <c r="AC23">
         <v>0</v>
       </c>
-      <c r="AD23" s="5" t="s">
+      <c r="AD23" s="2" t="s">
         <v>221</v>
       </c>
       <c r="AE23">
@@ -6914,8 +7036,11 @@
       <c r="AH23">
         <v>906</v>
       </c>
+      <c r="AI23" s="2"/>
+      <c r="AJ23"/>
+      <c r="AK23"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37">
       <c r="A24" s="2" t="s">
         <v>223</v>
       </c>
@@ -6923,14 +7048,16 @@
         <v>38</v>
       </c>
       <c r="C24" s="3">
-        <v>45153.834872685002</v>
-      </c>
+        <v>45153.834872685</v>
+      </c>
+      <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
         <v>224</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>225</v>
       </c>
+      <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
         <v>226</v>
       </c>
@@ -6997,6 +7124,7 @@
       <c r="AC24">
         <v>0</v>
       </c>
+      <c r="AD24" s="2"/>
       <c r="AE24">
         <v>1</v>
       </c>
@@ -7009,8 +7137,11 @@
       <c r="AH24">
         <v>820</v>
       </c>
+      <c r="AI24" s="2"/>
+      <c r="AJ24"/>
+      <c r="AK24"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37">
       <c r="A25" s="2" t="s">
         <v>230</v>
       </c>
@@ -7020,12 +7151,14 @@
       <c r="C25" s="3">
         <v>45153.803773148</v>
       </c>
+      <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
         <v>231</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>232</v>
       </c>
+      <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
         <v>233</v>
       </c>
@@ -7092,7 +7225,7 @@
       <c r="AC25">
         <v>0</v>
       </c>
-      <c r="AD25" s="5" t="s">
+      <c r="AD25" s="2" t="s">
         <v>238</v>
       </c>
       <c r="AE25">
@@ -7107,8 +7240,11 @@
       <c r="AH25">
         <v>358</v>
       </c>
+      <c r="AI25" s="2"/>
+      <c r="AJ25"/>
+      <c r="AK25"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:37">
       <c r="A26" s="2" t="s">
         <v>240</v>
       </c>
@@ -7116,14 +7252,16 @@
         <v>38</v>
       </c>
       <c r="C26" s="3">
-        <v>45153.791932870001</v>
-      </c>
+        <v>45153.79193287</v>
+      </c>
+      <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
         <v>241</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>242</v>
       </c>
+      <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
         <v>243</v>
       </c>
@@ -7190,7 +7328,7 @@
       <c r="AC26">
         <v>0</v>
       </c>
-      <c r="AD26" s="5" t="s">
+      <c r="AD26" s="2" t="s">
         <v>248</v>
       </c>
       <c r="AE26">
@@ -7205,8 +7343,11 @@
       <c r="AH26">
         <v>445</v>
       </c>
+      <c r="AI26" s="2"/>
+      <c r="AJ26"/>
+      <c r="AK26"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:37">
       <c r="A27" s="2" t="s">
         <v>250</v>
       </c>
@@ -7214,14 +7355,16 @@
         <v>38</v>
       </c>
       <c r="C27" s="3">
-        <v>45153.788576389001</v>
-      </c>
+        <v>45153.788576389</v>
+      </c>
+      <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
         <v>251</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>252</v>
       </c>
+      <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
         <v>253</v>
       </c>
@@ -7288,6 +7431,7 @@
       <c r="AC27">
         <v>0</v>
       </c>
+      <c r="AD27" s="2"/>
       <c r="AE27">
         <v>1</v>
       </c>
@@ -7300,8 +7444,11 @@
       <c r="AH27">
         <v>820</v>
       </c>
+      <c r="AI27" s="2"/>
+      <c r="AJ27"/>
+      <c r="AK27"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37">
       <c r="A28" s="2" t="s">
         <v>258</v>
       </c>
@@ -7309,14 +7456,16 @@
         <v>38</v>
       </c>
       <c r="C28" s="3">
-        <v>45153.754016204002</v>
-      </c>
+        <v>45153.754016204</v>
+      </c>
+      <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
         <v>259</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>260</v>
       </c>
+      <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
         <v>261</v>
       </c>
@@ -7383,7 +7532,7 @@
       <c r="AC28">
         <v>0</v>
       </c>
-      <c r="AD28" s="5" t="s">
+      <c r="AD28" s="2" t="s">
         <v>267</v>
       </c>
       <c r="AE28">
@@ -7398,8 +7547,11 @@
       <c r="AH28">
         <v>174</v>
       </c>
+      <c r="AI28" s="2"/>
+      <c r="AJ28"/>
+      <c r="AK28"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:37">
       <c r="A29" s="2" t="s">
         <v>269</v>
       </c>
@@ -7409,12 +7561,14 @@
       <c r="C29" s="3">
         <v>45153.747662037</v>
       </c>
+      <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
         <v>270</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>271</v>
       </c>
+      <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
         <v>272</v>
       </c>
@@ -7481,7 +7635,7 @@
       <c r="AC29">
         <v>0</v>
       </c>
-      <c r="AD29" s="5" t="s">
+      <c r="AD29" s="2" t="s">
         <v>248</v>
       </c>
       <c r="AE29">
@@ -7496,8 +7650,11 @@
       <c r="AH29">
         <v>445</v>
       </c>
+      <c r="AI29" s="2"/>
+      <c r="AJ29"/>
+      <c r="AK29"/>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37">
       <c r="A30" s="2" t="s">
         <v>277</v>
       </c>
@@ -7505,14 +7662,16 @@
         <v>38</v>
       </c>
       <c r="C30" s="3">
-        <v>45153.742777778003</v>
-      </c>
+        <v>45153.742777778</v>
+      </c>
+      <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
         <v>278</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>279</v>
       </c>
+      <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
         <v>280</v>
       </c>
@@ -7579,7 +7738,7 @@
       <c r="AC30">
         <v>0</v>
       </c>
-      <c r="AD30" s="5" t="s">
+      <c r="AD30" s="2" t="s">
         <v>286</v>
       </c>
       <c r="AE30">
@@ -7594,8 +7753,11 @@
       <c r="AH30">
         <v>638</v>
       </c>
+      <c r="AI30" s="2"/>
+      <c r="AJ30"/>
+      <c r="AK30"/>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:37">
       <c r="A31" s="2" t="s">
         <v>288</v>
       </c>
@@ -7605,12 +7767,14 @@
       <c r="C31" s="3">
         <v>45153.724340278</v>
       </c>
+      <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
         <v>289</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>290</v>
       </c>
+      <c r="G31" s="2"/>
       <c r="H31" s="2" t="s">
         <v>291</v>
       </c>
@@ -7677,7 +7841,7 @@
       <c r="AC31">
         <v>0</v>
       </c>
-      <c r="AD31" s="5" t="s">
+      <c r="AD31" s="2" t="s">
         <v>296</v>
       </c>
       <c r="AE31">
@@ -7692,8 +7856,11 @@
       <c r="AH31">
         <v>240</v>
       </c>
+      <c r="AI31" s="2"/>
+      <c r="AJ31"/>
+      <c r="AK31"/>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:37">
       <c r="A32" s="2" t="s">
         <v>298</v>
       </c>
@@ -7701,14 +7868,16 @@
         <v>38</v>
       </c>
       <c r="C32" s="3">
-        <v>45153.682974536998</v>
-      </c>
+        <v>45153.682974537</v>
+      </c>
+      <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
         <v>299</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>300</v>
       </c>
+      <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
         <v>301</v>
       </c>
@@ -7775,6 +7944,7 @@
       <c r="AC32">
         <v>0</v>
       </c>
+      <c r="AD32" s="2"/>
       <c r="AE32">
         <v>1</v>
       </c>
@@ -7787,8 +7957,11 @@
       <c r="AH32">
         <v>649</v>
       </c>
+      <c r="AI32" s="2"/>
+      <c r="AJ32"/>
+      <c r="AK32"/>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:37">
       <c r="A33" s="2" t="s">
         <v>307</v>
       </c>
@@ -7796,14 +7969,16 @@
         <v>38</v>
       </c>
       <c r="C33" s="3">
-        <v>45153.643182870001</v>
-      </c>
+        <v>45153.64318287</v>
+      </c>
+      <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
         <v>308</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>207</v>
       </c>
+      <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
         <v>309</v>
       </c>
@@ -7870,6 +8045,7 @@
       <c r="AC33">
         <v>0</v>
       </c>
+      <c r="AD33" s="2"/>
       <c r="AE33">
         <v>1</v>
       </c>
@@ -7882,8 +8058,11 @@
       <c r="AH33">
         <v>820</v>
       </c>
+      <c r="AI33" s="2"/>
+      <c r="AJ33"/>
+      <c r="AK33"/>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:37">
       <c r="A34" s="2" t="s">
         <v>314</v>
       </c>
@@ -7891,14 +8070,16 @@
         <v>38</v>
       </c>
       <c r="C34" s="3">
-        <v>45153.630810185001</v>
-      </c>
+        <v>45153.630810185</v>
+      </c>
+      <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
         <v>315</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>316</v>
       </c>
+      <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
         <v>317</v>
       </c>
@@ -7965,6 +8146,7 @@
       <c r="AC34">
         <v>0</v>
       </c>
+      <c r="AD34" s="2"/>
       <c r="AE34">
         <v>1</v>
       </c>
@@ -7977,8 +8159,11 @@
       <c r="AH34">
         <v>820</v>
       </c>
+      <c r="AI34" s="2"/>
+      <c r="AJ34"/>
+      <c r="AK34"/>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:37">
       <c r="A35" s="2" t="s">
         <v>322</v>
       </c>
@@ -7986,14 +8171,16 @@
         <v>38</v>
       </c>
       <c r="C35" s="3">
-        <v>45153.593391203998</v>
-      </c>
+        <v>45153.593391204</v>
+      </c>
+      <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
         <v>323</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>324</v>
       </c>
+      <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
         <v>325</v>
       </c>
@@ -8060,6 +8247,7 @@
       <c r="AC35">
         <v>0</v>
       </c>
+      <c r="AD35" s="2"/>
       <c r="AE35">
         <v>1</v>
       </c>
@@ -8072,8 +8260,11 @@
       <c r="AH35">
         <v>820</v>
       </c>
+      <c r="AI35" s="2"/>
+      <c r="AJ35"/>
+      <c r="AK35"/>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:37">
       <c r="A36" s="2" t="s">
         <v>330</v>
       </c>
@@ -8081,14 +8272,16 @@
         <v>38</v>
       </c>
       <c r="C36" s="3">
-        <v>45153.571666666998</v>
-      </c>
+        <v>45153.571666667</v>
+      </c>
+      <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
         <v>331</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>332</v>
       </c>
+      <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
         <v>333</v>
       </c>
@@ -8155,7 +8348,7 @@
       <c r="AC36">
         <v>0</v>
       </c>
-      <c r="AD36" s="5" t="s">
+      <c r="AD36" s="2" t="s">
         <v>338</v>
       </c>
       <c r="AE36">
@@ -8170,8 +8363,11 @@
       <c r="AH36">
         <v>275</v>
       </c>
+      <c r="AI36" s="2"/>
+      <c r="AJ36"/>
+      <c r="AK36"/>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:37">
       <c r="A37" s="2" t="s">
         <v>340</v>
       </c>
@@ -8179,14 +8375,16 @@
         <v>38</v>
       </c>
       <c r="C37" s="3">
-        <v>45153.569386574003</v>
-      </c>
+        <v>45153.569386574</v>
+      </c>
+      <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>341</v>
       </c>
+      <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
         <v>342</v>
       </c>
@@ -8253,7 +8451,7 @@
       <c r="AC37">
         <v>0</v>
       </c>
-      <c r="AD37" s="5" t="s">
+      <c r="AD37" s="2" t="s">
         <v>108</v>
       </c>
       <c r="AE37">
@@ -8268,8 +8466,11 @@
       <c r="AH37">
         <v>440</v>
       </c>
+      <c r="AI37" s="2"/>
+      <c r="AJ37"/>
+      <c r="AK37"/>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:37">
       <c r="A38" s="2" t="s">
         <v>347</v>
       </c>
@@ -8279,12 +8480,14 @@
       <c r="C38" s="3">
         <v>45153.558043981</v>
       </c>
+      <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
         <v>323</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>348</v>
       </c>
+      <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
         <v>349</v>
       </c>
@@ -8351,6 +8554,7 @@
       <c r="AC38">
         <v>0</v>
       </c>
+      <c r="AD38" s="2"/>
       <c r="AE38">
         <v>1</v>
       </c>
@@ -8363,8 +8567,11 @@
       <c r="AH38">
         <v>820</v>
       </c>
+      <c r="AI38" s="2"/>
+      <c r="AJ38"/>
+      <c r="AK38"/>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:37">
       <c r="A39" s="2" t="s">
         <v>354</v>
       </c>
@@ -8372,14 +8579,16 @@
         <v>38</v>
       </c>
       <c r="C39" s="3">
-        <v>45153.532881943996</v>
-      </c>
+        <v>45153.532881944</v>
+      </c>
+      <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
         <v>355</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>355</v>
       </c>
+      <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
         <v>356</v>
       </c>
@@ -8446,6 +8655,7 @@
       <c r="AC39">
         <v>0</v>
       </c>
+      <c r="AD39" s="2"/>
       <c r="AE39">
         <v>1</v>
       </c>
@@ -8458,8 +8668,11 @@
       <c r="AH39">
         <v>820</v>
       </c>
+      <c r="AI39" s="2"/>
+      <c r="AJ39"/>
+      <c r="AK39"/>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:37">
       <c r="A40" s="2" t="s">
         <v>361</v>
       </c>
@@ -8467,14 +8680,16 @@
         <v>38</v>
       </c>
       <c r="C40" s="3">
-        <v>45153.511932870002</v>
-      </c>
+        <v>45153.51193287</v>
+      </c>
+      <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
         <v>362</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
         <v>363</v>
       </c>
@@ -8541,6 +8756,7 @@
       <c r="AC40">
         <v>0</v>
       </c>
+      <c r="AD40" s="2"/>
       <c r="AE40">
         <v>1</v>
       </c>
@@ -8553,8 +8769,11 @@
       <c r="AH40">
         <v>820</v>
       </c>
+      <c r="AI40" s="2"/>
+      <c r="AJ40"/>
+      <c r="AK40"/>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:37">
       <c r="A41" s="2" t="s">
         <v>368</v>
       </c>
@@ -8562,14 +8781,16 @@
         <v>38</v>
       </c>
       <c r="C41" s="3">
-        <v>45153.499976851999</v>
-      </c>
+        <v>45153.499976852</v>
+      </c>
+      <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
         <v>369</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>207</v>
       </c>
+      <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
         <v>370</v>
       </c>
@@ -8636,6 +8857,7 @@
       <c r="AC41">
         <v>0</v>
       </c>
+      <c r="AD41" s="2"/>
       <c r="AE41">
         <v>1</v>
       </c>
@@ -8648,8 +8870,11 @@
       <c r="AH41">
         <v>820</v>
       </c>
+      <c r="AI41" s="2"/>
+      <c r="AJ41"/>
+      <c r="AK41"/>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:37">
       <c r="A42" s="2" t="s">
         <v>375</v>
       </c>
@@ -8657,14 +8882,16 @@
         <v>38</v>
       </c>
       <c r="C42" s="3">
-        <v>45153.489409722002</v>
-      </c>
+        <v>45153.489409722</v>
+      </c>
+      <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
         <v>376</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>377</v>
       </c>
+      <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
         <v>378</v>
       </c>
@@ -8731,7 +8958,7 @@
       <c r="AC42">
         <v>0</v>
       </c>
-      <c r="AD42" s="5" t="s">
+      <c r="AD42" s="2" t="s">
         <v>383</v>
       </c>
       <c r="AE42">
@@ -8746,8 +8973,11 @@
       <c r="AH42">
         <v>180</v>
       </c>
+      <c r="AI42" s="2"/>
+      <c r="AJ42"/>
+      <c r="AK42"/>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:37">
       <c r="A43" s="2" t="s">
         <v>375</v>
       </c>
@@ -8755,14 +8985,16 @@
         <v>38</v>
       </c>
       <c r="C43" s="3">
-        <v>45153.489409722002</v>
-      </c>
+        <v>45153.489409722</v>
+      </c>
+      <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
         <v>376</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>377</v>
       </c>
+      <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
         <v>378</v>
       </c>
@@ -8829,7 +9061,7 @@
       <c r="AC43">
         <v>0</v>
       </c>
-      <c r="AD43" s="5" t="s">
+      <c r="AD43" s="2" t="s">
         <v>385</v>
       </c>
       <c r="AE43">
@@ -8844,8 +9076,11 @@
       <c r="AH43">
         <v>170</v>
       </c>
+      <c r="AI43" s="2"/>
+      <c r="AJ43"/>
+      <c r="AK43"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:37">
       <c r="A44" s="2" t="s">
         <v>375</v>
       </c>
@@ -8853,14 +9088,16 @@
         <v>38</v>
       </c>
       <c r="C44" s="3">
-        <v>45153.489409722002</v>
-      </c>
+        <v>45153.489409722</v>
+      </c>
+      <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
         <v>376</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>377</v>
       </c>
+      <c r="G44" s="2"/>
       <c r="H44" s="2" t="s">
         <v>378</v>
       </c>
@@ -8927,7 +9164,7 @@
       <c r="AC44">
         <v>0</v>
       </c>
-      <c r="AD44" s="5" t="s">
+      <c r="AD44" s="2" t="s">
         <v>387</v>
       </c>
       <c r="AE44">
@@ -8942,8 +9179,11 @@
       <c r="AH44">
         <v>180</v>
       </c>
+      <c r="AI44" s="2"/>
+      <c r="AJ44"/>
+      <c r="AK44"/>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:37">
       <c r="A45" s="2" t="s">
         <v>389</v>
       </c>
@@ -8951,14 +9191,16 @@
         <v>38</v>
       </c>
       <c r="C45" s="3">
-        <v>45153.473969906998</v>
-      </c>
+        <v>45153.473969907</v>
+      </c>
+      <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
         <v>390</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>391</v>
       </c>
+      <c r="G45" s="2"/>
       <c r="H45" s="2" t="s">
         <v>392</v>
       </c>
@@ -9025,7 +9267,7 @@
       <c r="AC45">
         <v>0</v>
       </c>
-      <c r="AD45" s="5" t="s">
+      <c r="AD45" s="2" t="s">
         <v>397</v>
       </c>
       <c r="AE45">
@@ -9040,8 +9282,11 @@
       <c r="AH45">
         <v>399</v>
       </c>
+      <c r="AI45" s="2"/>
+      <c r="AJ45"/>
+      <c r="AK45"/>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:37">
       <c r="A46" s="2" t="s">
         <v>399</v>
       </c>
@@ -9049,14 +9294,16 @@
         <v>38</v>
       </c>
       <c r="C46" s="3">
-        <v>45153.328171296002</v>
-      </c>
+        <v>45153.328171296</v>
+      </c>
+      <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
         <v>400</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>401</v>
       </c>
+      <c r="G46" s="2"/>
       <c r="H46" s="2" t="s">
         <v>402</v>
       </c>
@@ -9123,7 +9370,7 @@
       <c r="AC46">
         <v>0</v>
       </c>
-      <c r="AD46" s="5" t="s">
+      <c r="AD46" s="2" t="s">
         <v>248</v>
       </c>
       <c r="AE46">
@@ -9138,8 +9385,11 @@
       <c r="AH46">
         <v>445</v>
       </c>
+      <c r="AI46" s="2"/>
+      <c r="AJ46"/>
+      <c r="AK46"/>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:37">
       <c r="A47" s="2" t="s">
         <v>406</v>
       </c>
@@ -9147,14 +9397,16 @@
         <v>38</v>
       </c>
       <c r="C47" s="3">
-        <v>45153.277442129998</v>
-      </c>
+        <v>45153.27744213</v>
+      </c>
+      <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
         <v>407</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>407</v>
       </c>
+      <c r="G47" s="2"/>
       <c r="H47" s="2" t="s">
         <v>408</v>
       </c>
@@ -9221,6 +9473,7 @@
       <c r="AC47">
         <v>0</v>
       </c>
+      <c r="AD47" s="2"/>
       <c r="AE47">
         <v>1</v>
       </c>
@@ -9233,8 +9486,11 @@
       <c r="AH47">
         <v>820</v>
       </c>
+      <c r="AI47" s="2"/>
+      <c r="AJ47"/>
+      <c r="AK47"/>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:37">
       <c r="A48" s="2" t="s">
         <v>413</v>
       </c>
@@ -9242,14 +9498,16 @@
         <v>38</v>
       </c>
       <c r="C48" s="3">
-        <v>45152.981585647998</v>
-      </c>
+        <v>45152.981585648</v>
+      </c>
+      <c r="D48" s="2"/>
       <c r="E48" s="2" t="s">
         <v>414</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>415</v>
       </c>
+      <c r="G48" s="2"/>
       <c r="H48" s="2" t="s">
         <v>416</v>
       </c>
@@ -9316,7 +9574,7 @@
       <c r="AC48">
         <v>0</v>
       </c>
-      <c r="AD48" s="5" t="s">
+      <c r="AD48" s="2" t="s">
         <v>423</v>
       </c>
       <c r="AE48">
@@ -9331,8 +9589,11 @@
       <c r="AH48">
         <v>532</v>
       </c>
+      <c r="AI48" s="2"/>
+      <c r="AJ48"/>
+      <c r="AK48"/>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:37">
       <c r="A49" s="2" t="s">
         <v>425</v>
       </c>
@@ -9342,12 +9603,14 @@
       <c r="C49" s="3">
         <v>45152.956770833</v>
       </c>
+      <c r="D49" s="2"/>
       <c r="E49" s="2" t="s">
         <v>426</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>427</v>
       </c>
+      <c r="G49" s="2"/>
       <c r="H49" s="2" t="s">
         <v>428</v>
       </c>
@@ -9414,7 +9677,7 @@
       <c r="AC49">
         <v>0</v>
       </c>
-      <c r="AD49" s="5" t="s">
+      <c r="AD49" s="2" t="s">
         <v>433</v>
       </c>
       <c r="AE49">
@@ -9429,8 +9692,11 @@
       <c r="AH49">
         <v>1249</v>
       </c>
+      <c r="AI49" s="2"/>
+      <c r="AJ49"/>
+      <c r="AK49"/>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:37">
       <c r="A50" s="2" t="s">
         <v>435</v>
       </c>
@@ -9438,14 +9704,16 @@
         <v>38</v>
       </c>
       <c r="C50" s="3">
-        <v>45152.954791666998</v>
-      </c>
+        <v>45152.954791667</v>
+      </c>
+      <c r="D50" s="2"/>
       <c r="E50" s="2" t="s">
         <v>436</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>437</v>
       </c>
+      <c r="G50" s="2"/>
       <c r="H50" s="2" t="s">
         <v>438</v>
       </c>
@@ -9512,6 +9780,7 @@
       <c r="AC50">
         <v>0</v>
       </c>
+      <c r="AD50" s="2"/>
       <c r="AE50">
         <v>1</v>
       </c>
@@ -9524,8 +9793,11 @@
       <c r="AH50">
         <v>820</v>
       </c>
+      <c r="AI50" s="2"/>
+      <c r="AJ50"/>
+      <c r="AK50"/>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:37">
       <c r="A51" s="2" t="s">
         <v>443</v>
       </c>
@@ -9533,14 +9805,16 @@
         <v>38</v>
       </c>
       <c r="C51" s="3">
-        <v>45152.954317130003</v>
-      </c>
+        <v>45152.95431713</v>
+      </c>
+      <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
         <v>444</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>445</v>
       </c>
+      <c r="G51" s="2"/>
       <c r="H51" s="2" t="s">
         <v>446</v>
       </c>
@@ -9607,7 +9881,7 @@
       <c r="AC51">
         <v>0</v>
       </c>
-      <c r="AD51" s="5" t="s">
+      <c r="AD51" s="2" t="s">
         <v>450</v>
       </c>
       <c r="AE51">
@@ -9622,8 +9896,11 @@
       <c r="AH51">
         <v>299</v>
       </c>
+      <c r="AI51" s="2"/>
+      <c r="AJ51"/>
+      <c r="AK51"/>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:37">
       <c r="A52" s="2" t="s">
         <v>452</v>
       </c>
@@ -9631,14 +9908,16 @@
         <v>38</v>
       </c>
       <c r="C52" s="3">
-        <v>45152.934791667001</v>
-      </c>
+        <v>45152.934791667</v>
+      </c>
+      <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
         <v>453</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>454</v>
       </c>
+      <c r="G52" s="2"/>
       <c r="H52" s="2" t="s">
         <v>455</v>
       </c>
@@ -9705,6 +9984,7 @@
       <c r="AC52">
         <v>0</v>
       </c>
+      <c r="AD52" s="2"/>
       <c r="AE52">
         <v>1</v>
       </c>
@@ -9717,8 +9997,11 @@
       <c r="AH52">
         <v>820</v>
       </c>
+      <c r="AI52" s="2"/>
+      <c r="AJ52"/>
+      <c r="AK52"/>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:37">
       <c r="A53" s="2" t="s">
         <v>460</v>
       </c>
@@ -9726,14 +10009,16 @@
         <v>38</v>
       </c>
       <c r="C53" s="3">
-        <v>45152.929444444002</v>
-      </c>
+        <v>45152.929444444</v>
+      </c>
+      <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
         <v>461</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>462</v>
       </c>
+      <c r="G53" s="2"/>
       <c r="H53" s="2" t="s">
         <v>463</v>
       </c>
@@ -9800,7 +10085,7 @@
       <c r="AC53">
         <v>0</v>
       </c>
-      <c r="AD53" s="5" t="s">
+      <c r="AD53" s="2" t="s">
         <v>469</v>
       </c>
       <c r="AE53">
@@ -9815,8 +10100,11 @@
       <c r="AH53">
         <v>608</v>
       </c>
+      <c r="AI53" s="2"/>
+      <c r="AJ53"/>
+      <c r="AK53"/>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:37">
       <c r="A54" s="2" t="s">
         <v>471</v>
       </c>
@@ -9824,14 +10112,16 @@
         <v>38</v>
       </c>
       <c r="C54" s="3">
-        <v>45152.915196759001</v>
-      </c>
+        <v>45152.915196759</v>
+      </c>
+      <c r="D54" s="2"/>
       <c r="E54" s="2" t="s">
         <v>472</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>473</v>
       </c>
+      <c r="G54" s="2"/>
       <c r="H54" s="2" t="s">
         <v>474</v>
       </c>
@@ -9898,6 +10188,7 @@
       <c r="AC54">
         <v>0</v>
       </c>
+      <c r="AD54" s="2"/>
       <c r="AE54">
         <v>1</v>
       </c>
@@ -9910,8 +10201,11 @@
       <c r="AH54">
         <v>820</v>
       </c>
+      <c r="AI54" s="2"/>
+      <c r="AJ54"/>
+      <c r="AK54"/>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:37">
       <c r="A55" s="2" t="s">
         <v>479</v>
       </c>
@@ -9921,12 +10215,14 @@
       <c r="C55" s="3">
         <v>45152.911840278</v>
       </c>
+      <c r="D55" s="2"/>
       <c r="E55" s="2" t="s">
         <v>480</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>481</v>
       </c>
+      <c r="G55" s="2"/>
       <c r="H55" s="2" t="s">
         <v>482</v>
       </c>
@@ -9993,7 +10289,7 @@
       <c r="AC55">
         <v>0</v>
       </c>
-      <c r="AD55" s="5" t="s">
+      <c r="AD55" s="2" t="s">
         <v>488</v>
       </c>
       <c r="AE55">
@@ -10008,8 +10304,11 @@
       <c r="AH55">
         <v>638</v>
       </c>
+      <c r="AI55" s="2"/>
+      <c r="AJ55"/>
+      <c r="AK55"/>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:37">
       <c r="A56" s="2" t="s">
         <v>490</v>
       </c>
@@ -10017,14 +10316,16 @@
         <v>38</v>
       </c>
       <c r="C56" s="3">
-        <v>45152.910289352003</v>
-      </c>
+        <v>45152.910289352</v>
+      </c>
+      <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
         <v>491</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>492</v>
       </c>
+      <c r="G56" s="2"/>
       <c r="H56" s="2" t="s">
         <v>493</v>
       </c>
@@ -10091,7 +10392,7 @@
       <c r="AC56">
         <v>0</v>
       </c>
-      <c r="AD56" s="5" t="s">
+      <c r="AD56" s="2" t="s">
         <v>497</v>
       </c>
       <c r="AE56">
@@ -10106,8 +10407,11 @@
       <c r="AH56">
         <v>340</v>
       </c>
+      <c r="AI56" s="2"/>
+      <c r="AJ56"/>
+      <c r="AK56"/>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:37">
       <c r="A57" s="2" t="s">
         <v>499</v>
       </c>
@@ -10115,14 +10419,16 @@
         <v>38</v>
       </c>
       <c r="C57" s="3">
-        <v>45152.895729167001</v>
-      </c>
+        <v>45152.895729167</v>
+      </c>
+      <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
         <v>500</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>501</v>
       </c>
+      <c r="G57" s="2"/>
       <c r="H57" s="2" t="s">
         <v>502</v>
       </c>
@@ -10189,6 +10495,7 @@
       <c r="AC57">
         <v>0</v>
       </c>
+      <c r="AD57" s="2"/>
       <c r="AE57">
         <v>1</v>
       </c>
@@ -10201,8 +10508,11 @@
       <c r="AH57">
         <v>820</v>
       </c>
+      <c r="AI57" s="2"/>
+      <c r="AJ57"/>
+      <c r="AK57"/>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:37">
       <c r="A58" s="2" t="s">
         <v>507</v>
       </c>
@@ -10212,12 +10522,14 @@
       <c r="C58" s="3">
         <v>45152.874398148</v>
       </c>
+      <c r="D58" s="2"/>
       <c r="E58" s="2" t="s">
         <v>508</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="G58" s="2"/>
       <c r="H58" s="2" t="s">
         <v>509</v>
       </c>
@@ -10284,6 +10596,7 @@
       <c r="AC58">
         <v>0</v>
       </c>
+      <c r="AD58" s="2"/>
       <c r="AE58">
         <v>1</v>
       </c>
@@ -10296,8 +10609,11 @@
       <c r="AH58">
         <v>820</v>
       </c>
+      <c r="AI58" s="2"/>
+      <c r="AJ58"/>
+      <c r="AK58"/>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:37">
       <c r="A59" s="2" t="s">
         <v>514</v>
       </c>
@@ -10305,14 +10621,16 @@
         <v>38</v>
       </c>
       <c r="C59" s="3">
-        <v>45152.869375000002</v>
-      </c>
+        <v>45152.869375</v>
+      </c>
+      <c r="D59" s="2"/>
       <c r="E59" s="2" t="s">
         <v>515</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>516</v>
       </c>
+      <c r="G59" s="2"/>
       <c r="H59" s="2" t="s">
         <v>517</v>
       </c>
@@ -10379,6 +10697,7 @@
       <c r="AC59">
         <v>0</v>
       </c>
+      <c r="AD59" s="2"/>
       <c r="AE59">
         <v>1</v>
       </c>
@@ -10391,8 +10710,11 @@
       <c r="AH59">
         <v>820</v>
       </c>
+      <c r="AI59" s="2"/>
+      <c r="AJ59"/>
+      <c r="AK59"/>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:37">
       <c r="A60" s="2" t="s">
         <v>522</v>
       </c>
@@ -10400,14 +10722,16 @@
         <v>38</v>
       </c>
       <c r="C60" s="3">
-        <v>45152.845567130003</v>
-      </c>
+        <v>45152.84556713</v>
+      </c>
+      <c r="D60" s="2"/>
       <c r="E60" s="2" t="s">
         <v>523</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>523</v>
       </c>
+      <c r="G60" s="2"/>
       <c r="H60" s="2" t="s">
         <v>524</v>
       </c>
@@ -10474,6 +10798,7 @@
       <c r="AC60">
         <v>0</v>
       </c>
+      <c r="AD60" s="2"/>
       <c r="AE60">
         <v>1</v>
       </c>
@@ -10486,8 +10811,11 @@
       <c r="AH60">
         <v>820</v>
       </c>
+      <c r="AI60" s="2"/>
+      <c r="AJ60"/>
+      <c r="AK60"/>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:37">
       <c r="A61" s="2" t="s">
         <v>529</v>
       </c>
@@ -10495,14 +10823,16 @@
         <v>38</v>
       </c>
       <c r="C61" s="3">
-        <v>45152.841840278001</v>
-      </c>
+        <v>45152.841840278</v>
+      </c>
+      <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
         <v>530</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>530</v>
       </c>
+      <c r="G61" s="2"/>
       <c r="H61" s="2" t="s">
         <v>531</v>
       </c>
@@ -10569,6 +10899,7 @@
       <c r="AC61">
         <v>0</v>
       </c>
+      <c r="AD61" s="2"/>
       <c r="AE61">
         <v>1</v>
       </c>
@@ -10581,8 +10912,11 @@
       <c r="AH61">
         <v>820</v>
       </c>
+      <c r="AI61" s="2"/>
+      <c r="AJ61"/>
+      <c r="AK61"/>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:37">
       <c r="A62" s="2" t="s">
         <v>535</v>
       </c>
@@ -10590,14 +10924,16 @@
         <v>38</v>
       </c>
       <c r="C62" s="3">
-        <v>45152.835034721997</v>
-      </c>
+        <v>45152.835034722</v>
+      </c>
+      <c r="D62" s="2"/>
       <c r="E62" s="2" t="s">
         <v>536</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>537</v>
       </c>
+      <c r="G62" s="2"/>
       <c r="H62" s="2" t="s">
         <v>538</v>
       </c>
@@ -10664,7 +11000,7 @@
       <c r="AC62">
         <v>0</v>
       </c>
-      <c r="AD62" s="5" t="s">
+      <c r="AD62" s="2" t="s">
         <v>543</v>
       </c>
       <c r="AE62">
@@ -10679,8 +11015,11 @@
       <c r="AH62">
         <v>130</v>
       </c>
+      <c r="AI62" s="2"/>
+      <c r="AJ62"/>
+      <c r="AK62"/>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:37">
       <c r="A63" s="2" t="s">
         <v>545</v>
       </c>
@@ -10688,14 +11027,16 @@
         <v>38</v>
       </c>
       <c r="C63" s="3">
-        <v>45152.827280092999</v>
-      </c>
+        <v>45152.827280093</v>
+      </c>
+      <c r="D63" s="2"/>
       <c r="E63" s="2" t="s">
         <v>546</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>547</v>
       </c>
+      <c r="G63" s="2"/>
       <c r="H63" s="2" t="s">
         <v>548</v>
       </c>
@@ -10762,7 +11103,7 @@
       <c r="AC63">
         <v>0</v>
       </c>
-      <c r="AD63" s="5" t="s">
+      <c r="AD63" s="2" t="s">
         <v>552</v>
       </c>
       <c r="AE63">
@@ -10777,8 +11118,11 @@
       <c r="AH63">
         <v>270</v>
       </c>
+      <c r="AI63" s="2"/>
+      <c r="AJ63"/>
+      <c r="AK63"/>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:37">
       <c r="A64" s="2" t="s">
         <v>554</v>
       </c>
@@ -10786,14 +11130,16 @@
         <v>38</v>
       </c>
       <c r="C64" s="3">
-        <v>45152.812152778002</v>
-      </c>
+        <v>45152.812152778</v>
+      </c>
+      <c r="D64" s="2"/>
       <c r="E64" s="2" t="s">
         <v>555</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>556</v>
       </c>
+      <c r="G64" s="2"/>
       <c r="H64" s="2" t="s">
         <v>557</v>
       </c>
@@ -10860,6 +11206,7 @@
       <c r="AC64">
         <v>0</v>
       </c>
+      <c r="AD64" s="2"/>
       <c r="AE64">
         <v>1</v>
       </c>
@@ -10872,8 +11219,11 @@
       <c r="AH64">
         <v>549</v>
       </c>
+      <c r="AI64" s="2"/>
+      <c r="AJ64"/>
+      <c r="AK64"/>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:37">
       <c r="A65" s="2" t="s">
         <v>562</v>
       </c>
@@ -10881,14 +11231,16 @@
         <v>38</v>
       </c>
       <c r="C65" s="3">
-        <v>45152.790532407002</v>
-      </c>
+        <v>45152.790532407</v>
+      </c>
+      <c r="D65" s="2"/>
       <c r="E65" s="2" t="s">
         <v>563</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>564</v>
       </c>
+      <c r="G65" s="2"/>
       <c r="H65" s="2" t="s">
         <v>565</v>
       </c>
@@ -10955,6 +11307,7 @@
       <c r="AC65">
         <v>0</v>
       </c>
+      <c r="AD65" s="2"/>
       <c r="AE65">
         <v>1</v>
       </c>
@@ -10967,8 +11320,11 @@
       <c r="AH65">
         <v>649</v>
       </c>
+      <c r="AI65" s="2"/>
+      <c r="AJ65"/>
+      <c r="AK65"/>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:37">
       <c r="A66" s="2" t="s">
         <v>570</v>
       </c>
@@ -10976,14 +11332,16 @@
         <v>38</v>
       </c>
       <c r="C66" s="3">
-        <v>45152.766481480998</v>
-      </c>
+        <v>45152.766481481</v>
+      </c>
+      <c r="D66" s="2"/>
       <c r="E66" s="2" t="s">
         <v>571</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>572</v>
       </c>
+      <c r="G66" s="2"/>
       <c r="H66" s="2" t="s">
         <v>573</v>
       </c>
@@ -11050,7 +11408,7 @@
       <c r="AC66">
         <v>0</v>
       </c>
-      <c r="AD66" s="5" t="s">
+      <c r="AD66" s="2" t="s">
         <v>579</v>
       </c>
       <c r="AE66">
@@ -11065,8 +11423,11 @@
       <c r="AH66">
         <v>89</v>
       </c>
+      <c r="AI66" s="2"/>
+      <c r="AJ66"/>
+      <c r="AK66"/>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:37">
       <c r="A67" s="2" t="s">
         <v>570</v>
       </c>
@@ -11074,14 +11435,16 @@
         <v>38</v>
       </c>
       <c r="C67" s="3">
-        <v>45152.766481480998</v>
-      </c>
+        <v>45152.766481481</v>
+      </c>
+      <c r="D67" s="2"/>
       <c r="E67" s="2" t="s">
         <v>571</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>572</v>
       </c>
+      <c r="G67" s="2"/>
       <c r="H67" s="2" t="s">
         <v>573</v>
       </c>
@@ -11148,6 +11511,7 @@
       <c r="AC67">
         <v>0</v>
       </c>
+      <c r="AD67" s="2"/>
       <c r="AE67">
         <v>2</v>
       </c>
@@ -11160,8 +11524,11 @@
       <c r="AH67">
         <v>649</v>
       </c>
+      <c r="AI67" s="2"/>
+      <c r="AJ67"/>
+      <c r="AK67"/>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:37">
       <c r="A68" s="2" t="s">
         <v>581</v>
       </c>
@@ -11169,14 +11536,16 @@
         <v>38</v>
       </c>
       <c r="C68" s="3">
-        <v>45152.737060184998</v>
-      </c>
+        <v>45152.737060185</v>
+      </c>
+      <c r="D68" s="2"/>
       <c r="E68" s="2" t="s">
         <v>582</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>279</v>
       </c>
+      <c r="G68" s="2"/>
       <c r="H68" s="2" t="s">
         <v>583</v>
       </c>
@@ -11243,6 +11612,7 @@
       <c r="AC68">
         <v>0</v>
       </c>
+      <c r="AD68" s="2"/>
       <c r="AE68">
         <v>1</v>
       </c>
@@ -11255,8 +11625,11 @@
       <c r="AH68">
         <v>820</v>
       </c>
+      <c r="AI68" s="2"/>
+      <c r="AJ68"/>
+      <c r="AK68"/>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:37">
       <c r="A69" s="2" t="s">
         <v>588</v>
       </c>
@@ -11264,14 +11637,16 @@
         <v>38</v>
       </c>
       <c r="C69" s="3">
-        <v>45152.724907406999</v>
-      </c>
+        <v>45152.724907407</v>
+      </c>
+      <c r="D69" s="2"/>
       <c r="E69" s="2" t="s">
         <v>589</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="G69" s="2"/>
       <c r="H69" s="2" t="s">
         <v>590</v>
       </c>
@@ -11338,6 +11713,7 @@
       <c r="AC69">
         <v>0</v>
       </c>
+      <c r="AD69" s="2"/>
       <c r="AE69">
         <v>1</v>
       </c>
@@ -11350,8 +11726,11 @@
       <c r="AH69">
         <v>799</v>
       </c>
+      <c r="AI69" s="2"/>
+      <c r="AJ69"/>
+      <c r="AK69"/>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:37">
       <c r="A70" s="2" t="s">
         <v>596</v>
       </c>
@@ -11359,14 +11738,16 @@
         <v>38</v>
       </c>
       <c r="C70" s="3">
-        <v>45152.717604167003</v>
-      </c>
+        <v>45152.717604167</v>
+      </c>
+      <c r="D70" s="2"/>
       <c r="E70" s="2" t="s">
         <v>597</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>597</v>
       </c>
+      <c r="G70" s="2"/>
       <c r="H70" s="2" t="s">
         <v>598</v>
       </c>
@@ -11433,6 +11814,7 @@
       <c r="AC70">
         <v>0</v>
       </c>
+      <c r="AD70" s="2"/>
       <c r="AE70">
         <v>1</v>
       </c>
@@ -11445,8 +11827,11 @@
       <c r="AH70">
         <v>820</v>
       </c>
+      <c r="AI70" s="2"/>
+      <c r="AJ70"/>
+      <c r="AK70"/>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:37">
       <c r="A71" s="2" t="s">
         <v>603</v>
       </c>
@@ -11456,12 +11841,14 @@
       <c r="C71" s="3">
         <v>45152.712164352</v>
       </c>
+      <c r="D71" s="2"/>
       <c r="E71" s="2" t="s">
         <v>604</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>605</v>
       </c>
+      <c r="G71" s="2"/>
       <c r="H71" s="2" t="s">
         <v>606</v>
       </c>
@@ -11528,6 +11915,7 @@
       <c r="AC71">
         <v>0</v>
       </c>
+      <c r="AD71" s="2"/>
       <c r="AE71">
         <v>1</v>
       </c>
@@ -11540,8 +11928,11 @@
       <c r="AH71">
         <v>820</v>
       </c>
+      <c r="AI71" s="2"/>
+      <c r="AJ71"/>
+      <c r="AK71"/>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:37">
       <c r="A72" s="2" t="s">
         <v>611</v>
       </c>
@@ -11551,12 +11942,14 @@
       <c r="C72" s="3">
         <v>45152.685162037</v>
       </c>
+      <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
         <v>612</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>613</v>
       </c>
+      <c r="G72" s="2"/>
       <c r="H72" s="2" t="s">
         <v>614</v>
       </c>
@@ -11623,7 +12016,7 @@
       <c r="AC72">
         <v>0</v>
       </c>
-      <c r="AD72" s="5" t="s">
+      <c r="AD72" s="2" t="s">
         <v>619</v>
       </c>
       <c r="AE72">
@@ -11638,8 +12031,11 @@
       <c r="AH72">
         <v>1249</v>
       </c>
+      <c r="AI72" s="2"/>
+      <c r="AJ72"/>
+      <c r="AK72"/>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:37">
       <c r="A73" s="2" t="s">
         <v>621</v>
       </c>
@@ -11647,14 +12043,16 @@
         <v>38</v>
       </c>
       <c r="C73" s="3">
-        <v>45152.672627314998</v>
-      </c>
+        <v>45152.672627315</v>
+      </c>
+      <c r="D73" s="2"/>
       <c r="E73" s="2" t="s">
         <v>622</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>623</v>
       </c>
+      <c r="G73" s="2"/>
       <c r="H73" s="2" t="s">
         <v>624</v>
       </c>
@@ -11721,7 +12119,7 @@
       <c r="AC73">
         <v>0</v>
       </c>
-      <c r="AD73" s="5" t="s">
+      <c r="AD73" s="2" t="s">
         <v>629</v>
       </c>
       <c r="AE73">
@@ -11736,8 +12134,11 @@
       <c r="AH73">
         <v>170</v>
       </c>
+      <c r="AI73" s="2"/>
+      <c r="AJ73"/>
+      <c r="AK73"/>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:37">
       <c r="A74" s="2" t="s">
         <v>631</v>
       </c>
@@ -11747,12 +12148,14 @@
       <c r="C74" s="3">
         <v>45152.651180556</v>
       </c>
+      <c r="D74" s="2"/>
       <c r="E74" s="2" t="s">
         <v>632</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>633</v>
       </c>
+      <c r="G74" s="2"/>
       <c r="H74" s="2" t="s">
         <v>634</v>
       </c>
@@ -11819,7 +12222,7 @@
       <c r="AC74">
         <v>0</v>
       </c>
-      <c r="AD74" s="5" t="s">
+      <c r="AD74" s="2" t="s">
         <v>639</v>
       </c>
       <c r="AE74">
@@ -11834,8 +12237,11 @@
       <c r="AH74">
         <v>622</v>
       </c>
+      <c r="AI74" s="2"/>
+      <c r="AJ74"/>
+      <c r="AK74"/>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:37">
       <c r="A75" s="2" t="s">
         <v>641</v>
       </c>
@@ -11843,14 +12249,16 @@
         <v>38</v>
       </c>
       <c r="C75" s="3">
-        <v>45152.623599537001</v>
-      </c>
+        <v>45152.623599537</v>
+      </c>
+      <c r="D75" s="2"/>
       <c r="E75" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>642</v>
       </c>
+      <c r="G75" s="2"/>
       <c r="H75" s="2" t="s">
         <v>643</v>
       </c>
@@ -11917,7 +12325,7 @@
       <c r="AC75">
         <v>0</v>
       </c>
-      <c r="AD75" s="5" t="s">
+      <c r="AD75" s="2" t="s">
         <v>648</v>
       </c>
       <c r="AE75">
@@ -11932,8 +12340,11 @@
       <c r="AH75">
         <v>799</v>
       </c>
+      <c r="AI75" s="2"/>
+      <c r="AJ75"/>
+      <c r="AK75"/>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:37">
       <c r="A76" s="2" t="s">
         <v>650</v>
       </c>
@@ -11941,14 +12352,16 @@
         <v>38</v>
       </c>
       <c r="C76" s="3">
-        <v>45152.601909721998</v>
-      </c>
+        <v>45152.601909722</v>
+      </c>
+      <c r="D76" s="2"/>
       <c r="E76" s="2" t="s">
         <v>651</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>651</v>
       </c>
+      <c r="G76" s="2"/>
       <c r="H76" s="2" t="s">
         <v>652</v>
       </c>
@@ -12015,6 +12428,7 @@
       <c r="AC76">
         <v>0</v>
       </c>
+      <c r="AD76" s="2"/>
       <c r="AE76">
         <v>1</v>
       </c>
@@ -12027,8 +12441,11 @@
       <c r="AH76">
         <v>820</v>
       </c>
+      <c r="AI76" s="2"/>
+      <c r="AJ76"/>
+      <c r="AK76"/>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:37">
       <c r="A77" s="2" t="s">
         <v>657</v>
       </c>
@@ -12036,14 +12453,16 @@
         <v>38</v>
       </c>
       <c r="C77" s="3">
-        <v>45152.562025462998</v>
-      </c>
+        <v>45152.562025463</v>
+      </c>
+      <c r="D77" s="2"/>
       <c r="E77" s="2" t="s">
         <v>658</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="G77" s="2"/>
       <c r="H77" s="2" t="s">
         <v>659</v>
       </c>
@@ -12110,7 +12529,7 @@
       <c r="AC77">
         <v>0</v>
       </c>
-      <c r="AD77" s="5" t="s">
+      <c r="AD77" s="2" t="s">
         <v>662</v>
       </c>
       <c r="AE77">
@@ -12125,8 +12544,11 @@
       <c r="AH77">
         <v>130</v>
       </c>
+      <c r="AI77" s="2"/>
+      <c r="AJ77"/>
+      <c r="AK77"/>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:37">
       <c r="A78" s="2" t="s">
         <v>664</v>
       </c>
@@ -12134,14 +12556,16 @@
         <v>38</v>
       </c>
       <c r="C78" s="3">
-        <v>45152.524594907001</v>
-      </c>
+        <v>45152.524594907</v>
+      </c>
+      <c r="D78" s="2"/>
       <c r="E78" s="2" t="s">
         <v>665</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>279</v>
       </c>
+      <c r="G78" s="2"/>
       <c r="H78" s="2" t="s">
         <v>666</v>
       </c>
@@ -12208,6 +12632,7 @@
       <c r="AC78">
         <v>0</v>
       </c>
+      <c r="AD78" s="2"/>
       <c r="AE78">
         <v>1</v>
       </c>
@@ -12220,8 +12645,11 @@
       <c r="AH78">
         <v>649</v>
       </c>
+      <c r="AI78" s="2"/>
+      <c r="AJ78"/>
+      <c r="AK78"/>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:37">
       <c r="A79" s="2" t="s">
         <v>670</v>
       </c>
@@ -12229,14 +12657,16 @@
         <v>38</v>
       </c>
       <c r="C79" s="3">
-        <v>45152.518229166999</v>
-      </c>
+        <v>45152.518229167</v>
+      </c>
+      <c r="D79" s="2"/>
       <c r="E79" s="2" t="s">
         <v>671</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>672</v>
       </c>
+      <c r="G79" s="2"/>
       <c r="H79" s="2" t="s">
         <v>673</v>
       </c>
@@ -12303,6 +12733,7 @@
       <c r="AC79">
         <v>0</v>
       </c>
+      <c r="AD79" s="2"/>
       <c r="AE79">
         <v>1</v>
       </c>
@@ -12315,8 +12746,11 @@
       <c r="AH79">
         <v>145</v>
       </c>
+      <c r="AI79" s="2"/>
+      <c r="AJ79"/>
+      <c r="AK79"/>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:37">
       <c r="A80" s="2" t="s">
         <v>679</v>
       </c>
@@ -12324,14 +12758,16 @@
         <v>38</v>
       </c>
       <c r="C80" s="3">
-        <v>45152.514502315003</v>
-      </c>
+        <v>45152.514502315</v>
+      </c>
+      <c r="D80" s="2"/>
       <c r="E80" s="2" t="s">
         <v>680</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="G80" s="2"/>
       <c r="H80" s="2" t="s">
         <v>681</v>
       </c>
@@ -12398,6 +12834,7 @@
       <c r="AC80">
         <v>0</v>
       </c>
+      <c r="AD80" s="2"/>
       <c r="AE80">
         <v>1</v>
       </c>
@@ -12410,8 +12847,11 @@
       <c r="AH80">
         <v>820</v>
       </c>
+      <c r="AI80" s="2"/>
+      <c r="AJ80"/>
+      <c r="AK80"/>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:37">
       <c r="A81" s="2" t="s">
         <v>686</v>
       </c>
@@ -12419,14 +12859,16 @@
         <v>38</v>
       </c>
       <c r="C81" s="3">
-        <v>45152.473101852003</v>
-      </c>
+        <v>45152.473101852</v>
+      </c>
+      <c r="D81" s="2"/>
       <c r="E81" s="2" t="s">
         <v>687</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>688</v>
       </c>
+      <c r="G81" s="2"/>
       <c r="H81" s="2" t="s">
         <v>689</v>
       </c>
@@ -12493,7 +12935,7 @@
       <c r="AC81">
         <v>0</v>
       </c>
-      <c r="AD81" s="5" t="s">
+      <c r="AD81" s="2" t="s">
         <v>695</v>
       </c>
       <c r="AE81">
@@ -12508,8 +12950,11 @@
       <c r="AH81">
         <v>3472</v>
       </c>
+      <c r="AI81" s="2"/>
+      <c r="AJ81"/>
+      <c r="AK81"/>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:37">
       <c r="A82" s="2" t="s">
         <v>697</v>
       </c>
@@ -12517,14 +12962,16 @@
         <v>38</v>
       </c>
       <c r="C82" s="3">
-        <v>45152.386678240997</v>
-      </c>
+        <v>45152.386678241</v>
+      </c>
+      <c r="D82" s="2"/>
       <c r="E82" s="2" t="s">
         <v>698</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>699</v>
       </c>
+      <c r="G82" s="2"/>
       <c r="H82" s="2" t="s">
         <v>700</v>
       </c>
@@ -12591,6 +13038,7 @@
       <c r="AC82">
         <v>0</v>
       </c>
+      <c r="AD82" s="2"/>
       <c r="AE82">
         <v>1</v>
       </c>
@@ -12603,8 +13051,11 @@
       <c r="AH82">
         <v>820</v>
       </c>
+      <c r="AI82" s="2"/>
+      <c r="AJ82"/>
+      <c r="AK82"/>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:37">
       <c r="A83" s="2" t="s">
         <v>705</v>
       </c>
@@ -12612,14 +13063,16 @@
         <v>38</v>
       </c>
       <c r="C83" s="3">
-        <v>45152.233379630001</v>
-      </c>
+        <v>45152.23337963</v>
+      </c>
+      <c r="D83" s="2"/>
       <c r="E83" s="2" t="s">
         <v>706</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>707</v>
       </c>
+      <c r="G83" s="2"/>
       <c r="H83" s="2" t="s">
         <v>708</v>
       </c>
@@ -12686,6 +13139,7 @@
       <c r="AC83">
         <v>0</v>
       </c>
+      <c r="AD83" s="2"/>
       <c r="AE83">
         <v>1</v>
       </c>
@@ -12698,8 +13152,11 @@
       <c r="AH83">
         <v>820</v>
       </c>
+      <c r="AI83" s="2"/>
+      <c r="AJ83"/>
+      <c r="AK83"/>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:37">
       <c r="A84" s="2" t="s">
         <v>713</v>
       </c>
@@ -12707,14 +13164,16 @@
         <v>38</v>
       </c>
       <c r="C84" s="3">
-        <v>45152.083414351997</v>
-      </c>
+        <v>45152.083414352</v>
+      </c>
+      <c r="D84" s="2"/>
       <c r="E84" s="2" t="s">
         <v>714</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>715</v>
       </c>
+      <c r="G84" s="2"/>
       <c r="H84" s="2" t="s">
         <v>716</v>
       </c>
@@ -12781,7 +13240,7 @@
       <c r="AC84">
         <v>0</v>
       </c>
-      <c r="AD84" s="5" t="s">
+      <c r="AD84" s="2" t="s">
         <v>722</v>
       </c>
       <c r="AE84">
@@ -12796,8 +13255,11 @@
       <c r="AH84">
         <v>831</v>
       </c>
+      <c r="AI84" s="2"/>
+      <c r="AJ84"/>
+      <c r="AK84"/>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:37">
       <c r="A85" s="2" t="s">
         <v>724</v>
       </c>
@@ -12805,14 +13267,16 @@
         <v>38</v>
       </c>
       <c r="C85" s="3">
-        <v>45151.946724537003</v>
-      </c>
+        <v>45151.946724537</v>
+      </c>
+      <c r="D85" s="2"/>
       <c r="E85" s="2" t="s">
         <v>725</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>726</v>
       </c>
+      <c r="G85" s="2"/>
       <c r="H85" s="2" t="s">
         <v>727</v>
       </c>
@@ -12879,6 +13343,7 @@
       <c r="AC85">
         <v>0</v>
       </c>
+      <c r="AD85" s="2"/>
       <c r="AE85">
         <v>1</v>
       </c>
@@ -12891,8 +13356,11 @@
       <c r="AH85">
         <v>649</v>
       </c>
+      <c r="AI85" s="2"/>
+      <c r="AJ85"/>
+      <c r="AK85"/>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:37">
       <c r="A86" s="2" t="s">
         <v>732</v>
       </c>
@@ -12900,14 +13368,16 @@
         <v>38</v>
       </c>
       <c r="C86" s="3">
-        <v>45151.922638889002</v>
-      </c>
+        <v>45151.922638889</v>
+      </c>
+      <c r="D86" s="2"/>
       <c r="E86" s="2" t="s">
         <v>733</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>152</v>
       </c>
+      <c r="G86" s="2"/>
       <c r="H86" s="2" t="s">
         <v>734</v>
       </c>
@@ -12974,7 +13444,7 @@
       <c r="AC86">
         <v>0</v>
       </c>
-      <c r="AD86" s="5" t="s">
+      <c r="AD86" s="2" t="s">
         <v>248</v>
       </c>
       <c r="AE86">
@@ -12989,8 +13459,11 @@
       <c r="AH86">
         <v>445</v>
       </c>
+      <c r="AI86" s="2"/>
+      <c r="AJ86"/>
+      <c r="AK86"/>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:37">
       <c r="A87" s="2" t="s">
         <v>738</v>
       </c>
@@ -13000,12 +13473,14 @@
       <c r="C87" s="3">
         <v>45151.855324074</v>
       </c>
+      <c r="D87" s="2"/>
       <c r="E87" s="2" t="s">
         <v>739</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>740</v>
       </c>
+      <c r="G87" s="2"/>
       <c r="H87" s="2" t="s">
         <v>741</v>
       </c>
@@ -13072,7 +13547,7 @@
       <c r="AC87">
         <v>0</v>
       </c>
-      <c r="AD87" s="5" t="s">
+      <c r="AD87" s="2" t="s">
         <v>746</v>
       </c>
       <c r="AE87">
@@ -13087,8 +13562,11 @@
       <c r="AH87">
         <v>365</v>
       </c>
+      <c r="AI87" s="2"/>
+      <c r="AJ87"/>
+      <c r="AK87"/>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:37">
       <c r="A88" s="2" t="s">
         <v>748</v>
       </c>
@@ -13096,14 +13574,16 @@
         <v>38</v>
       </c>
       <c r="C88" s="3">
-        <v>45151.828969907001</v>
-      </c>
+        <v>45151.828969907</v>
+      </c>
+      <c r="D88" s="2"/>
       <c r="E88" s="2" t="s">
         <v>749</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>152</v>
       </c>
+      <c r="G88" s="2"/>
       <c r="H88" s="2" t="s">
         <v>750</v>
       </c>
@@ -13170,7 +13650,7 @@
       <c r="AC88">
         <v>0</v>
       </c>
-      <c r="AD88" s="5" t="s">
+      <c r="AD88" s="2" t="s">
         <v>756</v>
       </c>
       <c r="AE88">
@@ -13185,8 +13665,11 @@
       <c r="AH88">
         <v>136</v>
       </c>
+      <c r="AI88" s="2"/>
+      <c r="AJ88"/>
+      <c r="AK88"/>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:37">
       <c r="A89" s="2" t="s">
         <v>758</v>
       </c>
@@ -13194,14 +13677,16 @@
         <v>38</v>
       </c>
       <c r="C89" s="3">
-        <v>45151.818252315003</v>
-      </c>
+        <v>45151.818252315</v>
+      </c>
+      <c r="D89" s="2"/>
       <c r="E89" s="2" t="s">
         <v>759</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>760</v>
       </c>
+      <c r="G89" s="2"/>
       <c r="H89" s="2" t="s">
         <v>761</v>
       </c>
@@ -13268,7 +13753,7 @@
       <c r="AC89">
         <v>0</v>
       </c>
-      <c r="AD89" s="5" t="s">
+      <c r="AD89" s="2" t="s">
         <v>767</v>
       </c>
       <c r="AE89">
@@ -13283,8 +13768,11 @@
       <c r="AH89">
         <v>1350</v>
       </c>
+      <c r="AI89" s="2"/>
+      <c r="AJ89"/>
+      <c r="AK89"/>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:37">
       <c r="A90" s="2" t="s">
         <v>769</v>
       </c>
@@ -13292,14 +13780,16 @@
         <v>38</v>
       </c>
       <c r="C90" s="3">
-        <v>45151.812326389001</v>
-      </c>
+        <v>45151.812326389</v>
+      </c>
+      <c r="D90" s="2"/>
       <c r="E90" s="2" t="s">
         <v>770</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>771</v>
       </c>
+      <c r="G90" s="2"/>
       <c r="H90" s="2" t="s">
         <v>772</v>
       </c>
@@ -13366,7 +13856,7 @@
       <c r="AC90">
         <v>0</v>
       </c>
-      <c r="AD90" s="5" t="s">
+      <c r="AD90" s="2" t="s">
         <v>767</v>
       </c>
       <c r="AE90">
@@ -13381,8 +13871,11 @@
       <c r="AH90">
         <v>1350</v>
       </c>
+      <c r="AI90" s="2"/>
+      <c r="AJ90"/>
+      <c r="AK90"/>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:37">
       <c r="A91" s="2" t="s">
         <v>778</v>
       </c>
@@ -13390,14 +13883,16 @@
         <v>38</v>
       </c>
       <c r="C91" s="3">
-        <v>45151.799398148003</v>
-      </c>
+        <v>45151.799398148</v>
+      </c>
+      <c r="D91" s="2"/>
       <c r="E91" s="2" t="s">
         <v>779</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>780</v>
       </c>
+      <c r="G91" s="2"/>
       <c r="H91" s="2" t="s">
         <v>781</v>
       </c>
@@ -13464,7 +13959,7 @@
       <c r="AC91">
         <v>0</v>
       </c>
-      <c r="AD91" s="5" t="s">
+      <c r="AD91" s="2" t="s">
         <v>786</v>
       </c>
       <c r="AE91">
@@ -13479,8 +13974,11 @@
       <c r="AH91">
         <v>230</v>
       </c>
+      <c r="AI91" s="2"/>
+      <c r="AJ91"/>
+      <c r="AK91"/>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:37">
       <c r="A92" s="2" t="s">
         <v>788</v>
       </c>
@@ -13490,12 +13988,14 @@
       <c r="C92" s="3">
         <v>45151.682534722</v>
       </c>
+      <c r="D92" s="2"/>
       <c r="E92" s="2" t="s">
         <v>789</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="G92" s="2"/>
       <c r="H92" s="2" t="s">
         <v>790</v>
       </c>
@@ -13562,7 +14062,7 @@
       <c r="AC92">
         <v>0</v>
       </c>
-      <c r="AD92" s="5" t="s">
+      <c r="AD92" s="2" t="s">
         <v>795</v>
       </c>
       <c r="AE92">
@@ -13577,8 +14077,11 @@
       <c r="AH92">
         <v>223</v>
       </c>
+      <c r="AI92" s="2"/>
+      <c r="AJ92"/>
+      <c r="AK92"/>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:37">
       <c r="A93" s="2" t="s">
         <v>797</v>
       </c>
@@ -13586,14 +14089,16 @@
         <v>38</v>
       </c>
       <c r="C93" s="3">
-        <v>45151.623206019001</v>
-      </c>
+        <v>45151.623206019</v>
+      </c>
+      <c r="D93" s="2"/>
       <c r="E93" s="2" t="s">
         <v>798</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>279</v>
       </c>
+      <c r="G93" s="2"/>
       <c r="H93" s="2" t="s">
         <v>799</v>
       </c>
@@ -13660,6 +14165,7 @@
       <c r="AC93">
         <v>0</v>
       </c>
+      <c r="AD93" s="2"/>
       <c r="AE93">
         <v>1</v>
       </c>
@@ -13672,8 +14178,11 @@
       <c r="AH93">
         <v>820</v>
       </c>
+      <c r="AI93" s="2"/>
+      <c r="AJ93"/>
+      <c r="AK93"/>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:37">
       <c r="A94" s="2" t="s">
         <v>804</v>
       </c>
@@ -13681,14 +14190,16 @@
         <v>38</v>
       </c>
       <c r="C94" s="3">
-        <v>45151.596111111001</v>
-      </c>
+        <v>45151.596111111</v>
+      </c>
+      <c r="D94" s="2"/>
       <c r="E94" s="2" t="s">
         <v>805</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>806</v>
       </c>
+      <c r="G94" s="2"/>
       <c r="H94" s="2" t="s">
         <v>807</v>
       </c>
@@ -13755,7 +14266,7 @@
       <c r="AC94">
         <v>0</v>
       </c>
-      <c r="AD94" s="5" t="s">
+      <c r="AD94" s="2" t="s">
         <v>812</v>
       </c>
       <c r="AE94">
@@ -13770,8 +14281,11 @@
       <c r="AH94">
         <v>2197</v>
       </c>
+      <c r="AI94" s="2"/>
+      <c r="AJ94"/>
+      <c r="AK94"/>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:37">
       <c r="A95" s="2" t="s">
         <v>814</v>
       </c>
@@ -13779,14 +14293,16 @@
         <v>38</v>
       </c>
       <c r="C95" s="3">
-        <v>45151.568333333002</v>
-      </c>
+        <v>45151.568333333</v>
+      </c>
+      <c r="D95" s="2"/>
       <c r="E95" s="2" t="s">
         <v>815</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="G95" s="2"/>
       <c r="H95" s="2" t="s">
         <v>816</v>
       </c>
@@ -13853,6 +14369,7 @@
       <c r="AC95">
         <v>0</v>
       </c>
+      <c r="AD95" s="2"/>
       <c r="AE95">
         <v>1</v>
       </c>
@@ -13865,8 +14382,11 @@
       <c r="AH95">
         <v>820</v>
       </c>
+      <c r="AI95" s="2"/>
+      <c r="AJ95"/>
+      <c r="AK95"/>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:37">
       <c r="A96" s="2" t="s">
         <v>820</v>
       </c>
@@ -13876,12 +14396,14 @@
       <c r="C96" s="3">
         <v>45151.543425926</v>
       </c>
+      <c r="D96" s="2"/>
       <c r="E96" s="2" t="s">
         <v>821</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>822</v>
       </c>
+      <c r="G96" s="2"/>
       <c r="H96" s="2" t="s">
         <v>823</v>
       </c>
@@ -13948,6 +14470,7 @@
       <c r="AC96">
         <v>0</v>
       </c>
+      <c r="AD96" s="2"/>
       <c r="AE96">
         <v>1</v>
       </c>
@@ -13960,8 +14483,11 @@
       <c r="AH96">
         <v>145</v>
       </c>
+      <c r="AI96" s="2"/>
+      <c r="AJ96"/>
+      <c r="AK96"/>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:37">
       <c r="A97" s="2" t="s">
         <v>829</v>
       </c>
@@ -13969,14 +14495,16 @@
         <v>38</v>
       </c>
       <c r="C97" s="3">
-        <v>45151.526319443998</v>
-      </c>
+        <v>45151.526319444</v>
+      </c>
+      <c r="D97" s="2"/>
       <c r="E97" s="2" t="s">
         <v>830</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>831</v>
       </c>
+      <c r="G97" s="2"/>
       <c r="H97" s="2" t="s">
         <v>832</v>
       </c>
@@ -14043,6 +14571,7 @@
       <c r="AC97">
         <v>0</v>
       </c>
+      <c r="AD97" s="2"/>
       <c r="AE97">
         <v>1</v>
       </c>
@@ -14055,8 +14584,11 @@
       <c r="AH97">
         <v>820</v>
       </c>
+      <c r="AI97" s="2"/>
+      <c r="AJ97"/>
+      <c r="AK97"/>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:37">
       <c r="A98" s="2" t="s">
         <v>837</v>
       </c>
@@ -14066,12 +14598,14 @@
       <c r="C98" s="3">
         <v>45151.504560185</v>
       </c>
+      <c r="D98" s="2"/>
       <c r="E98" s="2" t="s">
         <v>838</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>839</v>
       </c>
+      <c r="G98" s="2"/>
       <c r="H98" s="2" t="s">
         <v>840</v>
       </c>
@@ -14138,7 +14672,7 @@
       <c r="AC98">
         <v>0</v>
       </c>
-      <c r="AD98" s="5" t="s">
+      <c r="AD98" s="2" t="s">
         <v>846</v>
       </c>
       <c r="AE98">
@@ -14153,8 +14687,11 @@
       <c r="AH98">
         <v>730</v>
       </c>
+      <c r="AI98" s="2"/>
+      <c r="AJ98"/>
+      <c r="AK98"/>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:37">
       <c r="A99" s="2" t="s">
         <v>848</v>
       </c>
@@ -14162,14 +14699,16 @@
         <v>38</v>
       </c>
       <c r="C99" s="3">
-        <v>45151.489039352004</v>
-      </c>
+        <v>45151.489039352</v>
+      </c>
+      <c r="D99" s="2"/>
       <c r="E99" s="2" t="s">
         <v>849</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>850</v>
       </c>
+      <c r="G99" s="2"/>
       <c r="H99" s="2" t="s">
         <v>851</v>
       </c>
@@ -14236,7 +14775,7 @@
       <c r="AC99">
         <v>0</v>
       </c>
-      <c r="AD99" s="5" t="s">
+      <c r="AD99" s="2" t="s">
         <v>856</v>
       </c>
       <c r="AE99">
@@ -14251,8 +14790,11 @@
       <c r="AH99">
         <v>972</v>
       </c>
+      <c r="AI99" s="2"/>
+      <c r="AJ99"/>
+      <c r="AK99"/>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:37">
       <c r="A100" s="2" t="s">
         <v>848</v>
       </c>
@@ -14260,14 +14802,16 @@
         <v>38</v>
       </c>
       <c r="C100" s="3">
-        <v>45151.489039352004</v>
-      </c>
+        <v>45151.489039352</v>
+      </c>
+      <c r="D100" s="2"/>
       <c r="E100" s="2" t="s">
         <v>849</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>850</v>
       </c>
+      <c r="G100" s="2"/>
       <c r="H100" s="2" t="s">
         <v>851</v>
       </c>
@@ -14334,6 +14878,7 @@
       <c r="AC100">
         <v>0</v>
       </c>
+      <c r="AD100" s="2"/>
       <c r="AE100">
         <v>2</v>
       </c>
@@ -14346,8 +14891,11 @@
       <c r="AH100">
         <v>1444</v>
       </c>
+      <c r="AI100" s="2"/>
+      <c r="AJ100"/>
+      <c r="AK100"/>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:37">
       <c r="A101" s="2" t="s">
         <v>859</v>
       </c>
@@ -14355,14 +14903,16 @@
         <v>38</v>
       </c>
       <c r="C101" s="3">
-        <v>45151.465879629999</v>
-      </c>
+        <v>45151.46587963</v>
+      </c>
+      <c r="D101" s="2"/>
       <c r="E101" s="2" t="s">
         <v>860</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>860</v>
       </c>
+      <c r="G101" s="2"/>
       <c r="H101" s="2" t="s">
         <v>861</v>
       </c>
@@ -14429,6 +14979,7 @@
       <c r="AC101">
         <v>0</v>
       </c>
+      <c r="AD101" s="2"/>
       <c r="AE101">
         <v>1</v>
       </c>
@@ -14441,8 +14992,11 @@
       <c r="AH101">
         <v>820</v>
       </c>
+      <c r="AI101" s="2"/>
+      <c r="AJ101"/>
+      <c r="AK101"/>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:37">
       <c r="A102" s="2" t="s">
         <v>864</v>
       </c>
@@ -14450,14 +15004,16 @@
         <v>38</v>
       </c>
       <c r="C102" s="3">
-        <v>45151.444675926003</v>
-      </c>
+        <v>45151.444675926</v>
+      </c>
+      <c r="D102" s="2"/>
       <c r="E102" s="2" t="s">
         <v>865</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>866</v>
       </c>
+      <c r="G102" s="2"/>
       <c r="H102" s="2" t="s">
         <v>867</v>
       </c>
@@ -14524,6 +15080,7 @@
       <c r="AC102">
         <v>0</v>
       </c>
+      <c r="AD102" s="2"/>
       <c r="AE102">
         <v>1</v>
       </c>
@@ -14536,8 +15093,11 @@
       <c r="AH102">
         <v>649</v>
       </c>
+      <c r="AI102" s="2"/>
+      <c r="AJ102"/>
+      <c r="AK102"/>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:37">
       <c r="A103" s="2" t="s">
         <v>872</v>
       </c>
@@ -14545,14 +15105,16 @@
         <v>38</v>
       </c>
       <c r="C103" s="3">
-        <v>45151.441851852003</v>
-      </c>
+        <v>45151.441851852</v>
+      </c>
+      <c r="D103" s="2"/>
       <c r="E103" s="2" t="s">
         <v>873</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>199</v>
       </c>
+      <c r="G103" s="2"/>
       <c r="H103" s="2" t="s">
         <v>874</v>
       </c>
@@ -14619,7 +15181,7 @@
       <c r="AC103">
         <v>0</v>
       </c>
-      <c r="AD103" s="5" t="s">
+      <c r="AD103" s="2" t="s">
         <v>878</v>
       </c>
       <c r="AE103">
@@ -14634,8 +15196,11 @@
       <c r="AH103">
         <v>483</v>
       </c>
+      <c r="AI103" s="2"/>
+      <c r="AJ103"/>
+      <c r="AK103"/>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:37">
       <c r="A104" s="2" t="s">
         <v>880</v>
       </c>
@@ -14643,14 +15208,16 @@
         <v>38</v>
       </c>
       <c r="C104" s="3">
-        <v>45151.431064814999</v>
-      </c>
+        <v>45151.431064815</v>
+      </c>
+      <c r="D104" s="2"/>
       <c r="E104" s="2" t="s">
         <v>881</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>882</v>
       </c>
+      <c r="G104" s="2"/>
       <c r="H104" s="2" t="s">
         <v>883</v>
       </c>
@@ -14717,6 +15284,7 @@
       <c r="AC104">
         <v>0</v>
       </c>
+      <c r="AD104" s="2"/>
       <c r="AE104">
         <v>1</v>
       </c>
@@ -14729,8 +15297,11 @@
       <c r="AH104">
         <v>145</v>
       </c>
+      <c r="AI104" s="2"/>
+      <c r="AJ104"/>
+      <c r="AK104"/>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:37">
       <c r="A105" s="2" t="s">
         <v>888</v>
       </c>
@@ -14740,12 +15311,14 @@
       <c r="C105" s="3">
         <v>45151.393981481</v>
       </c>
+      <c r="D105" s="2"/>
       <c r="E105" s="2" t="s">
         <v>889</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>890</v>
       </c>
+      <c r="G105" s="2"/>
       <c r="H105" s="2" t="s">
         <v>891</v>
       </c>
@@ -14812,7 +15385,7 @@
       <c r="AC105">
         <v>0</v>
       </c>
-      <c r="AD105" s="5" t="s">
+      <c r="AD105" s="2" t="s">
         <v>896</v>
       </c>
       <c r="AE105">
@@ -14827,8 +15400,11 @@
       <c r="AH105">
         <v>414</v>
       </c>
+      <c r="AI105" s="2"/>
+      <c r="AJ105"/>
+      <c r="AK105"/>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:37">
       <c r="A106" s="2" t="s">
         <v>898</v>
       </c>
@@ -14836,14 +15412,16 @@
         <v>38</v>
       </c>
       <c r="C106" s="3">
-        <v>45150.883692130003</v>
-      </c>
+        <v>45150.88369213</v>
+      </c>
+      <c r="D106" s="2"/>
       <c r="E106" s="2" t="s">
         <v>899</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>900</v>
       </c>
+      <c r="G106" s="2"/>
       <c r="H106" s="2" t="s">
         <v>901</v>
       </c>
@@ -14910,7 +15488,7 @@
       <c r="AC106">
         <v>0</v>
       </c>
-      <c r="AD106" s="5" t="s">
+      <c r="AD106" s="2" t="s">
         <v>906</v>
       </c>
       <c r="AE106">
@@ -14925,8 +15503,11 @@
       <c r="AH106">
         <v>240</v>
       </c>
+      <c r="AI106" s="2"/>
+      <c r="AJ106"/>
+      <c r="AK106"/>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:37">
       <c r="A107" s="2" t="s">
         <v>908</v>
       </c>
@@ -14934,14 +15515,16 @@
         <v>38</v>
       </c>
       <c r="C107" s="3">
-        <v>45150.821261573998</v>
-      </c>
+        <v>45150.821261574</v>
+      </c>
+      <c r="D107" s="2"/>
       <c r="E107" s="2" t="s">
         <v>909</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>910</v>
       </c>
+      <c r="G107" s="2"/>
       <c r="H107" s="2" t="s">
         <v>911</v>
       </c>
@@ -15008,7 +15591,7 @@
       <c r="AC107">
         <v>0</v>
       </c>
-      <c r="AD107" s="5" t="s">
+      <c r="AD107" s="2" t="s">
         <v>915</v>
       </c>
       <c r="AE107">
@@ -15023,8 +15606,11 @@
       <c r="AH107">
         <v>971</v>
       </c>
+      <c r="AI107" s="2"/>
+      <c r="AJ107"/>
+      <c r="AK107"/>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:37">
       <c r="A108" s="2" t="s">
         <v>917</v>
       </c>
@@ -15032,14 +15618,16 @@
         <v>38</v>
       </c>
       <c r="C108" s="3">
-        <v>45150.773472221998</v>
-      </c>
+        <v>45150.773472222</v>
+      </c>
+      <c r="D108" s="2"/>
       <c r="E108" s="2" t="s">
         <v>918</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>919</v>
       </c>
+      <c r="G108" s="2"/>
       <c r="H108" s="2" t="s">
         <v>920</v>
       </c>
@@ -15106,7 +15694,7 @@
       <c r="AC108">
         <v>0</v>
       </c>
-      <c r="AD108" s="5" t="s">
+      <c r="AD108" s="2" t="s">
         <v>619</v>
       </c>
       <c r="AE108">
@@ -15121,8 +15709,11 @@
       <c r="AH108">
         <v>1249</v>
       </c>
+      <c r="AI108" s="2"/>
+      <c r="AJ108"/>
+      <c r="AK108"/>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:37">
       <c r="A109" s="2" t="s">
         <v>925</v>
       </c>
@@ -15130,14 +15721,16 @@
         <v>38</v>
       </c>
       <c r="C109" s="3">
-        <v>45150.711400462998</v>
-      </c>
+        <v>45150.711400463</v>
+      </c>
+      <c r="D109" s="2"/>
       <c r="E109" s="2" t="s">
         <v>926</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>926</v>
       </c>
+      <c r="G109" s="2"/>
       <c r="H109" s="2" t="s">
         <v>927</v>
       </c>
@@ -15204,6 +15797,7 @@
       <c r="AC109">
         <v>0</v>
       </c>
+      <c r="AD109" s="2"/>
       <c r="AE109">
         <v>1</v>
       </c>
@@ -15216,8 +15810,11 @@
       <c r="AH109">
         <v>820</v>
       </c>
+      <c r="AI109" s="2"/>
+      <c r="AJ109"/>
+      <c r="AK109"/>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:37">
       <c r="A110" s="2" t="s">
         <v>932</v>
       </c>
@@ -15225,14 +15822,16 @@
         <v>38</v>
       </c>
       <c r="C110" s="3">
-        <v>45150.611678241003</v>
-      </c>
+        <v>45150.611678241</v>
+      </c>
+      <c r="D110" s="2"/>
       <c r="E110" s="2" t="s">
         <v>933</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>934</v>
       </c>
+      <c r="G110" s="2"/>
       <c r="H110" s="2" t="s">
         <v>935</v>
       </c>
@@ -15299,7 +15898,7 @@
       <c r="AC110">
         <v>0</v>
       </c>
-      <c r="AD110" s="5" t="s">
+      <c r="AD110" s="2" t="s">
         <v>941</v>
       </c>
       <c r="AE110">
@@ -15314,8 +15913,11 @@
       <c r="AH110">
         <v>799</v>
       </c>
+      <c r="AI110" s="2"/>
+      <c r="AJ110"/>
+      <c r="AK110"/>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:37">
       <c r="A111" s="2" t="s">
         <v>943</v>
       </c>
@@ -15323,14 +15925,16 @@
         <v>38</v>
       </c>
       <c r="C111" s="3">
-        <v>45150.594710648002</v>
-      </c>
+        <v>45150.594710648</v>
+      </c>
+      <c r="D111" s="2"/>
       <c r="E111" s="2" t="s">
         <v>944</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>945</v>
       </c>
+      <c r="G111" s="2"/>
       <c r="H111" s="2" t="s">
         <v>946</v>
       </c>
@@ -15397,7 +16001,7 @@
       <c r="AC111">
         <v>0</v>
       </c>
-      <c r="AD111" s="5" t="s">
+      <c r="AD111" s="2" t="s">
         <v>951</v>
       </c>
       <c r="AE111">
@@ -15412,8 +16016,11 @@
       <c r="AH111">
         <v>553</v>
       </c>
+      <c r="AI111" s="2"/>
+      <c r="AJ111"/>
+      <c r="AK111"/>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:37">
       <c r="A112" s="2" t="s">
         <v>953</v>
       </c>
@@ -15421,14 +16028,16 @@
         <v>38</v>
       </c>
       <c r="C112" s="3">
-        <v>45150.549537036997</v>
-      </c>
+        <v>45150.549537037</v>
+      </c>
+      <c r="D112" s="2"/>
       <c r="E112" s="2" t="s">
         <v>954</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>955</v>
       </c>
+      <c r="G112" s="2"/>
       <c r="H112" s="2" t="s">
         <v>956</v>
       </c>
@@ -15495,6 +16104,7 @@
       <c r="AC112">
         <v>0</v>
       </c>
+      <c r="AD112" s="2"/>
       <c r="AE112">
         <v>1</v>
       </c>
@@ -15507,8 +16117,11 @@
       <c r="AH112">
         <v>145</v>
       </c>
+      <c r="AI112" s="2"/>
+      <c r="AJ112"/>
+      <c r="AK112"/>
     </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:37">
       <c r="A113" s="2" t="s">
         <v>960</v>
       </c>
@@ -15516,14 +16129,16 @@
         <v>38</v>
       </c>
       <c r="C113" s="3">
-        <v>45150.396342592998</v>
-      </c>
+        <v>45150.396342593</v>
+      </c>
+      <c r="D113" s="2"/>
       <c r="E113" s="2" t="s">
         <v>961</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>962</v>
       </c>
+      <c r="G113" s="2"/>
       <c r="H113" s="2" t="s">
         <v>963</v>
       </c>
@@ -15590,6 +16205,7 @@
       <c r="AC113">
         <v>0</v>
       </c>
+      <c r="AD113" s="2"/>
       <c r="AE113">
         <v>1</v>
       </c>
@@ -15602,8 +16218,11 @@
       <c r="AH113">
         <v>595</v>
       </c>
+      <c r="AI113" s="2"/>
+      <c r="AJ113"/>
+      <c r="AK113"/>
     </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:37">
       <c r="A114" s="2" t="s">
         <v>968</v>
       </c>
@@ -15613,12 +16232,14 @@
       <c r="C114" s="3">
         <v>45150.381608796</v>
       </c>
+      <c r="D114" s="2"/>
       <c r="E114" s="2" t="s">
         <v>969</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>970</v>
       </c>
+      <c r="G114" s="2"/>
       <c r="H114" s="2" t="s">
         <v>971</v>
       </c>
@@ -15685,7 +16306,7 @@
       <c r="AC114">
         <v>0</v>
       </c>
-      <c r="AD114" s="5" t="s">
+      <c r="AD114" s="2" t="s">
         <v>976</v>
       </c>
       <c r="AE114">
@@ -15700,8 +16321,11 @@
       <c r="AH114">
         <v>160</v>
       </c>
+      <c r="AI114" s="2"/>
+      <c r="AJ114"/>
+      <c r="AK114"/>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:37">
       <c r="A115" s="2" t="s">
         <v>978</v>
       </c>
@@ -15709,14 +16333,16 @@
         <v>38</v>
       </c>
       <c r="C115" s="3">
-        <v>45149.951979167003</v>
-      </c>
+        <v>45149.951979167</v>
+      </c>
+      <c r="D115" s="2"/>
       <c r="E115" s="2" t="s">
         <v>979</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>979</v>
       </c>
+      <c r="G115" s="2"/>
       <c r="H115" s="2" t="s">
         <v>980</v>
       </c>
@@ -15783,7 +16409,7 @@
       <c r="AC115">
         <v>0</v>
       </c>
-      <c r="AD115" s="5" t="s">
+      <c r="AD115" s="2" t="s">
         <v>985</v>
       </c>
       <c r="AE115">
@@ -15798,8 +16424,11 @@
       <c r="AH115">
         <v>290</v>
       </c>
+      <c r="AI115" s="2"/>
+      <c r="AJ115"/>
+      <c r="AK115"/>
     </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:37">
       <c r="A116" s="2" t="s">
         <v>987</v>
       </c>
@@ -15807,14 +16436,16 @@
         <v>38</v>
       </c>
       <c r="C116" s="3">
-        <v>45149.922800925997</v>
-      </c>
+        <v>45149.922800926</v>
+      </c>
+      <c r="D116" s="2"/>
       <c r="E116" s="2" t="s">
         <v>988</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>989</v>
       </c>
+      <c r="G116" s="2"/>
       <c r="H116" s="2" t="s">
         <v>990</v>
       </c>
@@ -15881,7 +16512,7 @@
       <c r="AC116">
         <v>0</v>
       </c>
-      <c r="AD116" s="5" t="s">
+      <c r="AD116" s="2" t="s">
         <v>995</v>
       </c>
       <c r="AE116">
@@ -15896,8 +16527,11 @@
       <c r="AH116">
         <v>1039</v>
       </c>
+      <c r="AI116" s="2"/>
+      <c r="AJ116"/>
+      <c r="AK116"/>
     </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:37">
       <c r="A117" s="2" t="s">
         <v>997</v>
       </c>
@@ -15907,12 +16541,14 @@
       <c r="C117" s="3">
         <v>45149.915891204</v>
       </c>
+      <c r="D117" s="2"/>
       <c r="E117" s="2" t="s">
         <v>998</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>999</v>
       </c>
+      <c r="G117" s="2"/>
       <c r="H117" s="2" t="s">
         <v>1000</v>
       </c>
@@ -15979,7 +16615,7 @@
       <c r="AC117">
         <v>0</v>
       </c>
-      <c r="AD117" s="5" t="s">
+      <c r="AD117" s="2" t="s">
         <v>1003</v>
       </c>
       <c r="AE117">
@@ -15994,8 +16630,11 @@
       <c r="AH117">
         <v>477</v>
       </c>
+      <c r="AI117" s="2"/>
+      <c r="AJ117"/>
+      <c r="AK117"/>
     </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:37">
       <c r="A118" s="2" t="s">
         <v>1005</v>
       </c>
@@ -16003,14 +16642,16 @@
         <v>38</v>
       </c>
       <c r="C118" s="3">
-        <v>45149.893206018998</v>
-      </c>
+        <v>45149.893206019</v>
+      </c>
+      <c r="D118" s="2"/>
       <c r="E118" s="2" t="s">
         <v>1006</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>1007</v>
       </c>
+      <c r="G118" s="2"/>
       <c r="H118" s="2" t="s">
         <v>1008</v>
       </c>
@@ -16077,6 +16718,7 @@
       <c r="AC118">
         <v>0</v>
       </c>
+      <c r="AD118" s="2"/>
       <c r="AE118">
         <v>1</v>
       </c>
@@ -16089,8 +16731,11 @@
       <c r="AH118">
         <v>650</v>
       </c>
+      <c r="AI118" s="2"/>
+      <c r="AJ118"/>
+      <c r="AK118"/>
     </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:37">
       <c r="A119" s="2" t="s">
         <v>1014</v>
       </c>
@@ -16098,14 +16743,16 @@
         <v>38</v>
       </c>
       <c r="C119" s="3">
-        <v>45149.840405092997</v>
-      </c>
+        <v>45149.840405093</v>
+      </c>
+      <c r="D119" s="2"/>
       <c r="E119" s="2" t="s">
         <v>1015</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>1016</v>
       </c>
+      <c r="G119" s="2"/>
       <c r="H119" s="2" t="s">
         <v>1017</v>
       </c>
@@ -16172,6 +16819,7 @@
       <c r="AC119">
         <v>0</v>
       </c>
+      <c r="AD119" s="2"/>
       <c r="AE119">
         <v>1</v>
       </c>
@@ -16184,8 +16832,11 @@
       <c r="AH119">
         <v>820</v>
       </c>
+      <c r="AI119" s="2"/>
+      <c r="AJ119"/>
+      <c r="AK119"/>
     </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:37">
       <c r="A120" s="2" t="s">
         <v>1022</v>
       </c>
@@ -16193,14 +16844,16 @@
         <v>38</v>
       </c>
       <c r="C120" s="3">
-        <v>45149.803078703997</v>
-      </c>
+        <v>45149.803078704</v>
+      </c>
+      <c r="D120" s="2"/>
       <c r="E120" s="2" t="s">
         <v>1023</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>1024</v>
       </c>
+      <c r="G120" s="2"/>
       <c r="H120" s="2" t="s">
         <v>1025</v>
       </c>
@@ -16267,6 +16920,7 @@
       <c r="AC120">
         <v>0</v>
       </c>
+      <c r="AD120" s="2"/>
       <c r="AE120">
         <v>1</v>
       </c>
@@ -16279,8 +16933,11 @@
       <c r="AH120">
         <v>650</v>
       </c>
+      <c r="AI120" s="2"/>
+      <c r="AJ120"/>
+      <c r="AK120"/>
     </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:37">
       <c r="A121" s="2" t="s">
         <v>1030</v>
       </c>
@@ -16288,14 +16945,16 @@
         <v>38</v>
       </c>
       <c r="C121" s="3">
-        <v>45149.793159722001</v>
-      </c>
+        <v>45149.793159722</v>
+      </c>
+      <c r="D121" s="2"/>
       <c r="E121" s="2" t="s">
         <v>1031</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>1032</v>
       </c>
+      <c r="G121" s="2"/>
       <c r="H121" s="2" t="s">
         <v>1033</v>
       </c>
@@ -16362,7 +17021,7 @@
       <c r="AC121">
         <v>0</v>
       </c>
-      <c r="AD121" s="5" t="s">
+      <c r="AD121" s="2" t="s">
         <v>1038</v>
       </c>
       <c r="AE121">
@@ -16377,8 +17036,11 @@
       <c r="AH121">
         <v>238</v>
       </c>
+      <c r="AI121" s="2"/>
+      <c r="AJ121"/>
+      <c r="AK121"/>
     </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:37">
       <c r="A122" s="2" t="s">
         <v>1040</v>
       </c>
@@ -16386,14 +17048,16 @@
         <v>38</v>
       </c>
       <c r="C122" s="3">
-        <v>45149.781909721998</v>
-      </c>
+        <v>45149.781909722</v>
+      </c>
+      <c r="D122" s="2"/>
       <c r="E122" s="2" t="s">
         <v>1031</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>1032</v>
       </c>
+      <c r="G122" s="2"/>
       <c r="H122" s="2" t="s">
         <v>1033</v>
       </c>
@@ -16460,7 +17124,7 @@
       <c r="AC122">
         <v>0</v>
       </c>
-      <c r="AD122" s="5" t="s">
+      <c r="AD122" s="2" t="s">
         <v>1042</v>
       </c>
       <c r="AE122">
@@ -16475,8 +17139,11 @@
       <c r="AH122">
         <v>111</v>
       </c>
+      <c r="AI122" s="2"/>
+      <c r="AJ122"/>
+      <c r="AK122"/>
     </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:37">
       <c r="A123" s="2" t="s">
         <v>1044</v>
       </c>
@@ -16484,14 +17151,16 @@
         <v>38</v>
       </c>
       <c r="C123" s="3">
-        <v>45149.737939815001</v>
-      </c>
+        <v>45149.737939815</v>
+      </c>
+      <c r="D123" s="2"/>
       <c r="E123" s="2" t="s">
         <v>1045</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>1046</v>
       </c>
+      <c r="G123" s="2"/>
       <c r="H123" s="2" t="s">
         <v>1047</v>
       </c>
@@ -16558,7 +17227,7 @@
       <c r="AC123">
         <v>0</v>
       </c>
-      <c r="AD123" s="5" t="s">
+      <c r="AD123" s="2" t="s">
         <v>1052</v>
       </c>
       <c r="AE123">
@@ -16573,8 +17242,11 @@
       <c r="AH123">
         <v>428</v>
       </c>
+      <c r="AI123" s="2"/>
+      <c r="AJ123"/>
+      <c r="AK123"/>
     </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:37">
       <c r="A124" s="2" t="s">
         <v>1054</v>
       </c>
@@ -16582,14 +17254,16 @@
         <v>38</v>
       </c>
       <c r="C124" s="3">
-        <v>45149.694652778002</v>
-      </c>
+        <v>45149.694652778</v>
+      </c>
+      <c r="D124" s="2"/>
       <c r="E124" s="2" t="s">
         <v>1055</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>1056</v>
       </c>
+      <c r="G124" s="2"/>
       <c r="H124" s="2" t="s">
         <v>1057</v>
       </c>
@@ -16656,7 +17330,7 @@
       <c r="AC124">
         <v>0</v>
       </c>
-      <c r="AD124" s="5" t="s">
+      <c r="AD124" s="2" t="s">
         <v>1062</v>
       </c>
       <c r="AE124">
@@ -16671,8 +17345,11 @@
       <c r="AH124">
         <v>227</v>
       </c>
+      <c r="AI124" s="2"/>
+      <c r="AJ124"/>
+      <c r="AK124"/>
     </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:37">
       <c r="A125" s="2" t="s">
         <v>1054</v>
       </c>
@@ -16680,14 +17357,16 @@
         <v>38</v>
       </c>
       <c r="C125" s="3">
-        <v>45149.694652778002</v>
-      </c>
+        <v>45149.694652778</v>
+      </c>
+      <c r="D125" s="2"/>
       <c r="E125" s="2" t="s">
         <v>1055</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>1056</v>
       </c>
+      <c r="G125" s="2"/>
       <c r="H125" s="2" t="s">
         <v>1057</v>
       </c>
@@ -16754,7 +17433,7 @@
       <c r="AC125">
         <v>0</v>
       </c>
-      <c r="AD125" s="5" t="s">
+      <c r="AD125" s="2" t="s">
         <v>786</v>
       </c>
       <c r="AE125">
@@ -16769,8 +17448,11 @@
       <c r="AH125">
         <v>230</v>
       </c>
+      <c r="AI125" s="2"/>
+      <c r="AJ125"/>
+      <c r="AK125"/>
     </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:37">
       <c r="A126" s="2" t="s">
         <v>1064</v>
       </c>
@@ -16778,14 +17460,16 @@
         <v>38</v>
       </c>
       <c r="C126" s="3">
-        <v>45149.659548611002</v>
-      </c>
+        <v>45149.659548611</v>
+      </c>
+      <c r="D126" s="2"/>
       <c r="E126" s="2" t="s">
         <v>1065</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>191</v>
       </c>
+      <c r="G126" s="2"/>
       <c r="H126" s="2" t="s">
         <v>1066</v>
       </c>
@@ -16852,7 +17536,7 @@
       <c r="AC126">
         <v>0</v>
       </c>
-      <c r="AD126" s="5" t="s">
+      <c r="AD126" s="2" t="s">
         <v>1071</v>
       </c>
       <c r="AE126">
@@ -16867,8 +17551,11 @@
       <c r="AH126">
         <v>900</v>
       </c>
+      <c r="AI126" s="2"/>
+      <c r="AJ126"/>
+      <c r="AK126"/>
     </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:37">
       <c r="A127" s="2" t="s">
         <v>1064</v>
       </c>
@@ -16876,14 +17563,16 @@
         <v>38</v>
       </c>
       <c r="C127" s="3">
-        <v>45149.659548611002</v>
-      </c>
+        <v>45149.659548611</v>
+      </c>
+      <c r="D127" s="2"/>
       <c r="E127" s="2" t="s">
         <v>1065</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>191</v>
       </c>
+      <c r="G127" s="2"/>
       <c r="H127" s="2" t="s">
         <v>1066</v>
       </c>
@@ -16950,7 +17639,7 @@
       <c r="AC127">
         <v>0</v>
       </c>
-      <c r="AD127" s="5" t="s">
+      <c r="AD127" s="2" t="s">
         <v>1073</v>
       </c>
       <c r="AE127">
@@ -16965,8 +17654,11 @@
       <c r="AH127">
         <v>1317</v>
       </c>
+      <c r="AI127" s="2"/>
+      <c r="AJ127"/>
+      <c r="AK127"/>
     </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:37">
       <c r="A128" s="2" t="s">
         <v>1075</v>
       </c>
@@ -16974,14 +17666,16 @@
         <v>38</v>
       </c>
       <c r="C128" s="3">
-        <v>45149.574560184999</v>
-      </c>
+        <v>45149.574560185</v>
+      </c>
+      <c r="D128" s="2"/>
       <c r="E128" s="2" t="s">
         <v>1076</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>1077</v>
       </c>
+      <c r="G128" s="2"/>
       <c r="H128" s="2" t="s">
         <v>1078</v>
       </c>
@@ -17048,7 +17742,7 @@
       <c r="AC128">
         <v>0</v>
       </c>
-      <c r="AD128" s="5" t="s">
+      <c r="AD128" s="2" t="s">
         <v>1082</v>
       </c>
       <c r="AE128">
@@ -17063,8 +17757,11 @@
       <c r="AH128">
         <v>233</v>
       </c>
+      <c r="AI128" s="2"/>
+      <c r="AJ128"/>
+      <c r="AK128"/>
     </row>
-    <row r="129" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:37">
       <c r="A129" s="2" t="s">
         <v>1084</v>
       </c>
@@ -17072,14 +17769,16 @@
         <v>38</v>
       </c>
       <c r="C129" s="3">
-        <v>45149.559201388998</v>
-      </c>
+        <v>45149.559201389</v>
+      </c>
+      <c r="D129" s="2"/>
       <c r="E129" s="2" t="s">
         <v>1085</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>1086</v>
       </c>
+      <c r="G129" s="2"/>
       <c r="H129" s="2" t="s">
         <v>1087</v>
       </c>
@@ -17146,7 +17845,7 @@
       <c r="AC129">
         <v>0</v>
       </c>
-      <c r="AD129" s="5" t="s">
+      <c r="AD129" s="2" t="s">
         <v>1092</v>
       </c>
       <c r="AE129">
@@ -17161,8 +17860,11 @@
       <c r="AH129">
         <v>1549</v>
       </c>
+      <c r="AI129" s="2"/>
+      <c r="AJ129"/>
+      <c r="AK129"/>
     </row>
-    <row r="130" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:37">
       <c r="A130" s="2" t="s">
         <v>1094</v>
       </c>
@@ -17172,12 +17874,14 @@
       <c r="C130" s="3">
         <v>45149.53712963</v>
       </c>
+      <c r="D130" s="2"/>
       <c r="E130" s="2" t="s">
         <v>1095</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>1096</v>
       </c>
+      <c r="G130" s="2"/>
       <c r="H130" s="2" t="s">
         <v>1097</v>
       </c>
@@ -17244,7 +17948,7 @@
       <c r="AC130">
         <v>0</v>
       </c>
-      <c r="AD130" s="5" t="s">
+      <c r="AD130" s="2" t="s">
         <v>1103</v>
       </c>
       <c r="AE130">
@@ -17259,8 +17963,11 @@
       <c r="AH130">
         <v>365</v>
       </c>
+      <c r="AI130" s="2"/>
+      <c r="AJ130"/>
+      <c r="AK130"/>
     </row>
-    <row r="131" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:37">
       <c r="A131" s="2" t="s">
         <v>1105</v>
       </c>
@@ -17268,14 +17975,16 @@
         <v>38</v>
       </c>
       <c r="C131" s="3">
-        <v>45149.485462962999</v>
-      </c>
+        <v>45149.485462963</v>
+      </c>
+      <c r="D131" s="2"/>
       <c r="E131" s="2" t="s">
         <v>1106</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>1107</v>
       </c>
+      <c r="G131" s="2"/>
       <c r="H131" s="2" t="s">
         <v>1108</v>
       </c>
@@ -17342,6 +18051,7 @@
       <c r="AC131">
         <v>0</v>
       </c>
+      <c r="AD131" s="2"/>
       <c r="AE131">
         <v>1</v>
       </c>
@@ -17354,8 +18064,11 @@
       <c r="AH131">
         <v>239</v>
       </c>
+      <c r="AI131" s="2"/>
+      <c r="AJ131"/>
+      <c r="AK131"/>
     </row>
-    <row r="132" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:37">
       <c r="A132" s="2" t="s">
         <v>1114</v>
       </c>
@@ -17363,14 +18076,16 @@
         <v>38</v>
       </c>
       <c r="C132" s="3">
-        <v>45149.345023148002</v>
-      </c>
+        <v>45149.345023148</v>
+      </c>
+      <c r="D132" s="2"/>
       <c r="E132" s="2" t="s">
         <v>1115</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>1116</v>
       </c>
+      <c r="G132" s="2"/>
       <c r="H132" s="2" t="s">
         <v>1117</v>
       </c>
@@ -17437,7 +18152,7 @@
       <c r="AC132">
         <v>0</v>
       </c>
-      <c r="AD132" s="5" t="s">
+      <c r="AD132" s="2" t="s">
         <v>1121</v>
       </c>
       <c r="AE132">
@@ -17452,8 +18167,11 @@
       <c r="AH132">
         <v>450</v>
       </c>
+      <c r="AI132" s="2"/>
+      <c r="AJ132"/>
+      <c r="AK132"/>
     </row>
-    <row r="133" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:37">
       <c r="A133" s="2" t="s">
         <v>1123</v>
       </c>
@@ -17461,14 +18179,16 @@
         <v>38</v>
       </c>
       <c r="C133" s="3">
-        <v>45148.917407407003</v>
-      </c>
+        <v>45148.917407407</v>
+      </c>
+      <c r="D133" s="2"/>
       <c r="E133" s="2" t="s">
         <v>1124</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>214</v>
       </c>
+      <c r="G133" s="2"/>
       <c r="H133" s="2" t="s">
         <v>1125</v>
       </c>
@@ -17535,7 +18255,7 @@
       <c r="AC133">
         <v>0</v>
       </c>
-      <c r="AD133" s="5" t="s">
+      <c r="AD133" s="2" t="s">
         <v>1131</v>
       </c>
       <c r="AE133">
@@ -17550,8 +18270,11 @@
       <c r="AH133">
         <v>2360</v>
       </c>
+      <c r="AI133" s="2"/>
+      <c r="AJ133"/>
+      <c r="AK133"/>
     </row>
-    <row r="134" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:37">
       <c r="A134" s="2" t="s">
         <v>1133</v>
       </c>
@@ -17559,14 +18282,16 @@
         <v>38</v>
       </c>
       <c r="C134" s="3">
-        <v>45148.803043981003</v>
-      </c>
+        <v>45148.803043981</v>
+      </c>
+      <c r="D134" s="2"/>
       <c r="E134" s="2" t="s">
         <v>1134</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>1135</v>
       </c>
+      <c r="G134" s="2"/>
       <c r="H134" s="2" t="s">
         <v>1136</v>
       </c>
@@ -17633,7 +18358,7 @@
       <c r="AC134">
         <v>0</v>
       </c>
-      <c r="AD134" s="5" t="s">
+      <c r="AD134" s="2" t="s">
         <v>1141</v>
       </c>
       <c r="AE134">
@@ -17648,8 +18373,11 @@
       <c r="AH134">
         <v>1178</v>
       </c>
+      <c r="AI134" s="2"/>
+      <c r="AJ134"/>
+      <c r="AK134"/>
     </row>
-    <row r="135" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:37">
       <c r="A135" s="2" t="s">
         <v>1143</v>
       </c>
@@ -17657,14 +18385,16 @@
         <v>38</v>
       </c>
       <c r="C135" s="3">
-        <v>45148.769178240997</v>
-      </c>
+        <v>45148.769178241</v>
+      </c>
+      <c r="D135" s="2"/>
       <c r="E135" s="2" t="s">
         <v>1144</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>1145</v>
       </c>
+      <c r="G135" s="2"/>
       <c r="H135" s="2" t="s">
         <v>1146</v>
       </c>
@@ -17731,7 +18461,7 @@
       <c r="AC135">
         <v>0</v>
       </c>
-      <c r="AD135" s="5" t="s">
+      <c r="AD135" s="2" t="s">
         <v>1150</v>
       </c>
       <c r="AE135">
@@ -17746,8 +18476,11 @@
       <c r="AH135">
         <v>553</v>
       </c>
+      <c r="AI135" s="2"/>
+      <c r="AJ135"/>
+      <c r="AK135"/>
     </row>
-    <row r="136" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:37">
       <c r="A136" s="2" t="s">
         <v>1152</v>
       </c>
@@ -17755,14 +18488,16 @@
         <v>38</v>
       </c>
       <c r="C136" s="3">
-        <v>45148.754097222001</v>
-      </c>
+        <v>45148.754097222</v>
+      </c>
+      <c r="D136" s="2"/>
       <c r="E136" s="2" t="s">
         <v>1153</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>919</v>
       </c>
+      <c r="G136" s="2"/>
       <c r="H136" s="2" t="s">
         <v>1154</v>
       </c>
@@ -17829,7 +18564,7 @@
       <c r="AC136">
         <v>0</v>
       </c>
-      <c r="AD136" s="5" t="s">
+      <c r="AD136" s="2" t="s">
         <v>1159</v>
       </c>
       <c r="AE136">
@@ -17844,8 +18579,11 @@
       <c r="AH136">
         <v>254</v>
       </c>
+      <c r="AI136" s="2"/>
+      <c r="AJ136"/>
+      <c r="AK136"/>
     </row>
-    <row r="137" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:37">
       <c r="A137" s="2" t="s">
         <v>1161</v>
       </c>
@@ -17853,14 +18591,16 @@
         <v>38</v>
       </c>
       <c r="C137" s="3">
-        <v>45148.736828704001</v>
-      </c>
+        <v>45148.736828704</v>
+      </c>
+      <c r="D137" s="2"/>
       <c r="E137" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>1163</v>
       </c>
+      <c r="G137" s="2"/>
       <c r="H137" s="2" t="s">
         <v>1164</v>
       </c>
@@ -17927,7 +18667,7 @@
       <c r="AC137">
         <v>0</v>
       </c>
-      <c r="AD137" s="5" t="s">
+      <c r="AD137" s="2" t="s">
         <v>1169</v>
       </c>
       <c r="AE137">
@@ -17942,8 +18682,11 @@
       <c r="AH137">
         <v>1629</v>
       </c>
+      <c r="AI137" s="2"/>
+      <c r="AJ137"/>
+      <c r="AK137"/>
     </row>
-    <row r="138" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:37">
       <c r="A138" s="2" t="s">
         <v>1171</v>
       </c>
@@ -17951,14 +18694,16 @@
         <v>38</v>
       </c>
       <c r="C138" s="3">
-        <v>45148.652835647998</v>
-      </c>
+        <v>45148.652835648</v>
+      </c>
+      <c r="D138" s="2"/>
       <c r="E138" s="2" t="s">
         <v>1172</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>1173</v>
       </c>
+      <c r="G138" s="2"/>
       <c r="H138" s="2" t="s">
         <v>1174</v>
       </c>
@@ -18025,7 +18770,7 @@
       <c r="AC138">
         <v>0</v>
       </c>
-      <c r="AD138" s="5" t="s">
+      <c r="AD138" s="2" t="s">
         <v>1179</v>
       </c>
       <c r="AE138">
@@ -18040,8 +18785,11 @@
       <c r="AH138">
         <v>7143</v>
       </c>
+      <c r="AI138" s="2"/>
+      <c r="AJ138"/>
+      <c r="AK138"/>
     </row>
-    <row r="139" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:37">
       <c r="A139" s="2" t="s">
         <v>1181</v>
       </c>
@@ -18049,14 +18797,16 @@
         <v>38</v>
       </c>
       <c r="C139" s="3">
-        <v>45148.540960648003</v>
-      </c>
+        <v>45148.540960648</v>
+      </c>
+      <c r="D139" s="2"/>
       <c r="E139" s="2" t="s">
         <v>1182</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>1183</v>
       </c>
+      <c r="G139" s="2"/>
       <c r="H139" s="2" t="s">
         <v>1184</v>
       </c>
@@ -18123,7 +18873,7 @@
       <c r="AC139">
         <v>0</v>
       </c>
-      <c r="AD139" s="5" t="s">
+      <c r="AD139" s="2" t="s">
         <v>1189</v>
       </c>
       <c r="AE139">
@@ -18138,8 +18888,11 @@
       <c r="AH139">
         <v>215</v>
       </c>
+      <c r="AI139" s="2"/>
+      <c r="AJ139"/>
+      <c r="AK139"/>
     </row>
-    <row r="140" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:37">
       <c r="A140" s="2" t="s">
         <v>1191</v>
       </c>
@@ -18147,14 +18900,16 @@
         <v>38</v>
       </c>
       <c r="C140" s="3">
-        <v>45148.314780093002</v>
-      </c>
+        <v>45148.314780093</v>
+      </c>
+      <c r="D140" s="2"/>
       <c r="E140" s="2" t="s">
         <v>1192</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>279</v>
       </c>
+      <c r="G140" s="2"/>
       <c r="H140" s="2" t="s">
         <v>1193</v>
       </c>
@@ -18221,6 +18976,7 @@
       <c r="AC140">
         <v>0</v>
       </c>
+      <c r="AD140" s="2"/>
       <c r="AE140">
         <v>1</v>
       </c>
@@ -18233,8 +18989,11 @@
       <c r="AH140">
         <v>590</v>
       </c>
+      <c r="AI140" s="2"/>
+      <c r="AJ140"/>
+      <c r="AK140"/>
     </row>
-    <row r="141" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:37">
       <c r="A141" s="2" t="s">
         <v>1199</v>
       </c>
@@ -18242,14 +19001,16 @@
         <v>38</v>
       </c>
       <c r="C141" s="3">
-        <v>45147.954004630003</v>
-      </c>
+        <v>45147.95400463</v>
+      </c>
+      <c r="D141" s="2"/>
       <c r="E141" s="2" t="s">
         <v>1200</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>1201</v>
       </c>
+      <c r="G141" s="2"/>
       <c r="H141" s="2" t="s">
         <v>1202</v>
       </c>
@@ -18316,7 +19077,7 @@
       <c r="AC141">
         <v>0</v>
       </c>
-      <c r="AD141" s="5" t="s">
+      <c r="AD141" s="2" t="s">
         <v>1207</v>
       </c>
       <c r="AE141">
@@ -18331,8 +19092,11 @@
       <c r="AH141">
         <v>949</v>
       </c>
+      <c r="AI141" s="2"/>
+      <c r="AJ141"/>
+      <c r="AK141"/>
     </row>
-    <row r="142" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:37">
       <c r="A142" s="2" t="s">
         <v>1209</v>
       </c>
@@ -18340,14 +19104,16 @@
         <v>38</v>
       </c>
       <c r="C142" s="3">
-        <v>45147.920740740999</v>
-      </c>
+        <v>45147.920740741</v>
+      </c>
+      <c r="D142" s="2"/>
       <c r="E142" s="2" t="s">
         <v>1210</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>214</v>
       </c>
+      <c r="G142" s="2"/>
       <c r="H142" s="2" t="s">
         <v>1211</v>
       </c>
@@ -18414,7 +19180,7 @@
       <c r="AC142">
         <v>0</v>
       </c>
-      <c r="AD142" s="5" t="s">
+      <c r="AD142" s="2" t="s">
         <v>1215</v>
       </c>
       <c r="AE142">
@@ -18429,8 +19195,11 @@
       <c r="AH142">
         <v>176</v>
       </c>
+      <c r="AI142" s="2"/>
+      <c r="AJ142"/>
+      <c r="AK142"/>
     </row>
-    <row r="143" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:37">
       <c r="A143" s="2" t="s">
         <v>1217</v>
       </c>
@@ -18438,14 +19207,16 @@
         <v>38</v>
       </c>
       <c r="C143" s="3">
-        <v>45147.701712962997</v>
-      </c>
+        <v>45147.701712963</v>
+      </c>
+      <c r="D143" s="2"/>
       <c r="E143" s="2" t="s">
         <v>1218</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>1219</v>
       </c>
+      <c r="G143" s="2"/>
       <c r="H143" s="2" t="s">
         <v>1220</v>
       </c>
@@ -18512,7 +19283,7 @@
       <c r="AC143">
         <v>0</v>
       </c>
-      <c r="AD143" s="5" t="s">
+      <c r="AD143" s="2" t="s">
         <v>1225</v>
       </c>
       <c r="AE143">
@@ -18527,8 +19298,11 @@
       <c r="AH143">
         <v>1942</v>
       </c>
+      <c r="AI143" s="2"/>
+      <c r="AJ143"/>
+      <c r="AK143"/>
     </row>
-    <row r="144" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:37">
       <c r="A144" s="2" t="s">
         <v>1227</v>
       </c>
@@ -18536,14 +19310,16 @@
         <v>38</v>
       </c>
       <c r="C144" s="3">
-        <v>45147.680648148002</v>
-      </c>
+        <v>45147.680648148</v>
+      </c>
+      <c r="D144" s="2"/>
       <c r="E144" s="2" t="s">
         <v>1228</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>1229</v>
       </c>
+      <c r="G144" s="2"/>
       <c r="H144" s="2" t="s">
         <v>1230</v>
       </c>
@@ -18610,6 +19386,7 @@
       <c r="AC144">
         <v>0</v>
       </c>
+      <c r="AD144" s="2"/>
       <c r="AE144">
         <v>1</v>
       </c>
@@ -18622,8 +19399,11 @@
       <c r="AH144">
         <v>145</v>
       </c>
+      <c r="AI144" s="2"/>
+      <c r="AJ144"/>
+      <c r="AK144"/>
     </row>
-    <row r="145" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:37">
       <c r="A145" s="2" t="s">
         <v>1235</v>
       </c>
@@ -18631,14 +19411,16 @@
         <v>38</v>
       </c>
       <c r="C145" s="3">
-        <v>45147.586435185003</v>
-      </c>
+        <v>45147.586435185</v>
+      </c>
+      <c r="D145" s="2"/>
       <c r="E145" s="2" t="s">
         <v>1236</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>279</v>
       </c>
+      <c r="G145" s="2"/>
       <c r="H145" s="2" t="s">
         <v>1237</v>
       </c>
@@ -18705,6 +19487,7 @@
       <c r="AC145">
         <v>0</v>
       </c>
+      <c r="AD145" s="2"/>
       <c r="AE145">
         <v>1</v>
       </c>
@@ -18717,8 +19500,11 @@
       <c r="AH145">
         <v>820</v>
       </c>
+      <c r="AI145" s="2"/>
+      <c r="AJ145"/>
+      <c r="AK145"/>
     </row>
-    <row r="146" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:37">
       <c r="A146" s="2" t="s">
         <v>1241</v>
       </c>
@@ -18728,12 +19514,14 @@
       <c r="C146" s="3">
         <v>45147.448854167</v>
       </c>
+      <c r="D146" s="2"/>
       <c r="E146" s="2" t="s">
         <v>1242</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>1242</v>
       </c>
+      <c r="G146" s="2"/>
       <c r="H146" s="2" t="s">
         <v>1243</v>
       </c>
@@ -18800,6 +19588,7 @@
       <c r="AC146">
         <v>0</v>
       </c>
+      <c r="AD146" s="2"/>
       <c r="AE146">
         <v>1</v>
       </c>
@@ -18812,8 +19601,11 @@
       <c r="AH146">
         <v>145</v>
       </c>
+      <c r="AI146" s="2"/>
+      <c r="AJ146"/>
+      <c r="AK146"/>
     </row>
-    <row r="147" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:37">
       <c r="A147" s="2" t="s">
         <v>1248</v>
       </c>
@@ -18821,14 +19613,16 @@
         <v>38</v>
       </c>
       <c r="C147" s="3">
-        <v>45147.446215278003</v>
-      </c>
+        <v>45147.446215278</v>
+      </c>
+      <c r="D147" s="2"/>
       <c r="E147" s="2" t="s">
         <v>1249</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>1250</v>
       </c>
+      <c r="G147" s="2"/>
       <c r="H147" s="2" t="s">
         <v>1251</v>
       </c>
@@ -18895,6 +19689,7 @@
       <c r="AC147">
         <v>0</v>
       </c>
+      <c r="AD147" s="2"/>
       <c r="AE147">
         <v>1</v>
       </c>
@@ -18907,8 +19702,11 @@
       <c r="AH147">
         <v>795</v>
       </c>
+      <c r="AI147" s="2"/>
+      <c r="AJ147"/>
+      <c r="AK147"/>
     </row>
-    <row r="148" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:37">
       <c r="A148" s="2" t="s">
         <v>1256</v>
       </c>
@@ -18916,14 +19714,16 @@
         <v>38</v>
       </c>
       <c r="C148" s="3">
-        <v>45146.950057870003</v>
-      </c>
+        <v>45146.95005787</v>
+      </c>
+      <c r="D148" s="2"/>
       <c r="E148" s="2" t="s">
         <v>1257</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>1258</v>
       </c>
+      <c r="G148" s="2"/>
       <c r="H148" s="2" t="s">
         <v>1259</v>
       </c>
@@ -18990,6 +19790,7 @@
       <c r="AC148">
         <v>0</v>
       </c>
+      <c r="AD148" s="2"/>
       <c r="AE148">
         <v>1</v>
       </c>
@@ -19002,8 +19803,11 @@
       <c r="AH148">
         <v>145</v>
       </c>
+      <c r="AI148" s="2"/>
+      <c r="AJ148"/>
+      <c r="AK148"/>
     </row>
-    <row r="149" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:37">
       <c r="A149" s="2" t="s">
         <v>1264</v>
       </c>
@@ -19011,14 +19815,16 @@
         <v>38</v>
       </c>
       <c r="C149" s="3">
-        <v>45146.886053241004</v>
-      </c>
+        <v>45146.886053241</v>
+      </c>
+      <c r="D149" s="2"/>
       <c r="E149" s="2" t="s">
         <v>1265</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>1266</v>
       </c>
+      <c r="G149" s="2"/>
       <c r="H149" s="2" t="s">
         <v>1267</v>
       </c>
@@ -19085,6 +19891,7 @@
       <c r="AC149">
         <v>0</v>
       </c>
+      <c r="AD149" s="2"/>
       <c r="AE149">
         <v>1</v>
       </c>
@@ -19097,8 +19904,11 @@
       <c r="AH149">
         <v>649</v>
       </c>
+      <c r="AI149" s="2"/>
+      <c r="AJ149"/>
+      <c r="AK149"/>
     </row>
-    <row r="150" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:37">
       <c r="A150" s="2" t="s">
         <v>1272</v>
       </c>
@@ -19106,14 +19916,16 @@
         <v>38</v>
       </c>
       <c r="C150" s="3">
-        <v>45146.849594906998</v>
-      </c>
+        <v>45146.849594907</v>
+      </c>
+      <c r="D150" s="2"/>
       <c r="E150" s="2" t="s">
         <v>1273</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>1274</v>
       </c>
+      <c r="G150" s="2"/>
       <c r="H150" s="2" t="s">
         <v>1275</v>
       </c>
@@ -19180,7 +19992,7 @@
       <c r="AC150">
         <v>0</v>
       </c>
-      <c r="AD150" s="5" t="s">
+      <c r="AD150" s="2" t="s">
         <v>579</v>
       </c>
       <c r="AE150">
@@ -19195,8 +20007,11 @@
       <c r="AH150">
         <v>89</v>
       </c>
+      <c r="AI150" s="2"/>
+      <c r="AJ150"/>
+      <c r="AK150"/>
     </row>
-    <row r="151" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:37">
       <c r="A151" s="2" t="s">
         <v>1280</v>
       </c>
@@ -19204,14 +20019,16 @@
         <v>38</v>
       </c>
       <c r="C151" s="3">
-        <v>45146.847777777999</v>
-      </c>
+        <v>45146.847777778</v>
+      </c>
+      <c r="D151" s="2"/>
       <c r="E151" s="2" t="s">
         <v>1007</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>1281</v>
       </c>
+      <c r="G151" s="2"/>
       <c r="H151" s="2" t="s">
         <v>1282</v>
       </c>
@@ -19278,6 +20095,7 @@
       <c r="AC151">
         <v>0</v>
       </c>
+      <c r="AD151" s="2"/>
       <c r="AE151">
         <v>1</v>
       </c>
@@ -19290,8 +20108,11 @@
       <c r="AH151">
         <v>430</v>
       </c>
+      <c r="AI151" s="2"/>
+      <c r="AJ151"/>
+      <c r="AK151"/>
     </row>
-    <row r="152" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:37">
       <c r="A152" s="2" t="s">
         <v>1280</v>
       </c>
@@ -19299,14 +20120,16 @@
         <v>38</v>
       </c>
       <c r="C152" s="3">
-        <v>45146.847777777999</v>
-      </c>
+        <v>45146.847777778</v>
+      </c>
+      <c r="D152" s="2"/>
       <c r="E152" s="2" t="s">
         <v>1007</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>1281</v>
       </c>
+      <c r="G152" s="2"/>
       <c r="H152" s="2" t="s">
         <v>1282</v>
       </c>
@@ -19373,7 +20196,7 @@
       <c r="AC152">
         <v>0</v>
       </c>
-      <c r="AD152" s="5" t="s">
+      <c r="AD152" s="2" t="s">
         <v>1288</v>
       </c>
       <c r="AE152">
@@ -19388,8 +20211,11 @@
       <c r="AH152">
         <v>290</v>
       </c>
+      <c r="AI152" s="2"/>
+      <c r="AJ152"/>
+      <c r="AK152"/>
     </row>
-    <row r="153" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:37">
       <c r="A153" s="2" t="s">
         <v>1290</v>
       </c>
@@ -19397,14 +20223,16 @@
         <v>38</v>
       </c>
       <c r="C153" s="3">
-        <v>45146.797442130002</v>
-      </c>
+        <v>45146.79744213</v>
+      </c>
+      <c r="D153" s="2"/>
       <c r="E153" s="2" t="s">
         <v>1291</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>1292</v>
       </c>
+      <c r="G153" s="2"/>
       <c r="H153" s="2" t="s">
         <v>1293</v>
       </c>
@@ -19471,7 +20299,7 @@
       <c r="AC153">
         <v>0</v>
       </c>
-      <c r="AD153" s="5" t="s">
+      <c r="AD153" s="2" t="s">
         <v>1297</v>
       </c>
       <c r="AE153">
@@ -19486,8 +20314,11 @@
       <c r="AH153">
         <v>549</v>
       </c>
+      <c r="AI153" s="2"/>
+      <c r="AJ153"/>
+      <c r="AK153"/>
     </row>
-    <row r="154" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:37">
       <c r="A154" s="2" t="s">
         <v>1299</v>
       </c>
@@ -19495,14 +20326,16 @@
         <v>38</v>
       </c>
       <c r="C154" s="3">
-        <v>45146.789178241001</v>
-      </c>
+        <v>45146.789178241</v>
+      </c>
+      <c r="D154" s="2"/>
       <c r="E154" s="2" t="s">
         <v>323</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>671</v>
       </c>
+      <c r="G154" s="2"/>
       <c r="H154" s="2" t="s">
         <v>1300</v>
       </c>
@@ -19569,6 +20402,7 @@
       <c r="AC154">
         <v>0</v>
       </c>
+      <c r="AD154" s="2"/>
       <c r="AE154">
         <v>1</v>
       </c>
@@ -19581,8 +20415,11 @@
       <c r="AH154">
         <v>375</v>
       </c>
+      <c r="AI154" s="2"/>
+      <c r="AJ154"/>
+      <c r="AK154"/>
     </row>
-    <row r="155" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:37">
       <c r="A155" s="2" t="s">
         <v>1305</v>
       </c>
@@ -19592,12 +20429,14 @@
       <c r="C155" s="3">
         <v>45146.690439815</v>
       </c>
+      <c r="D155" s="2"/>
       <c r="E155" s="2" t="s">
         <v>1306</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>1307</v>
       </c>
+      <c r="G155" s="2"/>
       <c r="H155" s="2" t="s">
         <v>1308</v>
       </c>
@@ -19664,7 +20503,7 @@
       <c r="AC155">
         <v>0</v>
       </c>
-      <c r="AD155" s="5" t="s">
+      <c r="AD155" s="2" t="s">
         <v>1311</v>
       </c>
       <c r="AE155">
@@ -19679,8 +20518,11 @@
       <c r="AH155">
         <v>200</v>
       </c>
+      <c r="AI155" s="2"/>
+      <c r="AJ155"/>
+      <c r="AK155"/>
     </row>
-    <row r="156" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:37">
       <c r="A156" s="2" t="s">
         <v>1313</v>
       </c>
@@ -19688,14 +20530,16 @@
         <v>38</v>
       </c>
       <c r="C156" s="3">
-        <v>45146.564814814999</v>
-      </c>
+        <v>45146.564814815</v>
+      </c>
+      <c r="D156" s="2"/>
       <c r="E156" s="2" t="s">
         <v>1314</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>1315</v>
       </c>
+      <c r="G156" s="2"/>
       <c r="H156" s="2" t="s">
         <v>1316</v>
       </c>
@@ -19762,7 +20606,7 @@
       <c r="AC156">
         <v>0</v>
       </c>
-      <c r="AD156" s="5" t="s">
+      <c r="AD156" s="2" t="s">
         <v>1321</v>
       </c>
       <c r="AE156">
@@ -19777,8 +20621,11 @@
       <c r="AH156">
         <v>375</v>
       </c>
+      <c r="AI156" s="2"/>
+      <c r="AJ156"/>
+      <c r="AK156"/>
     </row>
-    <row r="157" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:37">
       <c r="A157" s="2" t="s">
         <v>1323</v>
       </c>
@@ -19786,14 +20633,16 @@
         <v>38</v>
       </c>
       <c r="C157" s="3">
-        <v>45146.546898148001</v>
-      </c>
+        <v>45146.546898148</v>
+      </c>
+      <c r="D157" s="2"/>
       <c r="E157" s="2" t="s">
         <v>1324</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>1325</v>
       </c>
+      <c r="G157" s="2"/>
       <c r="H157" s="2" t="s">
         <v>1326</v>
       </c>
@@ -19860,6 +20709,7 @@
       <c r="AC157">
         <v>0</v>
       </c>
+      <c r="AD157" s="2"/>
       <c r="AE157">
         <v>1</v>
       </c>
@@ -19872,8 +20722,11 @@
       <c r="AH157">
         <v>145</v>
       </c>
+      <c r="AI157" s="2"/>
+      <c r="AJ157"/>
+      <c r="AK157"/>
     </row>
-    <row r="158" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:37">
       <c r="A158" s="2" t="s">
         <v>1331</v>
       </c>
@@ -19881,14 +20734,16 @@
         <v>38</v>
       </c>
       <c r="C158" s="3">
-        <v>45145.064733796004</v>
-      </c>
+        <v>45145.064733796</v>
+      </c>
+      <c r="D158" s="2"/>
       <c r="E158" s="2" t="s">
         <v>1332</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>1333</v>
       </c>
+      <c r="G158" s="2"/>
       <c r="H158" s="2" t="s">
         <v>1334</v>
       </c>
@@ -19955,7 +20810,7 @@
       <c r="AC158">
         <v>0</v>
       </c>
-      <c r="AD158" s="5" t="s">
+      <c r="AD158" s="2" t="s">
         <v>1339</v>
       </c>
       <c r="AE158">
@@ -19970,8 +20825,11 @@
       <c r="AH158">
         <v>970</v>
       </c>
+      <c r="AI158" s="2"/>
+      <c r="AJ158"/>
+      <c r="AK158"/>
     </row>
-    <row r="159" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:37">
       <c r="A159" s="2" t="s">
         <v>1341</v>
       </c>
@@ -19979,14 +20837,16 @@
         <v>38</v>
       </c>
       <c r="C159" s="3">
-        <v>45144.893969907003</v>
-      </c>
+        <v>45144.893969907</v>
+      </c>
+      <c r="D159" s="2"/>
       <c r="E159" s="2" t="s">
         <v>1342</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>207</v>
       </c>
+      <c r="G159" s="2"/>
       <c r="H159" s="2" t="s">
         <v>1343</v>
       </c>
@@ -20053,7 +20913,7 @@
       <c r="AC159">
         <v>0</v>
       </c>
-      <c r="AD159" s="5" t="s">
+      <c r="AD159" s="2" t="s">
         <v>1349</v>
       </c>
       <c r="AE159">
@@ -20068,8 +20928,11 @@
       <c r="AH159">
         <v>557</v>
       </c>
+      <c r="AI159" s="2"/>
+      <c r="AJ159"/>
+      <c r="AK159"/>
     </row>
-    <row r="160" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:37">
       <c r="A160" s="2" t="s">
         <v>1351</v>
       </c>
@@ -20077,14 +20940,16 @@
         <v>38</v>
       </c>
       <c r="C160" s="3">
-        <v>45144.479074073999</v>
-      </c>
+        <v>45144.479074074</v>
+      </c>
+      <c r="D160" s="2"/>
       <c r="E160" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>1352</v>
       </c>
+      <c r="G160" s="2"/>
       <c r="H160" s="2" t="s">
         <v>1353</v>
       </c>
@@ -20151,7 +21016,7 @@
       <c r="AC160">
         <v>0</v>
       </c>
-      <c r="AD160" s="5" t="s">
+      <c r="AD160" s="2" t="s">
         <v>976</v>
       </c>
       <c r="AE160">
@@ -20166,8 +21031,11 @@
       <c r="AH160">
         <v>160</v>
       </c>
+      <c r="AI160" s="2"/>
+      <c r="AJ160"/>
+      <c r="AK160"/>
     </row>
-    <row r="161" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:37">
       <c r="A161" s="2" t="s">
         <v>1358</v>
       </c>
@@ -20175,14 +21043,16 @@
         <v>38</v>
       </c>
       <c r="C161" s="3">
-        <v>45144.466608795999</v>
-      </c>
+        <v>45144.466608796</v>
+      </c>
+      <c r="D161" s="2"/>
       <c r="E161" s="2" t="s">
         <v>1359</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>324</v>
       </c>
+      <c r="G161" s="2"/>
       <c r="H161" s="2" t="s">
         <v>1360</v>
       </c>
@@ -20249,6 +21119,7 @@
       <c r="AC161">
         <v>0</v>
       </c>
+      <c r="AD161" s="2"/>
       <c r="AE161">
         <v>1</v>
       </c>
@@ -20261,8 +21132,11 @@
       <c r="AH161">
         <v>367</v>
       </c>
+      <c r="AI161" s="2"/>
+      <c r="AJ161"/>
+      <c r="AK161"/>
     </row>
-    <row r="162" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:37">
       <c r="A162" s="2" t="s">
         <v>1365</v>
       </c>
@@ -20270,14 +21144,16 @@
         <v>38</v>
       </c>
       <c r="C162" s="3">
-        <v>45143.909733795997</v>
-      </c>
+        <v>45143.909733796</v>
+      </c>
+      <c r="D162" s="2"/>
       <c r="E162" s="2" t="s">
         <v>1366</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>1367</v>
       </c>
+      <c r="G162" s="2"/>
       <c r="H162" s="2" t="s">
         <v>1368</v>
       </c>
@@ -20344,6 +21220,7 @@
       <c r="AC162">
         <v>0</v>
       </c>
+      <c r="AD162" s="2"/>
       <c r="AE162">
         <v>1</v>
       </c>
@@ -20356,8 +21233,11 @@
       <c r="AH162">
         <v>575</v>
       </c>
+      <c r="AI162" s="2"/>
+      <c r="AJ162"/>
+      <c r="AK162"/>
     </row>
-    <row r="163" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:37">
       <c r="A163" s="2" t="s">
         <v>1373</v>
       </c>
@@ -20365,14 +21245,16 @@
         <v>38</v>
       </c>
       <c r="C163" s="3">
-        <v>45143.885023148003</v>
-      </c>
+        <v>45143.885023148</v>
+      </c>
+      <c r="D163" s="2"/>
       <c r="E163" s="2" t="s">
         <v>1374</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>1375</v>
       </c>
+      <c r="G163" s="2"/>
       <c r="H163" s="2" t="s">
         <v>1376</v>
       </c>
@@ -20439,7 +21321,7 @@
       <c r="AC163">
         <v>0</v>
       </c>
-      <c r="AD163" s="5" t="s">
+      <c r="AD163" s="2" t="s">
         <v>1380</v>
       </c>
       <c r="AE163">
@@ -20454,8 +21336,11 @@
       <c r="AH163">
         <v>640</v>
       </c>
+      <c r="AI163" s="2"/>
+      <c r="AJ163"/>
+      <c r="AK163"/>
     </row>
-    <row r="164" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:37">
       <c r="A164" s="2" t="s">
         <v>1382</v>
       </c>
@@ -20463,14 +21348,16 @@
         <v>38</v>
       </c>
       <c r="C164" s="3">
-        <v>45142.932210648003</v>
-      </c>
+        <v>45142.932210648</v>
+      </c>
+      <c r="D164" s="2"/>
       <c r="E164" s="2" t="s">
         <v>1383</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>1384</v>
       </c>
+      <c r="G164" s="2"/>
       <c r="H164" s="2" t="s">
         <v>1385</v>
       </c>
@@ -20537,6 +21424,7 @@
       <c r="AC164">
         <v>0</v>
       </c>
+      <c r="AD164" s="2"/>
       <c r="AE164">
         <v>1</v>
       </c>
@@ -20549,8 +21437,11 @@
       <c r="AH164">
         <v>589</v>
       </c>
+      <c r="AI164" s="2"/>
+      <c r="AJ164"/>
+      <c r="AK164"/>
     </row>
-    <row r="165" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:37">
       <c r="A165" s="2" t="s">
         <v>1391</v>
       </c>
@@ -20560,12 +21451,14 @@
       <c r="C165" s="3">
         <v>45142.730520833</v>
       </c>
+      <c r="D165" s="2"/>
       <c r="E165" s="2" t="s">
         <v>1392</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>1393</v>
       </c>
+      <c r="G165" s="2"/>
       <c r="H165" s="2" t="s">
         <v>1394</v>
       </c>
@@ -20632,7 +21525,7 @@
       <c r="AC165">
         <v>0</v>
       </c>
-      <c r="AD165" s="5" t="s">
+      <c r="AD165" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AE165">
@@ -20647,8 +21540,11 @@
       <c r="AH165">
         <v>110</v>
       </c>
+      <c r="AI165" s="2"/>
+      <c r="AJ165"/>
+      <c r="AK165"/>
     </row>
-    <row r="166" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:37">
       <c r="A166" s="2" t="s">
         <v>1399</v>
       </c>
@@ -20656,14 +21552,16 @@
         <v>38</v>
       </c>
       <c r="C166" s="3">
-        <v>45142.508958332997</v>
-      </c>
+        <v>45142.508958333</v>
+      </c>
+      <c r="D166" s="2"/>
       <c r="E166" s="2" t="s">
         <v>1400</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>546</v>
       </c>
+      <c r="G166" s="2"/>
       <c r="H166" s="2" t="s">
         <v>1401</v>
       </c>
@@ -20730,7 +21628,7 @@
       <c r="AC166">
         <v>0</v>
       </c>
-      <c r="AD166" s="5" t="s">
+      <c r="AD166" s="2" t="s">
         <v>1380</v>
       </c>
       <c r="AE166">
@@ -20745,8 +21643,11 @@
       <c r="AH166">
         <v>640</v>
       </c>
+      <c r="AI166" s="2"/>
+      <c r="AJ166"/>
+      <c r="AK166"/>
     </row>
-    <row r="167" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:37">
       <c r="A167" s="2" t="s">
         <v>1406</v>
       </c>
@@ -20754,14 +21655,16 @@
         <v>38</v>
       </c>
       <c r="C167" s="3">
-        <v>45141.961469907001</v>
-      </c>
+        <v>45141.961469907</v>
+      </c>
+      <c r="D167" s="2"/>
       <c r="E167" s="2" t="s">
         <v>1407</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>1408</v>
       </c>
+      <c r="G167" s="2"/>
       <c r="H167" s="2" t="s">
         <v>1409</v>
       </c>
@@ -20828,7 +21731,7 @@
       <c r="AC167">
         <v>0</v>
       </c>
-      <c r="AD167" s="5" t="s">
+      <c r="AD167" s="2" t="s">
         <v>1082</v>
       </c>
       <c r="AE167">
@@ -20843,8 +21746,11 @@
       <c r="AH167">
         <v>233</v>
       </c>
+      <c r="AI167" s="2"/>
+      <c r="AJ167"/>
+      <c r="AK167"/>
     </row>
-    <row r="168" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:37">
       <c r="A168" s="2" t="s">
         <v>1414</v>
       </c>
@@ -20852,14 +21758,16 @@
         <v>38</v>
       </c>
       <c r="C168" s="3">
-        <v>45141.035358795998</v>
-      </c>
+        <v>45141.035358796</v>
+      </c>
+      <c r="D168" s="2"/>
       <c r="E168" s="2" t="s">
         <v>1415</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>1416</v>
       </c>
+      <c r="G168" s="2"/>
       <c r="H168" s="2" t="s">
         <v>1417</v>
       </c>
@@ -20926,7 +21834,7 @@
       <c r="AC168">
         <v>0</v>
       </c>
-      <c r="AD168" s="5" t="s">
+      <c r="AD168" s="2" t="s">
         <v>619</v>
       </c>
       <c r="AE168">
@@ -20941,9 +21849,22 @@
       <c r="AH168">
         <v>1249</v>
       </c>
+      <c r="AI168" s="2"/>
+      <c r="AJ168"/>
+      <c r="AK168"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/uploads/order.xlsx
+++ b/uploads/order.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hussain\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7751E6-AB21-4F1E-B1D5-E00E9239617F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="2304" yWindow="1788" windowWidth="19500" windowHeight="10452" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Orders" sheetId="1" r:id="rId4"/>
+    <sheet name="Orders" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3636" uniqueCount="1422">
   <si>
     <t>Order Number</t>
   </si>
@@ -4288,25 +4293,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd hh:mm"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -4317,37 +4315,42 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4637,59 +4640,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK1" sqref="AK1"/>
+      <selection pane="bottomLeft" activeCell="AF15" sqref="AF15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.281982" bestFit="true" customWidth="true" style="2"/>
-    <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="2"/>
-    <col min="3" max="3" width="19.995117" bestFit="true" customWidth="true" style="3"/>
-    <col min="4" max="4" width="16.424561" bestFit="true" customWidth="true" style="2"/>
-    <col min="5" max="5" width="24.708252" bestFit="true" customWidth="true" style="2"/>
-    <col min="6" max="6" width="23.422852" bestFit="true" customWidth="true" style="2"/>
-    <col min="7" max="7" width="21.137695" bestFit="true" customWidth="true" style="2"/>
-    <col min="8" max="8" width="198.094482" bestFit="true" customWidth="true" style="2"/>
-    <col min="9" max="9" width="63.555908" bestFit="true" customWidth="true" style="2"/>
-    <col min="10" max="10" width="24.708252" bestFit="true" customWidth="true" style="2"/>
-    <col min="11" max="11" width="22.280273" bestFit="true" customWidth="true" style="2"/>
-    <col min="12" max="12" width="26.993408" bestFit="true" customWidth="true" style="2"/>
-    <col min="13" max="13" width="37.705078" bestFit="true" customWidth="true" style="2"/>
-    <col min="14" max="14" width="18.709717" bestFit="true" customWidth="true" style="2"/>
-    <col min="15" max="15" width="25.85083" bestFit="true" customWidth="true" style="2"/>
-    <col min="16" max="16" width="24.708252" bestFit="true" customWidth="true" style="2"/>
-    <col min="17" max="17" width="198.094482" bestFit="true" customWidth="true" style="2"/>
-    <col min="18" max="18" width="63.555908" bestFit="true" customWidth="true" style="2"/>
-    <col min="19" max="19" width="25.85083" bestFit="true" customWidth="true" style="2"/>
-    <col min="20" max="20" width="23.422852" bestFit="true" customWidth="true" style="2"/>
-    <col min="21" max="21" width="28.135986" bestFit="true" customWidth="true" style="2"/>
-    <col min="22" max="22" width="44.703369" bestFit="true" customWidth="true" style="2"/>
-    <col min="25" max="25" width="29.421387" bestFit="true" customWidth="true" style="2"/>
-    <col min="30" max="30" width="18.709717" bestFit="true" customWidth="true" style="2"/>
-    <col min="32" max="32" width="140.251465" bestFit="true" customWidth="true" style="2"/>
-    <col min="35" max="35" width="13.996582" bestFit="true" customWidth="true" style="2"/>
-    <col min="23" max="23" width="24.708252" bestFit="true" customWidth="true" style="0"/>
-    <col min="24" max="24" width="25.85083" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="25.85083" bestFit="true" customWidth="true" style="0"/>
-    <col min="27" max="27" width="23.422852" bestFit="true" customWidth="true" style="0"/>
-    <col min="28" max="28" width="22.280273" bestFit="true" customWidth="true" style="0"/>
-    <col min="29" max="29" width="26.993408" bestFit="true" customWidth="true" style="0"/>
-    <col min="31" max="31" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="33" max="33" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="34" max="34" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="36" max="36" width="18.709717" bestFit="true" customWidth="true" style="0"/>
-    <col min="37" max="37" width="23.422852" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="2" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="198.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="63.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="37.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="198.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="63.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="44.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="29.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="27" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="140.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="23.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4777,7 +4776,7 @@
       <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="4" t="s">
         <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
@@ -4802,7 +4801,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -4810,16 +4809,14 @@
         <v>38</v>
       </c>
       <c r="C2" s="3">
-        <v>45154.550578704</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>45154.550578704002</v>
+      </c>
       <c r="E2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
         <v>41</v>
       </c>
@@ -4886,7 +4883,6 @@
       <c r="AC2">
         <v>0</v>
       </c>
-      <c r="AD2" s="2"/>
       <c r="AE2">
         <v>1</v>
       </c>
@@ -4899,11 +4895,8 @@
       <c r="AH2">
         <v>820</v>
       </c>
-      <c r="AI2" s="2"/>
-      <c r="AJ2"/>
-      <c r="AK2"/>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>51</v>
       </c>
@@ -4911,16 +4904,14 @@
         <v>38</v>
       </c>
       <c r="C3" s="3">
-        <v>45154.547777778</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>45154.547777778003</v>
+      </c>
       <c r="E3" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
         <v>54</v>
       </c>
@@ -4987,7 +4978,7 @@
       <c r="AC3">
         <v>0</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AD3" s="5" t="s">
         <v>60</v>
       </c>
       <c r="AE3">
@@ -5002,11 +4993,8 @@
       <c r="AH3">
         <v>110</v>
       </c>
-      <c r="AI3" s="2"/>
-      <c r="AJ3"/>
-      <c r="AK3"/>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>62</v>
       </c>
@@ -5016,14 +5004,12 @@
       <c r="C4" s="3">
         <v>45154.543831019</v>
       </c>
-      <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
         <v>65</v>
       </c>
@@ -5090,7 +5076,6 @@
       <c r="AC4">
         <v>0</v>
       </c>
-      <c r="AD4" s="2"/>
       <c r="AE4">
         <v>1</v>
       </c>
@@ -5103,11 +5088,8 @@
       <c r="AH4">
         <v>340</v>
       </c>
-      <c r="AI4" s="2"/>
-      <c r="AJ4"/>
-      <c r="AK4"/>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>73</v>
       </c>
@@ -5115,16 +5097,14 @@
         <v>38</v>
       </c>
       <c r="C5" s="3">
-        <v>45154.538680556</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>45154.538680555997</v>
+      </c>
       <c r="E5" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
         <v>76</v>
       </c>
@@ -5191,7 +5171,7 @@
       <c r="AC5">
         <v>0</v>
       </c>
-      <c r="AD5" s="2" t="s">
+      <c r="AD5" s="5" t="s">
         <v>81</v>
       </c>
       <c r="AE5">
@@ -5206,11 +5186,8 @@
       <c r="AH5">
         <v>540</v>
       </c>
-      <c r="AI5" s="2"/>
-      <c r="AJ5"/>
-      <c r="AK5"/>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>83</v>
       </c>
@@ -5218,16 +5195,14 @@
         <v>38</v>
       </c>
       <c r="C6" s="3">
-        <v>45154.537280093</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>45154.537280092998</v>
+      </c>
       <c r="E6" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
         <v>86</v>
       </c>
@@ -5294,7 +5269,6 @@
       <c r="AC6">
         <v>0</v>
       </c>
-      <c r="AD6" s="2"/>
       <c r="AE6">
         <v>1</v>
       </c>
@@ -5307,11 +5281,8 @@
       <c r="AH6">
         <v>495</v>
       </c>
-      <c r="AI6" s="2"/>
-      <c r="AJ6"/>
-      <c r="AK6"/>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>92</v>
       </c>
@@ -5319,16 +5290,14 @@
         <v>38</v>
       </c>
       <c r="C7" s="3">
-        <v>45154.44849537</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>45154.448495370001</v>
+      </c>
       <c r="E7" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
         <v>94</v>
       </c>
@@ -5395,7 +5364,6 @@
       <c r="AC7">
         <v>0</v>
       </c>
-      <c r="AD7" s="2"/>
       <c r="AE7">
         <v>1</v>
       </c>
@@ -5408,11 +5376,8 @@
       <c r="AH7">
         <v>340</v>
       </c>
-      <c r="AI7" s="2"/>
-      <c r="AJ7"/>
-      <c r="AK7"/>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>100</v>
       </c>
@@ -5420,16 +5385,14 @@
         <v>38</v>
       </c>
       <c r="C8" s="3">
-        <v>45154.396759259</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>45154.396759258998</v>
+      </c>
       <c r="E8" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
         <v>103</v>
       </c>
@@ -5496,7 +5459,7 @@
       <c r="AC8">
         <v>0</v>
       </c>
-      <c r="AD8" s="2" t="s">
+      <c r="AD8" s="5" t="s">
         <v>108</v>
       </c>
       <c r="AE8">
@@ -5511,11 +5474,8 @@
       <c r="AH8">
         <v>440</v>
       </c>
-      <c r="AI8" s="2"/>
-      <c r="AJ8"/>
-      <c r="AK8"/>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>110</v>
       </c>
@@ -5523,16 +5483,14 @@
         <v>38</v>
       </c>
       <c r="C9" s="3">
-        <v>45154.370821759</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>45154.370821759003</v>
+      </c>
       <c r="E9" s="2" t="s">
         <v>111</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
         <v>113</v>
       </c>
@@ -5599,7 +5557,7 @@
       <c r="AC9">
         <v>0</v>
       </c>
-      <c r="AD9" s="2" t="s">
+      <c r="AD9" s="5" t="s">
         <v>119</v>
       </c>
       <c r="AE9">
@@ -5614,11 +5572,8 @@
       <c r="AH9">
         <v>883</v>
       </c>
-      <c r="AI9" s="2"/>
-      <c r="AJ9"/>
-      <c r="AK9"/>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>121</v>
       </c>
@@ -5626,16 +5581,14 @@
         <v>38</v>
       </c>
       <c r="C10" s="3">
-        <v>45153.969502315</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>45153.969502314998</v>
+      </c>
       <c r="E10" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
         <v>123</v>
       </c>
@@ -5702,7 +5655,7 @@
       <c r="AC10">
         <v>0</v>
       </c>
-      <c r="AD10" s="2" t="s">
+      <c r="AD10" s="5" t="s">
         <v>128</v>
       </c>
       <c r="AE10">
@@ -5717,11 +5670,8 @@
       <c r="AH10">
         <v>285</v>
       </c>
-      <c r="AI10" s="2"/>
-      <c r="AJ10"/>
-      <c r="AK10"/>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>130</v>
       </c>
@@ -5729,16 +5679,14 @@
         <v>38</v>
       </c>
       <c r="C11" s="3">
-        <v>45153.960763889</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>45153.960763889001</v>
+      </c>
       <c r="E11" s="2" t="s">
         <v>131</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
         <v>133</v>
       </c>
@@ -5805,7 +5753,7 @@
       <c r="AC11">
         <v>0</v>
       </c>
-      <c r="AD11" s="2" t="s">
+      <c r="AD11" s="5" t="s">
         <v>139</v>
       </c>
       <c r="AE11">
@@ -5820,11 +5768,8 @@
       <c r="AH11">
         <v>278</v>
       </c>
-      <c r="AI11" s="2"/>
-      <c r="AJ11"/>
-      <c r="AK11"/>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>141</v>
       </c>
@@ -5832,16 +5777,14 @@
         <v>38</v>
       </c>
       <c r="C12" s="3">
-        <v>45153.945439815</v>
-      </c>
-      <c r="D12" s="2"/>
+        <v>45153.945439814997</v>
+      </c>
       <c r="E12" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
         <v>144</v>
       </c>
@@ -5908,7 +5851,6 @@
       <c r="AC12">
         <v>0</v>
       </c>
-      <c r="AD12" s="2"/>
       <c r="AE12">
         <v>1</v>
       </c>
@@ -5921,11 +5863,8 @@
       <c r="AH12">
         <v>795</v>
       </c>
-      <c r="AI12" s="2"/>
-      <c r="AJ12"/>
-      <c r="AK12"/>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>150</v>
       </c>
@@ -5933,16 +5872,14 @@
         <v>38</v>
       </c>
       <c r="C13" s="3">
-        <v>45153.942349537</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>45153.942349536999</v>
+      </c>
       <c r="E13" s="2" t="s">
         <v>151</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
         <v>153</v>
       </c>
@@ -6009,7 +5946,6 @@
       <c r="AC13">
         <v>0</v>
       </c>
-      <c r="AD13" s="2"/>
       <c r="AE13">
         <v>1</v>
       </c>
@@ -6022,11 +5958,8 @@
       <c r="AH13">
         <v>820</v>
       </c>
-      <c r="AI13" s="2"/>
-      <c r="AJ13"/>
-      <c r="AK13"/>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>159</v>
       </c>
@@ -6034,16 +5967,14 @@
         <v>38</v>
       </c>
       <c r="C14" s="3">
-        <v>45153.928217593</v>
-      </c>
-      <c r="D14" s="2"/>
+        <v>45153.928217592998</v>
+      </c>
       <c r="E14" s="2" t="s">
         <v>160</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
         <v>162</v>
       </c>
@@ -6110,7 +6041,6 @@
       <c r="AC14">
         <v>0</v>
       </c>
-      <c r="AD14" s="2"/>
       <c r="AE14">
         <v>1</v>
       </c>
@@ -6123,11 +6053,8 @@
       <c r="AH14">
         <v>820</v>
       </c>
-      <c r="AI14" s="2"/>
-      <c r="AJ14"/>
-      <c r="AK14"/>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>167</v>
       </c>
@@ -6135,16 +6062,14 @@
         <v>38</v>
       </c>
       <c r="C15" s="3">
-        <v>45153.926597222</v>
-      </c>
-      <c r="D15" s="2"/>
+        <v>45153.926597222002</v>
+      </c>
       <c r="E15" s="2" t="s">
         <v>160</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
         <v>162</v>
       </c>
@@ -6211,7 +6136,6 @@
       <c r="AC15">
         <v>0</v>
       </c>
-      <c r="AD15" s="2"/>
       <c r="AE15">
         <v>1</v>
       </c>
@@ -6224,11 +6148,8 @@
       <c r="AH15">
         <v>820</v>
       </c>
-      <c r="AI15" s="2"/>
-      <c r="AJ15"/>
-      <c r="AK15"/>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>168</v>
       </c>
@@ -6236,16 +6157,14 @@
         <v>38</v>
       </c>
       <c r="C16" s="3">
-        <v>45153.923680556</v>
-      </c>
-      <c r="D16" s="2"/>
+        <v>45153.923680555999</v>
+      </c>
       <c r="E16" s="2" t="s">
         <v>160</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
         <v>162</v>
       </c>
@@ -6312,7 +6231,6 @@
       <c r="AC16">
         <v>0</v>
       </c>
-      <c r="AD16" s="2"/>
       <c r="AE16">
         <v>1</v>
       </c>
@@ -6325,11 +6243,8 @@
       <c r="AH16">
         <v>820</v>
       </c>
-      <c r="AI16" s="2"/>
-      <c r="AJ16"/>
-      <c r="AK16"/>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>169</v>
       </c>
@@ -6339,14 +6254,12 @@
       <c r="C17" s="3">
         <v>45153.92025463</v>
       </c>
-      <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
         <v>170</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
         <v>172</v>
       </c>
@@ -6413,7 +6326,6 @@
       <c r="AC17">
         <v>0</v>
       </c>
-      <c r="AD17" s="2"/>
       <c r="AE17">
         <v>1</v>
       </c>
@@ -6426,11 +6338,8 @@
       <c r="AH17">
         <v>650</v>
       </c>
-      <c r="AI17" s="2"/>
-      <c r="AJ17"/>
-      <c r="AK17"/>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>179</v>
       </c>
@@ -6438,16 +6347,14 @@
         <v>38</v>
       </c>
       <c r="C18" s="3">
-        <v>45153.916956019</v>
-      </c>
-      <c r="D18" s="2"/>
+        <v>45153.916956018998</v>
+      </c>
       <c r="E18" s="2" t="s">
         <v>160</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
         <v>162</v>
       </c>
@@ -6514,7 +6421,6 @@
       <c r="AC18">
         <v>0</v>
       </c>
-      <c r="AD18" s="2"/>
       <c r="AE18">
         <v>1</v>
       </c>
@@ -6527,11 +6433,8 @@
       <c r="AH18">
         <v>820</v>
       </c>
-      <c r="AI18" s="2"/>
-      <c r="AJ18"/>
-      <c r="AK18"/>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>180</v>
       </c>
@@ -6539,16 +6442,14 @@
         <v>38</v>
       </c>
       <c r="C19" s="3">
-        <v>45153.901493056</v>
-      </c>
-      <c r="D19" s="2"/>
+        <v>45153.901493056001</v>
+      </c>
       <c r="E19" s="2" t="s">
         <v>181</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
         <v>183</v>
       </c>
@@ -6615,7 +6516,7 @@
       <c r="AC19">
         <v>0</v>
       </c>
-      <c r="AD19" s="2" t="s">
+      <c r="AD19" s="5" t="s">
         <v>187</v>
       </c>
       <c r="AE19">
@@ -6630,11 +6531,8 @@
       <c r="AH19">
         <v>1248</v>
       </c>
-      <c r="AI19" s="2"/>
-      <c r="AJ19"/>
-      <c r="AK19"/>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>189</v>
       </c>
@@ -6644,14 +6542,12 @@
       <c r="C20" s="3">
         <v>45153.895787037</v>
       </c>
-      <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
         <v>190</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
         <v>192</v>
       </c>
@@ -6718,7 +6614,6 @@
       <c r="AC20">
         <v>0</v>
       </c>
-      <c r="AD20" s="2"/>
       <c r="AE20">
         <v>1</v>
       </c>
@@ -6731,11 +6626,8 @@
       <c r="AH20">
         <v>820</v>
       </c>
-      <c r="AI20" s="2"/>
-      <c r="AJ20"/>
-      <c r="AK20"/>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>197</v>
       </c>
@@ -6745,14 +6637,12 @@
       <c r="C21" s="3">
         <v>45153.88474537</v>
       </c>
-      <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
         <v>198</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
         <v>200</v>
       </c>
@@ -6819,7 +6709,6 @@
       <c r="AC21">
         <v>0</v>
       </c>
-      <c r="AD21" s="2"/>
       <c r="AE21">
         <v>1</v>
       </c>
@@ -6832,11 +6721,8 @@
       <c r="AH21">
         <v>820</v>
       </c>
-      <c r="AI21" s="2"/>
-      <c r="AJ21"/>
-      <c r="AK21"/>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>205</v>
       </c>
@@ -6846,14 +6732,12 @@
       <c r="C22" s="3">
         <v>45153.86912037</v>
       </c>
-      <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
         <v>206</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
         <v>208</v>
       </c>
@@ -6920,7 +6804,6 @@
       <c r="AC22">
         <v>0</v>
       </c>
-      <c r="AD22" s="2"/>
       <c r="AE22">
         <v>1</v>
       </c>
@@ -6933,11 +6816,8 @@
       <c r="AH22">
         <v>820</v>
       </c>
-      <c r="AI22" s="2"/>
-      <c r="AJ22"/>
-      <c r="AK22"/>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>212</v>
       </c>
@@ -6947,14 +6827,12 @@
       <c r="C23" s="3">
         <v>45153.860601852</v>
       </c>
-      <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
         <v>213</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
         <v>215</v>
       </c>
@@ -7021,7 +6899,7 @@
       <c r="AC23">
         <v>0</v>
       </c>
-      <c r="AD23" s="2" t="s">
+      <c r="AD23" s="5" t="s">
         <v>221</v>
       </c>
       <c r="AE23">
@@ -7036,11 +6914,8 @@
       <c r="AH23">
         <v>906</v>
       </c>
-      <c r="AI23" s="2"/>
-      <c r="AJ23"/>
-      <c r="AK23"/>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>223</v>
       </c>
@@ -7048,16 +6923,14 @@
         <v>38</v>
       </c>
       <c r="C24" s="3">
-        <v>45153.834872685</v>
-      </c>
-      <c r="D24" s="2"/>
+        <v>45153.834872685002</v>
+      </c>
       <c r="E24" s="2" t="s">
         <v>224</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
         <v>226</v>
       </c>
@@ -7124,7 +6997,6 @@
       <c r="AC24">
         <v>0</v>
       </c>
-      <c r="AD24" s="2"/>
       <c r="AE24">
         <v>1</v>
       </c>
@@ -7137,11 +7009,8 @@
       <c r="AH24">
         <v>820</v>
       </c>
-      <c r="AI24" s="2"/>
-      <c r="AJ24"/>
-      <c r="AK24"/>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>230</v>
       </c>
@@ -7151,14 +7020,12 @@
       <c r="C25" s="3">
         <v>45153.803773148</v>
       </c>
-      <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
         <v>231</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
         <v>233</v>
       </c>
@@ -7225,7 +7092,7 @@
       <c r="AC25">
         <v>0</v>
       </c>
-      <c r="AD25" s="2" t="s">
+      <c r="AD25" s="5" t="s">
         <v>238</v>
       </c>
       <c r="AE25">
@@ -7240,11 +7107,8 @@
       <c r="AH25">
         <v>358</v>
       </c>
-      <c r="AI25" s="2"/>
-      <c r="AJ25"/>
-      <c r="AK25"/>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>240</v>
       </c>
@@ -7252,16 +7116,14 @@
         <v>38</v>
       </c>
       <c r="C26" s="3">
-        <v>45153.79193287</v>
-      </c>
-      <c r="D26" s="2"/>
+        <v>45153.791932870001</v>
+      </c>
       <c r="E26" s="2" t="s">
         <v>241</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
         <v>243</v>
       </c>
@@ -7328,7 +7190,7 @@
       <c r="AC26">
         <v>0</v>
       </c>
-      <c r="AD26" s="2" t="s">
+      <c r="AD26" s="5" t="s">
         <v>248</v>
       </c>
       <c r="AE26">
@@ -7343,11 +7205,8 @@
       <c r="AH26">
         <v>445</v>
       </c>
-      <c r="AI26" s="2"/>
-      <c r="AJ26"/>
-      <c r="AK26"/>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>250</v>
       </c>
@@ -7355,16 +7214,14 @@
         <v>38</v>
       </c>
       <c r="C27" s="3">
-        <v>45153.788576389</v>
-      </c>
-      <c r="D27" s="2"/>
+        <v>45153.788576389001</v>
+      </c>
       <c r="E27" s="2" t="s">
         <v>251</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
         <v>253</v>
       </c>
@@ -7431,7 +7288,6 @@
       <c r="AC27">
         <v>0</v>
       </c>
-      <c r="AD27" s="2"/>
       <c r="AE27">
         <v>1</v>
       </c>
@@ -7444,11 +7300,8 @@
       <c r="AH27">
         <v>820</v>
       </c>
-      <c r="AI27" s="2"/>
-      <c r="AJ27"/>
-      <c r="AK27"/>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>258</v>
       </c>
@@ -7456,16 +7309,14 @@
         <v>38</v>
       </c>
       <c r="C28" s="3">
-        <v>45153.754016204</v>
-      </c>
-      <c r="D28" s="2"/>
+        <v>45153.754016204002</v>
+      </c>
       <c r="E28" s="2" t="s">
         <v>259</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
         <v>261</v>
       </c>
@@ -7532,7 +7383,7 @@
       <c r="AC28">
         <v>0</v>
       </c>
-      <c r="AD28" s="2" t="s">
+      <c r="AD28" s="5" t="s">
         <v>267</v>
       </c>
       <c r="AE28">
@@ -7547,11 +7398,8 @@
       <c r="AH28">
         <v>174</v>
       </c>
-      <c r="AI28" s="2"/>
-      <c r="AJ28"/>
-      <c r="AK28"/>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>269</v>
       </c>
@@ -7561,14 +7409,12 @@
       <c r="C29" s="3">
         <v>45153.747662037</v>
       </c>
-      <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
         <v>270</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
         <v>272</v>
       </c>
@@ -7635,7 +7481,7 @@
       <c r="AC29">
         <v>0</v>
       </c>
-      <c r="AD29" s="2" t="s">
+      <c r="AD29" s="5" t="s">
         <v>248</v>
       </c>
       <c r="AE29">
@@ -7650,11 +7496,8 @@
       <c r="AH29">
         <v>445</v>
       </c>
-      <c r="AI29" s="2"/>
-      <c r="AJ29"/>
-      <c r="AK29"/>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>277</v>
       </c>
@@ -7662,16 +7505,14 @@
         <v>38</v>
       </c>
       <c r="C30" s="3">
-        <v>45153.742777778</v>
-      </c>
-      <c r="D30" s="2"/>
+        <v>45153.742777778003</v>
+      </c>
       <c r="E30" s="2" t="s">
         <v>278</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
         <v>280</v>
       </c>
@@ -7738,7 +7579,7 @@
       <c r="AC30">
         <v>0</v>
       </c>
-      <c r="AD30" s="2" t="s">
+      <c r="AD30" s="5" t="s">
         <v>286</v>
       </c>
       <c r="AE30">
@@ -7753,11 +7594,8 @@
       <c r="AH30">
         <v>638</v>
       </c>
-      <c r="AI30" s="2"/>
-      <c r="AJ30"/>
-      <c r="AK30"/>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>288</v>
       </c>
@@ -7767,14 +7605,12 @@
       <c r="C31" s="3">
         <v>45153.724340278</v>
       </c>
-      <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
         <v>289</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="G31" s="2"/>
       <c r="H31" s="2" t="s">
         <v>291</v>
       </c>
@@ -7841,7 +7677,7 @@
       <c r="AC31">
         <v>0</v>
       </c>
-      <c r="AD31" s="2" t="s">
+      <c r="AD31" s="5" t="s">
         <v>296</v>
       </c>
       <c r="AE31">
@@ -7856,11 +7692,8 @@
       <c r="AH31">
         <v>240</v>
       </c>
-      <c r="AI31" s="2"/>
-      <c r="AJ31"/>
-      <c r="AK31"/>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>298</v>
       </c>
@@ -7868,16 +7701,14 @@
         <v>38</v>
       </c>
       <c r="C32" s="3">
-        <v>45153.682974537</v>
-      </c>
-      <c r="D32" s="2"/>
+        <v>45153.682974536998</v>
+      </c>
       <c r="E32" s="2" t="s">
         <v>299</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
         <v>301</v>
       </c>
@@ -7944,7 +7775,6 @@
       <c r="AC32">
         <v>0</v>
       </c>
-      <c r="AD32" s="2"/>
       <c r="AE32">
         <v>1</v>
       </c>
@@ -7957,11 +7787,8 @@
       <c r="AH32">
         <v>649</v>
       </c>
-      <c r="AI32" s="2"/>
-      <c r="AJ32"/>
-      <c r="AK32"/>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>307</v>
       </c>
@@ -7969,16 +7796,14 @@
         <v>38</v>
       </c>
       <c r="C33" s="3">
-        <v>45153.64318287</v>
-      </c>
-      <c r="D33" s="2"/>
+        <v>45153.643182870001</v>
+      </c>
       <c r="E33" s="2" t="s">
         <v>308</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
         <v>309</v>
       </c>
@@ -8045,7 +7870,6 @@
       <c r="AC33">
         <v>0</v>
       </c>
-      <c r="AD33" s="2"/>
       <c r="AE33">
         <v>1</v>
       </c>
@@ -8058,11 +7882,8 @@
       <c r="AH33">
         <v>820</v>
       </c>
-      <c r="AI33" s="2"/>
-      <c r="AJ33"/>
-      <c r="AK33"/>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>314</v>
       </c>
@@ -8070,16 +7891,14 @@
         <v>38</v>
       </c>
       <c r="C34" s="3">
-        <v>45153.630810185</v>
-      </c>
-      <c r="D34" s="2"/>
+        <v>45153.630810185001</v>
+      </c>
       <c r="E34" s="2" t="s">
         <v>315</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
         <v>317</v>
       </c>
@@ -8146,7 +7965,6 @@
       <c r="AC34">
         <v>0</v>
       </c>
-      <c r="AD34" s="2"/>
       <c r="AE34">
         <v>1</v>
       </c>
@@ -8159,11 +7977,8 @@
       <c r="AH34">
         <v>820</v>
       </c>
-      <c r="AI34" s="2"/>
-      <c r="AJ34"/>
-      <c r="AK34"/>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>322</v>
       </c>
@@ -8171,16 +7986,14 @@
         <v>38</v>
       </c>
       <c r="C35" s="3">
-        <v>45153.593391204</v>
-      </c>
-      <c r="D35" s="2"/>
+        <v>45153.593391203998</v>
+      </c>
       <c r="E35" s="2" t="s">
         <v>323</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
         <v>325</v>
       </c>
@@ -8247,7 +8060,6 @@
       <c r="AC35">
         <v>0</v>
       </c>
-      <c r="AD35" s="2"/>
       <c r="AE35">
         <v>1</v>
       </c>
@@ -8260,11 +8072,8 @@
       <c r="AH35">
         <v>820</v>
       </c>
-      <c r="AI35" s="2"/>
-      <c r="AJ35"/>
-      <c r="AK35"/>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>330</v>
       </c>
@@ -8272,16 +8081,14 @@
         <v>38</v>
       </c>
       <c r="C36" s="3">
-        <v>45153.571666667</v>
-      </c>
-      <c r="D36" s="2"/>
+        <v>45153.571666666998</v>
+      </c>
       <c r="E36" s="2" t="s">
         <v>331</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
         <v>333</v>
       </c>
@@ -8348,7 +8155,7 @@
       <c r="AC36">
         <v>0</v>
       </c>
-      <c r="AD36" s="2" t="s">
+      <c r="AD36" s="5" t="s">
         <v>338</v>
       </c>
       <c r="AE36">
@@ -8363,11 +8170,8 @@
       <c r="AH36">
         <v>275</v>
       </c>
-      <c r="AI36" s="2"/>
-      <c r="AJ36"/>
-      <c r="AK36"/>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>340</v>
       </c>
@@ -8375,16 +8179,14 @@
         <v>38</v>
       </c>
       <c r="C37" s="3">
-        <v>45153.569386574</v>
-      </c>
-      <c r="D37" s="2"/>
+        <v>45153.569386574003</v>
+      </c>
       <c r="E37" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="G37" s="2"/>
       <c r="H37" s="2" t="s">
         <v>342</v>
       </c>
@@ -8451,7 +8253,7 @@
       <c r="AC37">
         <v>0</v>
       </c>
-      <c r="AD37" s="2" t="s">
+      <c r="AD37" s="5" t="s">
         <v>108</v>
       </c>
       <c r="AE37">
@@ -8466,11 +8268,8 @@
       <c r="AH37">
         <v>440</v>
       </c>
-      <c r="AI37" s="2"/>
-      <c r="AJ37"/>
-      <c r="AK37"/>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>347</v>
       </c>
@@ -8480,14 +8279,12 @@
       <c r="C38" s="3">
         <v>45153.558043981</v>
       </c>
-      <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
         <v>323</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="G38" s="2"/>
       <c r="H38" s="2" t="s">
         <v>349</v>
       </c>
@@ -8554,7 +8351,6 @@
       <c r="AC38">
         <v>0</v>
       </c>
-      <c r="AD38" s="2"/>
       <c r="AE38">
         <v>1</v>
       </c>
@@ -8567,11 +8363,8 @@
       <c r="AH38">
         <v>820</v>
       </c>
-      <c r="AI38" s="2"/>
-      <c r="AJ38"/>
-      <c r="AK38"/>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>354</v>
       </c>
@@ -8579,16 +8372,14 @@
         <v>38</v>
       </c>
       <c r="C39" s="3">
-        <v>45153.532881944</v>
-      </c>
-      <c r="D39" s="2"/>
+        <v>45153.532881943996</v>
+      </c>
       <c r="E39" s="2" t="s">
         <v>355</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
         <v>356</v>
       </c>
@@ -8655,7 +8446,6 @@
       <c r="AC39">
         <v>0</v>
       </c>
-      <c r="AD39" s="2"/>
       <c r="AE39">
         <v>1</v>
       </c>
@@ -8668,11 +8458,8 @@
       <c r="AH39">
         <v>820</v>
       </c>
-      <c r="AI39" s="2"/>
-      <c r="AJ39"/>
-      <c r="AK39"/>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>361</v>
       </c>
@@ -8680,16 +8467,14 @@
         <v>38</v>
       </c>
       <c r="C40" s="3">
-        <v>45153.51193287</v>
-      </c>
-      <c r="D40" s="2"/>
+        <v>45153.511932870002</v>
+      </c>
       <c r="E40" s="2" t="s">
         <v>362</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
         <v>363</v>
       </c>
@@ -8756,7 +8541,6 @@
       <c r="AC40">
         <v>0</v>
       </c>
-      <c r="AD40" s="2"/>
       <c r="AE40">
         <v>1</v>
       </c>
@@ -8769,11 +8553,8 @@
       <c r="AH40">
         <v>820</v>
       </c>
-      <c r="AI40" s="2"/>
-      <c r="AJ40"/>
-      <c r="AK40"/>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>368</v>
       </c>
@@ -8781,16 +8562,14 @@
         <v>38</v>
       </c>
       <c r="C41" s="3">
-        <v>45153.499976852</v>
-      </c>
-      <c r="D41" s="2"/>
+        <v>45153.499976851999</v>
+      </c>
       <c r="E41" s="2" t="s">
         <v>369</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G41" s="2"/>
       <c r="H41" s="2" t="s">
         <v>370</v>
       </c>
@@ -8857,7 +8636,6 @@
       <c r="AC41">
         <v>0</v>
       </c>
-      <c r="AD41" s="2"/>
       <c r="AE41">
         <v>1</v>
       </c>
@@ -8870,11 +8648,8 @@
       <c r="AH41">
         <v>820</v>
       </c>
-      <c r="AI41" s="2"/>
-      <c r="AJ41"/>
-      <c r="AK41"/>
     </row>
-    <row r="42" spans="1:37">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>375</v>
       </c>
@@ -8882,16 +8657,14 @@
         <v>38</v>
       </c>
       <c r="C42" s="3">
-        <v>45153.489409722</v>
-      </c>
-      <c r="D42" s="2"/>
+        <v>45153.489409722002</v>
+      </c>
       <c r="E42" s="2" t="s">
         <v>376</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G42" s="2"/>
       <c r="H42" s="2" t="s">
         <v>378</v>
       </c>
@@ -8958,7 +8731,7 @@
       <c r="AC42">
         <v>0</v>
       </c>
-      <c r="AD42" s="2" t="s">
+      <c r="AD42" s="5" t="s">
         <v>383</v>
       </c>
       <c r="AE42">
@@ -8973,11 +8746,8 @@
       <c r="AH42">
         <v>180</v>
       </c>
-      <c r="AI42" s="2"/>
-      <c r="AJ42"/>
-      <c r="AK42"/>
     </row>
-    <row r="43" spans="1:37">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>375</v>
       </c>
@@ -8985,16 +8755,14 @@
         <v>38</v>
       </c>
       <c r="C43" s="3">
-        <v>45153.489409722</v>
-      </c>
-      <c r="D43" s="2"/>
+        <v>45153.489409722002</v>
+      </c>
       <c r="E43" s="2" t="s">
         <v>376</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
         <v>378</v>
       </c>
@@ -9061,7 +8829,7 @@
       <c r="AC43">
         <v>0</v>
       </c>
-      <c r="AD43" s="2" t="s">
+      <c r="AD43" s="5" t="s">
         <v>385</v>
       </c>
       <c r="AE43">
@@ -9076,11 +8844,8 @@
       <c r="AH43">
         <v>170</v>
       </c>
-      <c r="AI43" s="2"/>
-      <c r="AJ43"/>
-      <c r="AK43"/>
     </row>
-    <row r="44" spans="1:37">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>375</v>
       </c>
@@ -9088,16 +8853,14 @@
         <v>38</v>
       </c>
       <c r="C44" s="3">
-        <v>45153.489409722</v>
-      </c>
-      <c r="D44" s="2"/>
+        <v>45153.489409722002</v>
+      </c>
       <c r="E44" s="2" t="s">
         <v>376</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G44" s="2"/>
       <c r="H44" s="2" t="s">
         <v>378</v>
       </c>
@@ -9164,7 +8927,7 @@
       <c r="AC44">
         <v>0</v>
       </c>
-      <c r="AD44" s="2" t="s">
+      <c r="AD44" s="5" t="s">
         <v>387</v>
       </c>
       <c r="AE44">
@@ -9179,11 +8942,8 @@
       <c r="AH44">
         <v>180</v>
       </c>
-      <c r="AI44" s="2"/>
-      <c r="AJ44"/>
-      <c r="AK44"/>
     </row>
-    <row r="45" spans="1:37">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>389</v>
       </c>
@@ -9191,16 +8951,14 @@
         <v>38</v>
       </c>
       <c r="C45" s="3">
-        <v>45153.473969907</v>
-      </c>
-      <c r="D45" s="2"/>
+        <v>45153.473969906998</v>
+      </c>
       <c r="E45" s="2" t="s">
         <v>390</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="G45" s="2"/>
       <c r="H45" s="2" t="s">
         <v>392</v>
       </c>
@@ -9267,7 +9025,7 @@
       <c r="AC45">
         <v>0</v>
       </c>
-      <c r="AD45" s="2" t="s">
+      <c r="AD45" s="5" t="s">
         <v>397</v>
       </c>
       <c r="AE45">
@@ -9282,11 +9040,8 @@
       <c r="AH45">
         <v>399</v>
       </c>
-      <c r="AI45" s="2"/>
-      <c r="AJ45"/>
-      <c r="AK45"/>
     </row>
-    <row r="46" spans="1:37">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>399</v>
       </c>
@@ -9294,16 +9049,14 @@
         <v>38</v>
       </c>
       <c r="C46" s="3">
-        <v>45153.328171296</v>
-      </c>
-      <c r="D46" s="2"/>
+        <v>45153.328171296002</v>
+      </c>
       <c r="E46" s="2" t="s">
         <v>400</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="G46" s="2"/>
       <c r="H46" s="2" t="s">
         <v>402</v>
       </c>
@@ -9370,7 +9123,7 @@
       <c r="AC46">
         <v>0</v>
       </c>
-      <c r="AD46" s="2" t="s">
+      <c r="AD46" s="5" t="s">
         <v>248</v>
       </c>
       <c r="AE46">
@@ -9385,11 +9138,8 @@
       <c r="AH46">
         <v>445</v>
       </c>
-      <c r="AI46" s="2"/>
-      <c r="AJ46"/>
-      <c r="AK46"/>
     </row>
-    <row r="47" spans="1:37">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>406</v>
       </c>
@@ -9397,16 +9147,14 @@
         <v>38</v>
       </c>
       <c r="C47" s="3">
-        <v>45153.27744213</v>
-      </c>
-      <c r="D47" s="2"/>
+        <v>45153.277442129998</v>
+      </c>
       <c r="E47" s="2" t="s">
         <v>407</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="G47" s="2"/>
       <c r="H47" s="2" t="s">
         <v>408</v>
       </c>
@@ -9473,7 +9221,6 @@
       <c r="AC47">
         <v>0</v>
       </c>
-      <c r="AD47" s="2"/>
       <c r="AE47">
         <v>1</v>
       </c>
@@ -9486,11 +9233,8 @@
       <c r="AH47">
         <v>820</v>
       </c>
-      <c r="AI47" s="2"/>
-      <c r="AJ47"/>
-      <c r="AK47"/>
     </row>
-    <row r="48" spans="1:37">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>413</v>
       </c>
@@ -9498,16 +9242,14 @@
         <v>38</v>
       </c>
       <c r="C48" s="3">
-        <v>45152.981585648</v>
-      </c>
-      <c r="D48" s="2"/>
+        <v>45152.981585647998</v>
+      </c>
       <c r="E48" s="2" t="s">
         <v>414</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="G48" s="2"/>
       <c r="H48" s="2" t="s">
         <v>416</v>
       </c>
@@ -9574,7 +9316,7 @@
       <c r="AC48">
         <v>0</v>
       </c>
-      <c r="AD48" s="2" t="s">
+      <c r="AD48" s="5" t="s">
         <v>423</v>
       </c>
       <c r="AE48">
@@ -9589,11 +9331,8 @@
       <c r="AH48">
         <v>532</v>
       </c>
-      <c r="AI48" s="2"/>
-      <c r="AJ48"/>
-      <c r="AK48"/>
     </row>
-    <row r="49" spans="1:37">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>425</v>
       </c>
@@ -9603,14 +9342,12 @@
       <c r="C49" s="3">
         <v>45152.956770833</v>
       </c>
-      <c r="D49" s="2"/>
       <c r="E49" s="2" t="s">
         <v>426</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="G49" s="2"/>
       <c r="H49" s="2" t="s">
         <v>428</v>
       </c>
@@ -9677,7 +9414,7 @@
       <c r="AC49">
         <v>0</v>
       </c>
-      <c r="AD49" s="2" t="s">
+      <c r="AD49" s="5" t="s">
         <v>433</v>
       </c>
       <c r="AE49">
@@ -9692,11 +9429,8 @@
       <c r="AH49">
         <v>1249</v>
       </c>
-      <c r="AI49" s="2"/>
-      <c r="AJ49"/>
-      <c r="AK49"/>
     </row>
-    <row r="50" spans="1:37">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>435</v>
       </c>
@@ -9704,16 +9438,14 @@
         <v>38</v>
       </c>
       <c r="C50" s="3">
-        <v>45152.954791667</v>
-      </c>
-      <c r="D50" s="2"/>
+        <v>45152.954791666998</v>
+      </c>
       <c r="E50" s="2" t="s">
         <v>436</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="G50" s="2"/>
       <c r="H50" s="2" t="s">
         <v>438</v>
       </c>
@@ -9780,7 +9512,6 @@
       <c r="AC50">
         <v>0</v>
       </c>
-      <c r="AD50" s="2"/>
       <c r="AE50">
         <v>1</v>
       </c>
@@ -9793,11 +9524,8 @@
       <c r="AH50">
         <v>820</v>
       </c>
-      <c r="AI50" s="2"/>
-      <c r="AJ50"/>
-      <c r="AK50"/>
     </row>
-    <row r="51" spans="1:37">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>443</v>
       </c>
@@ -9805,16 +9533,14 @@
         <v>38</v>
       </c>
       <c r="C51" s="3">
-        <v>45152.95431713</v>
-      </c>
-      <c r="D51" s="2"/>
+        <v>45152.954317130003</v>
+      </c>
       <c r="E51" s="2" t="s">
         <v>444</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="G51" s="2"/>
       <c r="H51" s="2" t="s">
         <v>446</v>
       </c>
@@ -9881,7 +9607,7 @@
       <c r="AC51">
         <v>0</v>
       </c>
-      <c r="AD51" s="2" t="s">
+      <c r="AD51" s="5" t="s">
         <v>450</v>
       </c>
       <c r="AE51">
@@ -9896,11 +9622,8 @@
       <c r="AH51">
         <v>299</v>
       </c>
-      <c r="AI51" s="2"/>
-      <c r="AJ51"/>
-      <c r="AK51"/>
     </row>
-    <row r="52" spans="1:37">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>452</v>
       </c>
@@ -9908,16 +9631,14 @@
         <v>38</v>
       </c>
       <c r="C52" s="3">
-        <v>45152.934791667</v>
-      </c>
-      <c r="D52" s="2"/>
+        <v>45152.934791667001</v>
+      </c>
       <c r="E52" s="2" t="s">
         <v>453</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="G52" s="2"/>
       <c r="H52" s="2" t="s">
         <v>455</v>
       </c>
@@ -9984,7 +9705,6 @@
       <c r="AC52">
         <v>0</v>
       </c>
-      <c r="AD52" s="2"/>
       <c r="AE52">
         <v>1</v>
       </c>
@@ -9997,11 +9717,8 @@
       <c r="AH52">
         <v>820</v>
       </c>
-      <c r="AI52" s="2"/>
-      <c r="AJ52"/>
-      <c r="AK52"/>
     </row>
-    <row r="53" spans="1:37">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>460</v>
       </c>
@@ -10009,16 +9726,14 @@
         <v>38</v>
       </c>
       <c r="C53" s="3">
-        <v>45152.929444444</v>
-      </c>
-      <c r="D53" s="2"/>
+        <v>45152.929444444002</v>
+      </c>
       <c r="E53" s="2" t="s">
         <v>461</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="G53" s="2"/>
       <c r="H53" s="2" t="s">
         <v>463</v>
       </c>
@@ -10085,7 +9800,7 @@
       <c r="AC53">
         <v>0</v>
       </c>
-      <c r="AD53" s="2" t="s">
+      <c r="AD53" s="5" t="s">
         <v>469</v>
       </c>
       <c r="AE53">
@@ -10100,11 +9815,8 @@
       <c r="AH53">
         <v>608</v>
       </c>
-      <c r="AI53" s="2"/>
-      <c r="AJ53"/>
-      <c r="AK53"/>
     </row>
-    <row r="54" spans="1:37">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>471</v>
       </c>
@@ -10112,16 +9824,14 @@
         <v>38</v>
       </c>
       <c r="C54" s="3">
-        <v>45152.915196759</v>
-      </c>
-      <c r="D54" s="2"/>
+        <v>45152.915196759001</v>
+      </c>
       <c r="E54" s="2" t="s">
         <v>472</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="G54" s="2"/>
       <c r="H54" s="2" t="s">
         <v>474</v>
       </c>
@@ -10188,7 +9898,6 @@
       <c r="AC54">
         <v>0</v>
       </c>
-      <c r="AD54" s="2"/>
       <c r="AE54">
         <v>1</v>
       </c>
@@ -10201,11 +9910,8 @@
       <c r="AH54">
         <v>820</v>
       </c>
-      <c r="AI54" s="2"/>
-      <c r="AJ54"/>
-      <c r="AK54"/>
     </row>
-    <row r="55" spans="1:37">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>479</v>
       </c>
@@ -10215,14 +9921,12 @@
       <c r="C55" s="3">
         <v>45152.911840278</v>
       </c>
-      <c r="D55" s="2"/>
       <c r="E55" s="2" t="s">
         <v>480</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="G55" s="2"/>
       <c r="H55" s="2" t="s">
         <v>482</v>
       </c>
@@ -10289,7 +9993,7 @@
       <c r="AC55">
         <v>0</v>
       </c>
-      <c r="AD55" s="2" t="s">
+      <c r="AD55" s="5" t="s">
         <v>488</v>
       </c>
       <c r="AE55">
@@ -10304,11 +10008,8 @@
       <c r="AH55">
         <v>638</v>
       </c>
-      <c r="AI55" s="2"/>
-      <c r="AJ55"/>
-      <c r="AK55"/>
     </row>
-    <row r="56" spans="1:37">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>490</v>
       </c>
@@ -10316,16 +10017,14 @@
         <v>38</v>
       </c>
       <c r="C56" s="3">
-        <v>45152.910289352</v>
-      </c>
-      <c r="D56" s="2"/>
+        <v>45152.910289352003</v>
+      </c>
       <c r="E56" s="2" t="s">
         <v>491</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="G56" s="2"/>
       <c r="H56" s="2" t="s">
         <v>493</v>
       </c>
@@ -10392,7 +10091,7 @@
       <c r="AC56">
         <v>0</v>
       </c>
-      <c r="AD56" s="2" t="s">
+      <c r="AD56" s="5" t="s">
         <v>497</v>
       </c>
       <c r="AE56">
@@ -10407,11 +10106,8 @@
       <c r="AH56">
         <v>340</v>
       </c>
-      <c r="AI56" s="2"/>
-      <c r="AJ56"/>
-      <c r="AK56"/>
     </row>
-    <row r="57" spans="1:37">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>499</v>
       </c>
@@ -10419,16 +10115,14 @@
         <v>38</v>
       </c>
       <c r="C57" s="3">
-        <v>45152.895729167</v>
-      </c>
-      <c r="D57" s="2"/>
+        <v>45152.895729167001</v>
+      </c>
       <c r="E57" s="2" t="s">
         <v>500</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="G57" s="2"/>
       <c r="H57" s="2" t="s">
         <v>502</v>
       </c>
@@ -10495,7 +10189,6 @@
       <c r="AC57">
         <v>0</v>
       </c>
-      <c r="AD57" s="2"/>
       <c r="AE57">
         <v>1</v>
       </c>
@@ -10508,11 +10201,8 @@
       <c r="AH57">
         <v>820</v>
       </c>
-      <c r="AI57" s="2"/>
-      <c r="AJ57"/>
-      <c r="AK57"/>
     </row>
-    <row r="58" spans="1:37">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>507</v>
       </c>
@@ -10522,14 +10212,12 @@
       <c r="C58" s="3">
         <v>45152.874398148</v>
       </c>
-      <c r="D58" s="2"/>
       <c r="E58" s="2" t="s">
         <v>508</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G58" s="2"/>
       <c r="H58" s="2" t="s">
         <v>509</v>
       </c>
@@ -10596,7 +10284,6 @@
       <c r="AC58">
         <v>0</v>
       </c>
-      <c r="AD58" s="2"/>
       <c r="AE58">
         <v>1</v>
       </c>
@@ -10609,11 +10296,8 @@
       <c r="AH58">
         <v>820</v>
       </c>
-      <c r="AI58" s="2"/>
-      <c r="AJ58"/>
-      <c r="AK58"/>
     </row>
-    <row r="59" spans="1:37">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>514</v>
       </c>
@@ -10621,16 +10305,14 @@
         <v>38</v>
       </c>
       <c r="C59" s="3">
-        <v>45152.869375</v>
-      </c>
-      <c r="D59" s="2"/>
+        <v>45152.869375000002</v>
+      </c>
       <c r="E59" s="2" t="s">
         <v>515</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="G59" s="2"/>
       <c r="H59" s="2" t="s">
         <v>517</v>
       </c>
@@ -10697,7 +10379,6 @@
       <c r="AC59">
         <v>0</v>
       </c>
-      <c r="AD59" s="2"/>
       <c r="AE59">
         <v>1</v>
       </c>
@@ -10710,11 +10391,8 @@
       <c r="AH59">
         <v>820</v>
       </c>
-      <c r="AI59" s="2"/>
-      <c r="AJ59"/>
-      <c r="AK59"/>
     </row>
-    <row r="60" spans="1:37">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>522</v>
       </c>
@@ -10722,16 +10400,14 @@
         <v>38</v>
       </c>
       <c r="C60" s="3">
-        <v>45152.84556713</v>
-      </c>
-      <c r="D60" s="2"/>
+        <v>45152.845567130003</v>
+      </c>
       <c r="E60" s="2" t="s">
         <v>523</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="G60" s="2"/>
       <c r="H60" s="2" t="s">
         <v>524</v>
       </c>
@@ -10798,7 +10474,6 @@
       <c r="AC60">
         <v>0</v>
       </c>
-      <c r="AD60" s="2"/>
       <c r="AE60">
         <v>1</v>
       </c>
@@ -10811,11 +10486,8 @@
       <c r="AH60">
         <v>820</v>
       </c>
-      <c r="AI60" s="2"/>
-      <c r="AJ60"/>
-      <c r="AK60"/>
     </row>
-    <row r="61" spans="1:37">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>529</v>
       </c>
@@ -10823,16 +10495,14 @@
         <v>38</v>
       </c>
       <c r="C61" s="3">
-        <v>45152.841840278</v>
-      </c>
-      <c r="D61" s="2"/>
+        <v>45152.841840278001</v>
+      </c>
       <c r="E61" s="2" t="s">
         <v>530</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="G61" s="2"/>
       <c r="H61" s="2" t="s">
         <v>531</v>
       </c>
@@ -10899,7 +10569,6 @@
       <c r="AC61">
         <v>0</v>
       </c>
-      <c r="AD61" s="2"/>
       <c r="AE61">
         <v>1</v>
       </c>
@@ -10912,11 +10581,8 @@
       <c r="AH61">
         <v>820</v>
       </c>
-      <c r="AI61" s="2"/>
-      <c r="AJ61"/>
-      <c r="AK61"/>
     </row>
-    <row r="62" spans="1:37">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>535</v>
       </c>
@@ -10924,16 +10590,14 @@
         <v>38</v>
       </c>
       <c r="C62" s="3">
-        <v>45152.835034722</v>
-      </c>
-      <c r="D62" s="2"/>
+        <v>45152.835034721997</v>
+      </c>
       <c r="E62" s="2" t="s">
         <v>536</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="G62" s="2"/>
       <c r="H62" s="2" t="s">
         <v>538</v>
       </c>
@@ -11000,7 +10664,7 @@
       <c r="AC62">
         <v>0</v>
       </c>
-      <c r="AD62" s="2" t="s">
+      <c r="AD62" s="5" t="s">
         <v>543</v>
       </c>
       <c r="AE62">
@@ -11015,11 +10679,8 @@
       <c r="AH62">
         <v>130</v>
       </c>
-      <c r="AI62" s="2"/>
-      <c r="AJ62"/>
-      <c r="AK62"/>
     </row>
-    <row r="63" spans="1:37">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>545</v>
       </c>
@@ -11027,16 +10688,14 @@
         <v>38</v>
       </c>
       <c r="C63" s="3">
-        <v>45152.827280093</v>
-      </c>
-      <c r="D63" s="2"/>
+        <v>45152.827280092999</v>
+      </c>
       <c r="E63" s="2" t="s">
         <v>546</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="G63" s="2"/>
       <c r="H63" s="2" t="s">
         <v>548</v>
       </c>
@@ -11103,7 +10762,7 @@
       <c r="AC63">
         <v>0</v>
       </c>
-      <c r="AD63" s="2" t="s">
+      <c r="AD63" s="5" t="s">
         <v>552</v>
       </c>
       <c r="AE63">
@@ -11118,11 +10777,8 @@
       <c r="AH63">
         <v>270</v>
       </c>
-      <c r="AI63" s="2"/>
-      <c r="AJ63"/>
-      <c r="AK63"/>
     </row>
-    <row r="64" spans="1:37">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>554</v>
       </c>
@@ -11130,16 +10786,14 @@
         <v>38</v>
       </c>
       <c r="C64" s="3">
-        <v>45152.812152778</v>
-      </c>
-      <c r="D64" s="2"/>
+        <v>45152.812152778002</v>
+      </c>
       <c r="E64" s="2" t="s">
         <v>555</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="G64" s="2"/>
       <c r="H64" s="2" t="s">
         <v>557</v>
       </c>
@@ -11206,7 +10860,6 @@
       <c r="AC64">
         <v>0</v>
       </c>
-      <c r="AD64" s="2"/>
       <c r="AE64">
         <v>1</v>
       </c>
@@ -11219,11 +10872,8 @@
       <c r="AH64">
         <v>549</v>
       </c>
-      <c r="AI64" s="2"/>
-      <c r="AJ64"/>
-      <c r="AK64"/>
     </row>
-    <row r="65" spans="1:37">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>562</v>
       </c>
@@ -11231,16 +10881,14 @@
         <v>38</v>
       </c>
       <c r="C65" s="3">
-        <v>45152.790532407</v>
-      </c>
-      <c r="D65" s="2"/>
+        <v>45152.790532407002</v>
+      </c>
       <c r="E65" s="2" t="s">
         <v>563</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="G65" s="2"/>
       <c r="H65" s="2" t="s">
         <v>565</v>
       </c>
@@ -11307,7 +10955,6 @@
       <c r="AC65">
         <v>0</v>
       </c>
-      <c r="AD65" s="2"/>
       <c r="AE65">
         <v>1</v>
       </c>
@@ -11320,11 +10967,8 @@
       <c r="AH65">
         <v>649</v>
       </c>
-      <c r="AI65" s="2"/>
-      <c r="AJ65"/>
-      <c r="AK65"/>
     </row>
-    <row r="66" spans="1:37">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>570</v>
       </c>
@@ -11332,16 +10976,14 @@
         <v>38</v>
       </c>
       <c r="C66" s="3">
-        <v>45152.766481481</v>
-      </c>
-      <c r="D66" s="2"/>
+        <v>45152.766481480998</v>
+      </c>
       <c r="E66" s="2" t="s">
         <v>571</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="G66" s="2"/>
       <c r="H66" s="2" t="s">
         <v>573</v>
       </c>
@@ -11408,7 +11050,7 @@
       <c r="AC66">
         <v>0</v>
       </c>
-      <c r="AD66" s="2" t="s">
+      <c r="AD66" s="5" t="s">
         <v>579</v>
       </c>
       <c r="AE66">
@@ -11423,11 +11065,8 @@
       <c r="AH66">
         <v>89</v>
       </c>
-      <c r="AI66" s="2"/>
-      <c r="AJ66"/>
-      <c r="AK66"/>
     </row>
-    <row r="67" spans="1:37">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>570</v>
       </c>
@@ -11435,16 +11074,14 @@
         <v>38</v>
       </c>
       <c r="C67" s="3">
-        <v>45152.766481481</v>
-      </c>
-      <c r="D67" s="2"/>
+        <v>45152.766481480998</v>
+      </c>
       <c r="E67" s="2" t="s">
         <v>571</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="G67" s="2"/>
       <c r="H67" s="2" t="s">
         <v>573</v>
       </c>
@@ -11511,7 +11148,6 @@
       <c r="AC67">
         <v>0</v>
       </c>
-      <c r="AD67" s="2"/>
       <c r="AE67">
         <v>2</v>
       </c>
@@ -11524,11 +11160,8 @@
       <c r="AH67">
         <v>649</v>
       </c>
-      <c r="AI67" s="2"/>
-      <c r="AJ67"/>
-      <c r="AK67"/>
     </row>
-    <row r="68" spans="1:37">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>581</v>
       </c>
@@ -11536,16 +11169,14 @@
         <v>38</v>
       </c>
       <c r="C68" s="3">
-        <v>45152.737060185</v>
-      </c>
-      <c r="D68" s="2"/>
+        <v>45152.737060184998</v>
+      </c>
       <c r="E68" s="2" t="s">
         <v>582</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="G68" s="2"/>
       <c r="H68" s="2" t="s">
         <v>583</v>
       </c>
@@ -11612,7 +11243,6 @@
       <c r="AC68">
         <v>0</v>
       </c>
-      <c r="AD68" s="2"/>
       <c r="AE68">
         <v>1</v>
       </c>
@@ -11625,11 +11255,8 @@
       <c r="AH68">
         <v>820</v>
       </c>
-      <c r="AI68" s="2"/>
-      <c r="AJ68"/>
-      <c r="AK68"/>
     </row>
-    <row r="69" spans="1:37">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>588</v>
       </c>
@@ -11637,16 +11264,14 @@
         <v>38</v>
       </c>
       <c r="C69" s="3">
-        <v>45152.724907407</v>
-      </c>
-      <c r="D69" s="2"/>
+        <v>45152.724907406999</v>
+      </c>
       <c r="E69" s="2" t="s">
         <v>589</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G69" s="2"/>
       <c r="H69" s="2" t="s">
         <v>590</v>
       </c>
@@ -11713,7 +11338,6 @@
       <c r="AC69">
         <v>0</v>
       </c>
-      <c r="AD69" s="2"/>
       <c r="AE69">
         <v>1</v>
       </c>
@@ -11726,11 +11350,8 @@
       <c r="AH69">
         <v>799</v>
       </c>
-      <c r="AI69" s="2"/>
-      <c r="AJ69"/>
-      <c r="AK69"/>
     </row>
-    <row r="70" spans="1:37">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>596</v>
       </c>
@@ -11738,16 +11359,14 @@
         <v>38</v>
       </c>
       <c r="C70" s="3">
-        <v>45152.717604167</v>
-      </c>
-      <c r="D70" s="2"/>
+        <v>45152.717604167003</v>
+      </c>
       <c r="E70" s="2" t="s">
         <v>597</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="G70" s="2"/>
       <c r="H70" s="2" t="s">
         <v>598</v>
       </c>
@@ -11814,7 +11433,6 @@
       <c r="AC70">
         <v>0</v>
       </c>
-      <c r="AD70" s="2"/>
       <c r="AE70">
         <v>1</v>
       </c>
@@ -11827,11 +11445,8 @@
       <c r="AH70">
         <v>820</v>
       </c>
-      <c r="AI70" s="2"/>
-      <c r="AJ70"/>
-      <c r="AK70"/>
     </row>
-    <row r="71" spans="1:37">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>603</v>
       </c>
@@ -11841,14 +11456,12 @@
       <c r="C71" s="3">
         <v>45152.712164352</v>
       </c>
-      <c r="D71" s="2"/>
       <c r="E71" s="2" t="s">
         <v>604</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="G71" s="2"/>
       <c r="H71" s="2" t="s">
         <v>606</v>
       </c>
@@ -11915,7 +11528,6 @@
       <c r="AC71">
         <v>0</v>
       </c>
-      <c r="AD71" s="2"/>
       <c r="AE71">
         <v>1</v>
       </c>
@@ -11928,11 +11540,8 @@
       <c r="AH71">
         <v>820</v>
       </c>
-      <c r="AI71" s="2"/>
-      <c r="AJ71"/>
-      <c r="AK71"/>
     </row>
-    <row r="72" spans="1:37">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>611</v>
       </c>
@@ -11942,14 +11551,12 @@
       <c r="C72" s="3">
         <v>45152.685162037</v>
       </c>
-      <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
         <v>612</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="G72" s="2"/>
       <c r="H72" s="2" t="s">
         <v>614</v>
       </c>
@@ -12016,7 +11623,7 @@
       <c r="AC72">
         <v>0</v>
       </c>
-      <c r="AD72" s="2" t="s">
+      <c r="AD72" s="5" t="s">
         <v>619</v>
       </c>
       <c r="AE72">
@@ -12031,11 +11638,8 @@
       <c r="AH72">
         <v>1249</v>
       </c>
-      <c r="AI72" s="2"/>
-      <c r="AJ72"/>
-      <c r="AK72"/>
     </row>
-    <row r="73" spans="1:37">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>621</v>
       </c>
@@ -12043,16 +11647,14 @@
         <v>38</v>
       </c>
       <c r="C73" s="3">
-        <v>45152.672627315</v>
-      </c>
-      <c r="D73" s="2"/>
+        <v>45152.672627314998</v>
+      </c>
       <c r="E73" s="2" t="s">
         <v>622</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="G73" s="2"/>
       <c r="H73" s="2" t="s">
         <v>624</v>
       </c>
@@ -12119,7 +11721,7 @@
       <c r="AC73">
         <v>0</v>
       </c>
-      <c r="AD73" s="2" t="s">
+      <c r="AD73" s="5" t="s">
         <v>629</v>
       </c>
       <c r="AE73">
@@ -12134,11 +11736,8 @@
       <c r="AH73">
         <v>170</v>
       </c>
-      <c r="AI73" s="2"/>
-      <c r="AJ73"/>
-      <c r="AK73"/>
     </row>
-    <row r="74" spans="1:37">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>631</v>
       </c>
@@ -12148,14 +11747,12 @@
       <c r="C74" s="3">
         <v>45152.651180556</v>
       </c>
-      <c r="D74" s="2"/>
       <c r="E74" s="2" t="s">
         <v>632</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="G74" s="2"/>
       <c r="H74" s="2" t="s">
         <v>634</v>
       </c>
@@ -12222,7 +11819,7 @@
       <c r="AC74">
         <v>0</v>
       </c>
-      <c r="AD74" s="2" t="s">
+      <c r="AD74" s="5" t="s">
         <v>639</v>
       </c>
       <c r="AE74">
@@ -12237,11 +11834,8 @@
       <c r="AH74">
         <v>622</v>
       </c>
-      <c r="AI74" s="2"/>
-      <c r="AJ74"/>
-      <c r="AK74"/>
     </row>
-    <row r="75" spans="1:37">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>641</v>
       </c>
@@ -12249,16 +11843,14 @@
         <v>38</v>
       </c>
       <c r="C75" s="3">
-        <v>45152.623599537</v>
-      </c>
-      <c r="D75" s="2"/>
+        <v>45152.623599537001</v>
+      </c>
       <c r="E75" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="G75" s="2"/>
       <c r="H75" s="2" t="s">
         <v>643</v>
       </c>
@@ -12325,7 +11917,7 @@
       <c r="AC75">
         <v>0</v>
       </c>
-      <c r="AD75" s="2" t="s">
+      <c r="AD75" s="5" t="s">
         <v>648</v>
       </c>
       <c r="AE75">
@@ -12340,11 +11932,8 @@
       <c r="AH75">
         <v>799</v>
       </c>
-      <c r="AI75" s="2"/>
-      <c r="AJ75"/>
-      <c r="AK75"/>
     </row>
-    <row r="76" spans="1:37">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>650</v>
       </c>
@@ -12352,16 +11941,14 @@
         <v>38</v>
       </c>
       <c r="C76" s="3">
-        <v>45152.601909722</v>
-      </c>
-      <c r="D76" s="2"/>
+        <v>45152.601909721998</v>
+      </c>
       <c r="E76" s="2" t="s">
         <v>651</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="G76" s="2"/>
       <c r="H76" s="2" t="s">
         <v>652</v>
       </c>
@@ -12428,7 +12015,6 @@
       <c r="AC76">
         <v>0</v>
       </c>
-      <c r="AD76" s="2"/>
       <c r="AE76">
         <v>1</v>
       </c>
@@ -12441,11 +12027,8 @@
       <c r="AH76">
         <v>820</v>
       </c>
-      <c r="AI76" s="2"/>
-      <c r="AJ76"/>
-      <c r="AK76"/>
     </row>
-    <row r="77" spans="1:37">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>657</v>
       </c>
@@ -12453,16 +12036,14 @@
         <v>38</v>
       </c>
       <c r="C77" s="3">
-        <v>45152.562025463</v>
-      </c>
-      <c r="D77" s="2"/>
+        <v>45152.562025462998</v>
+      </c>
       <c r="E77" s="2" t="s">
         <v>658</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G77" s="2"/>
       <c r="H77" s="2" t="s">
         <v>659</v>
       </c>
@@ -12529,7 +12110,7 @@
       <c r="AC77">
         <v>0</v>
       </c>
-      <c r="AD77" s="2" t="s">
+      <c r="AD77" s="5" t="s">
         <v>662</v>
       </c>
       <c r="AE77">
@@ -12544,11 +12125,8 @@
       <c r="AH77">
         <v>130</v>
       </c>
-      <c r="AI77" s="2"/>
-      <c r="AJ77"/>
-      <c r="AK77"/>
     </row>
-    <row r="78" spans="1:37">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>664</v>
       </c>
@@ -12556,16 +12134,14 @@
         <v>38</v>
       </c>
       <c r="C78" s="3">
-        <v>45152.524594907</v>
-      </c>
-      <c r="D78" s="2"/>
+        <v>45152.524594907001</v>
+      </c>
       <c r="E78" s="2" t="s">
         <v>665</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="G78" s="2"/>
       <c r="H78" s="2" t="s">
         <v>666</v>
       </c>
@@ -12632,7 +12208,6 @@
       <c r="AC78">
         <v>0</v>
       </c>
-      <c r="AD78" s="2"/>
       <c r="AE78">
         <v>1</v>
       </c>
@@ -12645,11 +12220,8 @@
       <c r="AH78">
         <v>649</v>
       </c>
-      <c r="AI78" s="2"/>
-      <c r="AJ78"/>
-      <c r="AK78"/>
     </row>
-    <row r="79" spans="1:37">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>670</v>
       </c>
@@ -12657,16 +12229,14 @@
         <v>38</v>
       </c>
       <c r="C79" s="3">
-        <v>45152.518229167</v>
-      </c>
-      <c r="D79" s="2"/>
+        <v>45152.518229166999</v>
+      </c>
       <c r="E79" s="2" t="s">
         <v>671</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="G79" s="2"/>
       <c r="H79" s="2" t="s">
         <v>673</v>
       </c>
@@ -12733,7 +12303,6 @@
       <c r="AC79">
         <v>0</v>
       </c>
-      <c r="AD79" s="2"/>
       <c r="AE79">
         <v>1</v>
       </c>
@@ -12746,11 +12315,8 @@
       <c r="AH79">
         <v>145</v>
       </c>
-      <c r="AI79" s="2"/>
-      <c r="AJ79"/>
-      <c r="AK79"/>
     </row>
-    <row r="80" spans="1:37">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>679</v>
       </c>
@@ -12758,16 +12324,14 @@
         <v>38</v>
       </c>
       <c r="C80" s="3">
-        <v>45152.514502315</v>
-      </c>
-      <c r="D80" s="2"/>
+        <v>45152.514502315003</v>
+      </c>
       <c r="E80" s="2" t="s">
         <v>680</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G80" s="2"/>
       <c r="H80" s="2" t="s">
         <v>681</v>
       </c>
@@ -12834,7 +12398,6 @@
       <c r="AC80">
         <v>0</v>
       </c>
-      <c r="AD80" s="2"/>
       <c r="AE80">
         <v>1</v>
       </c>
@@ -12847,11 +12410,8 @@
       <c r="AH80">
         <v>820</v>
       </c>
-      <c r="AI80" s="2"/>
-      <c r="AJ80"/>
-      <c r="AK80"/>
     </row>
-    <row r="81" spans="1:37">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>686</v>
       </c>
@@ -12859,16 +12419,14 @@
         <v>38</v>
       </c>
       <c r="C81" s="3">
-        <v>45152.473101852</v>
-      </c>
-      <c r="D81" s="2"/>
+        <v>45152.473101852003</v>
+      </c>
       <c r="E81" s="2" t="s">
         <v>687</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="G81" s="2"/>
       <c r="H81" s="2" t="s">
         <v>689</v>
       </c>
@@ -12935,7 +12493,7 @@
       <c r="AC81">
         <v>0</v>
       </c>
-      <c r="AD81" s="2" t="s">
+      <c r="AD81" s="5" t="s">
         <v>695</v>
       </c>
       <c r="AE81">
@@ -12950,11 +12508,8 @@
       <c r="AH81">
         <v>3472</v>
       </c>
-      <c r="AI81" s="2"/>
-      <c r="AJ81"/>
-      <c r="AK81"/>
     </row>
-    <row r="82" spans="1:37">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>697</v>
       </c>
@@ -12962,16 +12517,14 @@
         <v>38</v>
       </c>
       <c r="C82" s="3">
-        <v>45152.386678241</v>
-      </c>
-      <c r="D82" s="2"/>
+        <v>45152.386678240997</v>
+      </c>
       <c r="E82" s="2" t="s">
         <v>698</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="G82" s="2"/>
       <c r="H82" s="2" t="s">
         <v>700</v>
       </c>
@@ -13038,7 +12591,6 @@
       <c r="AC82">
         <v>0</v>
       </c>
-      <c r="AD82" s="2"/>
       <c r="AE82">
         <v>1</v>
       </c>
@@ -13051,11 +12603,8 @@
       <c r="AH82">
         <v>820</v>
       </c>
-      <c r="AI82" s="2"/>
-      <c r="AJ82"/>
-      <c r="AK82"/>
     </row>
-    <row r="83" spans="1:37">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>705</v>
       </c>
@@ -13063,16 +12612,14 @@
         <v>38</v>
       </c>
       <c r="C83" s="3">
-        <v>45152.23337963</v>
-      </c>
-      <c r="D83" s="2"/>
+        <v>45152.233379630001</v>
+      </c>
       <c r="E83" s="2" t="s">
         <v>706</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="G83" s="2"/>
       <c r="H83" s="2" t="s">
         <v>708</v>
       </c>
@@ -13139,7 +12686,6 @@
       <c r="AC83">
         <v>0</v>
       </c>
-      <c r="AD83" s="2"/>
       <c r="AE83">
         <v>1</v>
       </c>
@@ -13152,11 +12698,8 @@
       <c r="AH83">
         <v>820</v>
       </c>
-      <c r="AI83" s="2"/>
-      <c r="AJ83"/>
-      <c r="AK83"/>
     </row>
-    <row r="84" spans="1:37">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>713</v>
       </c>
@@ -13164,16 +12707,14 @@
         <v>38</v>
       </c>
       <c r="C84" s="3">
-        <v>45152.083414352</v>
-      </c>
-      <c r="D84" s="2"/>
+        <v>45152.083414351997</v>
+      </c>
       <c r="E84" s="2" t="s">
         <v>714</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="G84" s="2"/>
       <c r="H84" s="2" t="s">
         <v>716</v>
       </c>
@@ -13240,7 +12781,7 @@
       <c r="AC84">
         <v>0</v>
       </c>
-      <c r="AD84" s="2" t="s">
+      <c r="AD84" s="5" t="s">
         <v>722</v>
       </c>
       <c r="AE84">
@@ -13255,11 +12796,8 @@
       <c r="AH84">
         <v>831</v>
       </c>
-      <c r="AI84" s="2"/>
-      <c r="AJ84"/>
-      <c r="AK84"/>
     </row>
-    <row r="85" spans="1:37">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>724</v>
       </c>
@@ -13267,16 +12805,14 @@
         <v>38</v>
       </c>
       <c r="C85" s="3">
-        <v>45151.946724537</v>
-      </c>
-      <c r="D85" s="2"/>
+        <v>45151.946724537003</v>
+      </c>
       <c r="E85" s="2" t="s">
         <v>725</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="G85" s="2"/>
       <c r="H85" s="2" t="s">
         <v>727</v>
       </c>
@@ -13343,7 +12879,6 @@
       <c r="AC85">
         <v>0</v>
       </c>
-      <c r="AD85" s="2"/>
       <c r="AE85">
         <v>1</v>
       </c>
@@ -13356,11 +12891,8 @@
       <c r="AH85">
         <v>649</v>
       </c>
-      <c r="AI85" s="2"/>
-      <c r="AJ85"/>
-      <c r="AK85"/>
     </row>
-    <row r="86" spans="1:37">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>732</v>
       </c>
@@ -13368,16 +12900,14 @@
         <v>38</v>
       </c>
       <c r="C86" s="3">
-        <v>45151.922638889</v>
-      </c>
-      <c r="D86" s="2"/>
+        <v>45151.922638889002</v>
+      </c>
       <c r="E86" s="2" t="s">
         <v>733</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G86" s="2"/>
       <c r="H86" s="2" t="s">
         <v>734</v>
       </c>
@@ -13444,7 +12974,7 @@
       <c r="AC86">
         <v>0</v>
       </c>
-      <c r="AD86" s="2" t="s">
+      <c r="AD86" s="5" t="s">
         <v>248</v>
       </c>
       <c r="AE86">
@@ -13459,11 +12989,8 @@
       <c r="AH86">
         <v>445</v>
       </c>
-      <c r="AI86" s="2"/>
-      <c r="AJ86"/>
-      <c r="AK86"/>
     </row>
-    <row r="87" spans="1:37">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>738</v>
       </c>
@@ -13473,14 +13000,12 @@
       <c r="C87" s="3">
         <v>45151.855324074</v>
       </c>
-      <c r="D87" s="2"/>
       <c r="E87" s="2" t="s">
         <v>739</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="G87" s="2"/>
       <c r="H87" s="2" t="s">
         <v>741</v>
       </c>
@@ -13547,7 +13072,7 @@
       <c r="AC87">
         <v>0</v>
       </c>
-      <c r="AD87" s="2" t="s">
+      <c r="AD87" s="5" t="s">
         <v>746</v>
       </c>
       <c r="AE87">
@@ -13562,11 +13087,8 @@
       <c r="AH87">
         <v>365</v>
       </c>
-      <c r="AI87" s="2"/>
-      <c r="AJ87"/>
-      <c r="AK87"/>
     </row>
-    <row r="88" spans="1:37">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>748</v>
       </c>
@@ -13574,16 +13096,14 @@
         <v>38</v>
       </c>
       <c r="C88" s="3">
-        <v>45151.828969907</v>
-      </c>
-      <c r="D88" s="2"/>
+        <v>45151.828969907001</v>
+      </c>
       <c r="E88" s="2" t="s">
         <v>749</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G88" s="2"/>
       <c r="H88" s="2" t="s">
         <v>750</v>
       </c>
@@ -13650,7 +13170,7 @@
       <c r="AC88">
         <v>0</v>
       </c>
-      <c r="AD88" s="2" t="s">
+      <c r="AD88" s="5" t="s">
         <v>756</v>
       </c>
       <c r="AE88">
@@ -13665,11 +13185,8 @@
       <c r="AH88">
         <v>136</v>
       </c>
-      <c r="AI88" s="2"/>
-      <c r="AJ88"/>
-      <c r="AK88"/>
     </row>
-    <row r="89" spans="1:37">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>758</v>
       </c>
@@ -13677,16 +13194,14 @@
         <v>38</v>
       </c>
       <c r="C89" s="3">
-        <v>45151.818252315</v>
-      </c>
-      <c r="D89" s="2"/>
+        <v>45151.818252315003</v>
+      </c>
       <c r="E89" s="2" t="s">
         <v>759</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="G89" s="2"/>
       <c r="H89" s="2" t="s">
         <v>761</v>
       </c>
@@ -13753,7 +13268,7 @@
       <c r="AC89">
         <v>0</v>
       </c>
-      <c r="AD89" s="2" t="s">
+      <c r="AD89" s="5" t="s">
         <v>767</v>
       </c>
       <c r="AE89">
@@ -13768,11 +13283,8 @@
       <c r="AH89">
         <v>1350</v>
       </c>
-      <c r="AI89" s="2"/>
-      <c r="AJ89"/>
-      <c r="AK89"/>
     </row>
-    <row r="90" spans="1:37">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>769</v>
       </c>
@@ -13780,16 +13292,14 @@
         <v>38</v>
       </c>
       <c r="C90" s="3">
-        <v>45151.812326389</v>
-      </c>
-      <c r="D90" s="2"/>
+        <v>45151.812326389001</v>
+      </c>
       <c r="E90" s="2" t="s">
         <v>770</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="G90" s="2"/>
       <c r="H90" s="2" t="s">
         <v>772</v>
       </c>
@@ -13856,7 +13366,7 @@
       <c r="AC90">
         <v>0</v>
       </c>
-      <c r="AD90" s="2" t="s">
+      <c r="AD90" s="5" t="s">
         <v>767</v>
       </c>
       <c r="AE90">
@@ -13871,11 +13381,8 @@
       <c r="AH90">
         <v>1350</v>
       </c>
-      <c r="AI90" s="2"/>
-      <c r="AJ90"/>
-      <c r="AK90"/>
     </row>
-    <row r="91" spans="1:37">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>778</v>
       </c>
@@ -13883,16 +13390,14 @@
         <v>38</v>
       </c>
       <c r="C91" s="3">
-        <v>45151.799398148</v>
-      </c>
-      <c r="D91" s="2"/>
+        <v>45151.799398148003</v>
+      </c>
       <c r="E91" s="2" t="s">
         <v>779</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="G91" s="2"/>
       <c r="H91" s="2" t="s">
         <v>781</v>
       </c>
@@ -13959,7 +13464,7 @@
       <c r="AC91">
         <v>0</v>
       </c>
-      <c r="AD91" s="2" t="s">
+      <c r="AD91" s="5" t="s">
         <v>786</v>
       </c>
       <c r="AE91">
@@ -13974,11 +13479,8 @@
       <c r="AH91">
         <v>230</v>
       </c>
-      <c r="AI91" s="2"/>
-      <c r="AJ91"/>
-      <c r="AK91"/>
     </row>
-    <row r="92" spans="1:37">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>788</v>
       </c>
@@ -13988,14 +13490,12 @@
       <c r="C92" s="3">
         <v>45151.682534722</v>
       </c>
-      <c r="D92" s="2"/>
       <c r="E92" s="2" t="s">
         <v>789</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G92" s="2"/>
       <c r="H92" s="2" t="s">
         <v>790</v>
       </c>
@@ -14062,7 +13562,7 @@
       <c r="AC92">
         <v>0</v>
       </c>
-      <c r="AD92" s="2" t="s">
+      <c r="AD92" s="5" t="s">
         <v>795</v>
       </c>
       <c r="AE92">
@@ -14077,11 +13577,8 @@
       <c r="AH92">
         <v>223</v>
       </c>
-      <c r="AI92" s="2"/>
-      <c r="AJ92"/>
-      <c r="AK92"/>
     </row>
-    <row r="93" spans="1:37">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>797</v>
       </c>
@@ -14089,16 +13586,14 @@
         <v>38</v>
       </c>
       <c r="C93" s="3">
-        <v>45151.623206019</v>
-      </c>
-      <c r="D93" s="2"/>
+        <v>45151.623206019001</v>
+      </c>
       <c r="E93" s="2" t="s">
         <v>798</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="G93" s="2"/>
       <c r="H93" s="2" t="s">
         <v>799</v>
       </c>
@@ -14165,7 +13660,6 @@
       <c r="AC93">
         <v>0</v>
       </c>
-      <c r="AD93" s="2"/>
       <c r="AE93">
         <v>1</v>
       </c>
@@ -14178,11 +13672,8 @@
       <c r="AH93">
         <v>820</v>
       </c>
-      <c r="AI93" s="2"/>
-      <c r="AJ93"/>
-      <c r="AK93"/>
     </row>
-    <row r="94" spans="1:37">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>804</v>
       </c>
@@ -14190,16 +13681,14 @@
         <v>38</v>
       </c>
       <c r="C94" s="3">
-        <v>45151.596111111</v>
-      </c>
-      <c r="D94" s="2"/>
+        <v>45151.596111111001</v>
+      </c>
       <c r="E94" s="2" t="s">
         <v>805</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="G94" s="2"/>
       <c r="H94" s="2" t="s">
         <v>807</v>
       </c>
@@ -14266,7 +13755,7 @@
       <c r="AC94">
         <v>0</v>
       </c>
-      <c r="AD94" s="2" t="s">
+      <c r="AD94" s="5" t="s">
         <v>812</v>
       </c>
       <c r="AE94">
@@ -14281,11 +13770,8 @@
       <c r="AH94">
         <v>2197</v>
       </c>
-      <c r="AI94" s="2"/>
-      <c r="AJ94"/>
-      <c r="AK94"/>
     </row>
-    <row r="95" spans="1:37">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>814</v>
       </c>
@@ -14293,16 +13779,14 @@
         <v>38</v>
       </c>
       <c r="C95" s="3">
-        <v>45151.568333333</v>
-      </c>
-      <c r="D95" s="2"/>
+        <v>45151.568333333002</v>
+      </c>
       <c r="E95" s="2" t="s">
         <v>815</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G95" s="2"/>
       <c r="H95" s="2" t="s">
         <v>816</v>
       </c>
@@ -14369,7 +13853,6 @@
       <c r="AC95">
         <v>0</v>
       </c>
-      <c r="AD95" s="2"/>
       <c r="AE95">
         <v>1</v>
       </c>
@@ -14382,11 +13865,8 @@
       <c r="AH95">
         <v>820</v>
       </c>
-      <c r="AI95" s="2"/>
-      <c r="AJ95"/>
-      <c r="AK95"/>
     </row>
-    <row r="96" spans="1:37">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>820</v>
       </c>
@@ -14396,14 +13876,12 @@
       <c r="C96" s="3">
         <v>45151.543425926</v>
       </c>
-      <c r="D96" s="2"/>
       <c r="E96" s="2" t="s">
         <v>821</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="G96" s="2"/>
       <c r="H96" s="2" t="s">
         <v>823</v>
       </c>
@@ -14470,7 +13948,6 @@
       <c r="AC96">
         <v>0</v>
       </c>
-      <c r="AD96" s="2"/>
       <c r="AE96">
         <v>1</v>
       </c>
@@ -14483,11 +13960,8 @@
       <c r="AH96">
         <v>145</v>
       </c>
-      <c r="AI96" s="2"/>
-      <c r="AJ96"/>
-      <c r="AK96"/>
     </row>
-    <row r="97" spans="1:37">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>829</v>
       </c>
@@ -14495,16 +13969,14 @@
         <v>38</v>
       </c>
       <c r="C97" s="3">
-        <v>45151.526319444</v>
-      </c>
-      <c r="D97" s="2"/>
+        <v>45151.526319443998</v>
+      </c>
       <c r="E97" s="2" t="s">
         <v>830</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="G97" s="2"/>
       <c r="H97" s="2" t="s">
         <v>832</v>
       </c>
@@ -14571,7 +14043,6 @@
       <c r="AC97">
         <v>0</v>
       </c>
-      <c r="AD97" s="2"/>
       <c r="AE97">
         <v>1</v>
       </c>
@@ -14584,11 +14055,8 @@
       <c r="AH97">
         <v>820</v>
       </c>
-      <c r="AI97" s="2"/>
-      <c r="AJ97"/>
-      <c r="AK97"/>
     </row>
-    <row r="98" spans="1:37">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>837</v>
       </c>
@@ -14598,14 +14066,12 @@
       <c r="C98" s="3">
         <v>45151.504560185</v>
       </c>
-      <c r="D98" s="2"/>
       <c r="E98" s="2" t="s">
         <v>838</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="G98" s="2"/>
       <c r="H98" s="2" t="s">
         <v>840</v>
       </c>
@@ -14672,7 +14138,7 @@
       <c r="AC98">
         <v>0</v>
       </c>
-      <c r="AD98" s="2" t="s">
+      <c r="AD98" s="5" t="s">
         <v>846</v>
       </c>
       <c r="AE98">
@@ -14687,11 +14153,8 @@
       <c r="AH98">
         <v>730</v>
       </c>
-      <c r="AI98" s="2"/>
-      <c r="AJ98"/>
-      <c r="AK98"/>
     </row>
-    <row r="99" spans="1:37">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>848</v>
       </c>
@@ -14699,16 +14162,14 @@
         <v>38</v>
       </c>
       <c r="C99" s="3">
-        <v>45151.489039352</v>
-      </c>
-      <c r="D99" s="2"/>
+        <v>45151.489039352004</v>
+      </c>
       <c r="E99" s="2" t="s">
         <v>849</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="G99" s="2"/>
       <c r="H99" s="2" t="s">
         <v>851</v>
       </c>
@@ -14775,7 +14236,7 @@
       <c r="AC99">
         <v>0</v>
       </c>
-      <c r="AD99" s="2" t="s">
+      <c r="AD99" s="5" t="s">
         <v>856</v>
       </c>
       <c r="AE99">
@@ -14790,11 +14251,8 @@
       <c r="AH99">
         <v>972</v>
       </c>
-      <c r="AI99" s="2"/>
-      <c r="AJ99"/>
-      <c r="AK99"/>
     </row>
-    <row r="100" spans="1:37">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>848</v>
       </c>
@@ -14802,16 +14260,14 @@
         <v>38</v>
       </c>
       <c r="C100" s="3">
-        <v>45151.489039352</v>
-      </c>
-      <c r="D100" s="2"/>
+        <v>45151.489039352004</v>
+      </c>
       <c r="E100" s="2" t="s">
         <v>849</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="G100" s="2"/>
       <c r="H100" s="2" t="s">
         <v>851</v>
       </c>
@@ -14878,7 +14334,6 @@
       <c r="AC100">
         <v>0</v>
       </c>
-      <c r="AD100" s="2"/>
       <c r="AE100">
         <v>2</v>
       </c>
@@ -14891,11 +14346,8 @@
       <c r="AH100">
         <v>1444</v>
       </c>
-      <c r="AI100" s="2"/>
-      <c r="AJ100"/>
-      <c r="AK100"/>
     </row>
-    <row r="101" spans="1:37">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>859</v>
       </c>
@@ -14903,16 +14355,14 @@
         <v>38</v>
       </c>
       <c r="C101" s="3">
-        <v>45151.46587963</v>
-      </c>
-      <c r="D101" s="2"/>
+        <v>45151.465879629999</v>
+      </c>
       <c r="E101" s="2" t="s">
         <v>860</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="G101" s="2"/>
       <c r="H101" s="2" t="s">
         <v>861</v>
       </c>
@@ -14979,7 +14429,6 @@
       <c r="AC101">
         <v>0</v>
       </c>
-      <c r="AD101" s="2"/>
       <c r="AE101">
         <v>1</v>
       </c>
@@ -14992,11 +14441,8 @@
       <c r="AH101">
         <v>820</v>
       </c>
-      <c r="AI101" s="2"/>
-      <c r="AJ101"/>
-      <c r="AK101"/>
     </row>
-    <row r="102" spans="1:37">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>864</v>
       </c>
@@ -15004,16 +14450,14 @@
         <v>38</v>
       </c>
       <c r="C102" s="3">
-        <v>45151.444675926</v>
-      </c>
-      <c r="D102" s="2"/>
+        <v>45151.444675926003</v>
+      </c>
       <c r="E102" s="2" t="s">
         <v>865</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="G102" s="2"/>
       <c r="H102" s="2" t="s">
         <v>867</v>
       </c>
@@ -15080,7 +14524,6 @@
       <c r="AC102">
         <v>0</v>
       </c>
-      <c r="AD102" s="2"/>
       <c r="AE102">
         <v>1</v>
       </c>
@@ -15093,11 +14536,8 @@
       <c r="AH102">
         <v>649</v>
       </c>
-      <c r="AI102" s="2"/>
-      <c r="AJ102"/>
-      <c r="AK102"/>
     </row>
-    <row r="103" spans="1:37">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>872</v>
       </c>
@@ -15105,16 +14545,14 @@
         <v>38</v>
       </c>
       <c r="C103" s="3">
-        <v>45151.441851852</v>
-      </c>
-      <c r="D103" s="2"/>
+        <v>45151.441851852003</v>
+      </c>
       <c r="E103" s="2" t="s">
         <v>873</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G103" s="2"/>
       <c r="H103" s="2" t="s">
         <v>874</v>
       </c>
@@ -15181,7 +14619,7 @@
       <c r="AC103">
         <v>0</v>
       </c>
-      <c r="AD103" s="2" t="s">
+      <c r="AD103" s="5" t="s">
         <v>878</v>
       </c>
       <c r="AE103">
@@ -15196,11 +14634,8 @@
       <c r="AH103">
         <v>483</v>
       </c>
-      <c r="AI103" s="2"/>
-      <c r="AJ103"/>
-      <c r="AK103"/>
     </row>
-    <row r="104" spans="1:37">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>880</v>
       </c>
@@ -15208,16 +14643,14 @@
         <v>38</v>
       </c>
       <c r="C104" s="3">
-        <v>45151.431064815</v>
-      </c>
-      <c r="D104" s="2"/>
+        <v>45151.431064814999</v>
+      </c>
       <c r="E104" s="2" t="s">
         <v>881</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>882</v>
       </c>
-      <c r="G104" s="2"/>
       <c r="H104" s="2" t="s">
         <v>883</v>
       </c>
@@ -15284,7 +14717,6 @@
       <c r="AC104">
         <v>0</v>
       </c>
-      <c r="AD104" s="2"/>
       <c r="AE104">
         <v>1</v>
       </c>
@@ -15297,11 +14729,8 @@
       <c r="AH104">
         <v>145</v>
       </c>
-      <c r="AI104" s="2"/>
-      <c r="AJ104"/>
-      <c r="AK104"/>
     </row>
-    <row r="105" spans="1:37">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>888</v>
       </c>
@@ -15311,14 +14740,12 @@
       <c r="C105" s="3">
         <v>45151.393981481</v>
       </c>
-      <c r="D105" s="2"/>
       <c r="E105" s="2" t="s">
         <v>889</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>890</v>
       </c>
-      <c r="G105" s="2"/>
       <c r="H105" s="2" t="s">
         <v>891</v>
       </c>
@@ -15385,7 +14812,7 @@
       <c r="AC105">
         <v>0</v>
       </c>
-      <c r="AD105" s="2" t="s">
+      <c r="AD105" s="5" t="s">
         <v>896</v>
       </c>
       <c r="AE105">
@@ -15400,11 +14827,8 @@
       <c r="AH105">
         <v>414</v>
       </c>
-      <c r="AI105" s="2"/>
-      <c r="AJ105"/>
-      <c r="AK105"/>
     </row>
-    <row r="106" spans="1:37">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>898</v>
       </c>
@@ -15412,16 +14836,14 @@
         <v>38</v>
       </c>
       <c r="C106" s="3">
-        <v>45150.88369213</v>
-      </c>
-      <c r="D106" s="2"/>
+        <v>45150.883692130003</v>
+      </c>
       <c r="E106" s="2" t="s">
         <v>899</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>900</v>
       </c>
-      <c r="G106" s="2"/>
       <c r="H106" s="2" t="s">
         <v>901</v>
       </c>
@@ -15488,7 +14910,7 @@
       <c r="AC106">
         <v>0</v>
       </c>
-      <c r="AD106" s="2" t="s">
+      <c r="AD106" s="5" t="s">
         <v>906</v>
       </c>
       <c r="AE106">
@@ -15503,11 +14925,8 @@
       <c r="AH106">
         <v>240</v>
       </c>
-      <c r="AI106" s="2"/>
-      <c r="AJ106"/>
-      <c r="AK106"/>
     </row>
-    <row r="107" spans="1:37">
+    <row r="107" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>908</v>
       </c>
@@ -15515,16 +14934,14 @@
         <v>38</v>
       </c>
       <c r="C107" s="3">
-        <v>45150.821261574</v>
-      </c>
-      <c r="D107" s="2"/>
+        <v>45150.821261573998</v>
+      </c>
       <c r="E107" s="2" t="s">
         <v>909</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>910</v>
       </c>
-      <c r="G107" s="2"/>
       <c r="H107" s="2" t="s">
         <v>911</v>
       </c>
@@ -15591,7 +15008,7 @@
       <c r="AC107">
         <v>0</v>
       </c>
-      <c r="AD107" s="2" t="s">
+      <c r="AD107" s="5" t="s">
         <v>915</v>
       </c>
       <c r="AE107">
@@ -15606,11 +15023,8 @@
       <c r="AH107">
         <v>971</v>
       </c>
-      <c r="AI107" s="2"/>
-      <c r="AJ107"/>
-      <c r="AK107"/>
     </row>
-    <row r="108" spans="1:37">
+    <row r="108" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>917</v>
       </c>
@@ -15618,16 +15032,14 @@
         <v>38</v>
       </c>
       <c r="C108" s="3">
-        <v>45150.773472222</v>
-      </c>
-      <c r="D108" s="2"/>
+        <v>45150.773472221998</v>
+      </c>
       <c r="E108" s="2" t="s">
         <v>918</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>919</v>
       </c>
-      <c r="G108" s="2"/>
       <c r="H108" s="2" t="s">
         <v>920</v>
       </c>
@@ -15694,7 +15106,7 @@
       <c r="AC108">
         <v>0</v>
       </c>
-      <c r="AD108" s="2" t="s">
+      <c r="AD108" s="5" t="s">
         <v>619</v>
       </c>
       <c r="AE108">
@@ -15709,11 +15121,8 @@
       <c r="AH108">
         <v>1249</v>
       </c>
-      <c r="AI108" s="2"/>
-      <c r="AJ108"/>
-      <c r="AK108"/>
     </row>
-    <row r="109" spans="1:37">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>925</v>
       </c>
@@ -15721,16 +15130,14 @@
         <v>38</v>
       </c>
       <c r="C109" s="3">
-        <v>45150.711400463</v>
-      </c>
-      <c r="D109" s="2"/>
+        <v>45150.711400462998</v>
+      </c>
       <c r="E109" s="2" t="s">
         <v>926</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>926</v>
       </c>
-      <c r="G109" s="2"/>
       <c r="H109" s="2" t="s">
         <v>927</v>
       </c>
@@ -15797,7 +15204,6 @@
       <c r="AC109">
         <v>0</v>
       </c>
-      <c r="AD109" s="2"/>
       <c r="AE109">
         <v>1</v>
       </c>
@@ -15810,11 +15216,8 @@
       <c r="AH109">
         <v>820</v>
       </c>
-      <c r="AI109" s="2"/>
-      <c r="AJ109"/>
-      <c r="AK109"/>
     </row>
-    <row r="110" spans="1:37">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>932</v>
       </c>
@@ -15822,16 +15225,14 @@
         <v>38</v>
       </c>
       <c r="C110" s="3">
-        <v>45150.611678241</v>
-      </c>
-      <c r="D110" s="2"/>
+        <v>45150.611678241003</v>
+      </c>
       <c r="E110" s="2" t="s">
         <v>933</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>934</v>
       </c>
-      <c r="G110" s="2"/>
       <c r="H110" s="2" t="s">
         <v>935</v>
       </c>
@@ -15898,7 +15299,7 @@
       <c r="AC110">
         <v>0</v>
       </c>
-      <c r="AD110" s="2" t="s">
+      <c r="AD110" s="5" t="s">
         <v>941</v>
       </c>
       <c r="AE110">
@@ -15913,11 +15314,8 @@
       <c r="AH110">
         <v>799</v>
       </c>
-      <c r="AI110" s="2"/>
-      <c r="AJ110"/>
-      <c r="AK110"/>
     </row>
-    <row r="111" spans="1:37">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>943</v>
       </c>
@@ -15925,16 +15323,14 @@
         <v>38</v>
       </c>
       <c r="C111" s="3">
-        <v>45150.594710648</v>
-      </c>
-      <c r="D111" s="2"/>
+        <v>45150.594710648002</v>
+      </c>
       <c r="E111" s="2" t="s">
         <v>944</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="G111" s="2"/>
       <c r="H111" s="2" t="s">
         <v>946</v>
       </c>
@@ -16001,7 +15397,7 @@
       <c r="AC111">
         <v>0</v>
       </c>
-      <c r="AD111" s="2" t="s">
+      <c r="AD111" s="5" t="s">
         <v>951</v>
       </c>
       <c r="AE111">
@@ -16016,11 +15412,8 @@
       <c r="AH111">
         <v>553</v>
       </c>
-      <c r="AI111" s="2"/>
-      <c r="AJ111"/>
-      <c r="AK111"/>
     </row>
-    <row r="112" spans="1:37">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>953</v>
       </c>
@@ -16028,16 +15421,14 @@
         <v>38</v>
       </c>
       <c r="C112" s="3">
-        <v>45150.549537037</v>
-      </c>
-      <c r="D112" s="2"/>
+        <v>45150.549537036997</v>
+      </c>
       <c r="E112" s="2" t="s">
         <v>954</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>955</v>
       </c>
-      <c r="G112" s="2"/>
       <c r="H112" s="2" t="s">
         <v>956</v>
       </c>
@@ -16104,7 +15495,6 @@
       <c r="AC112">
         <v>0</v>
       </c>
-      <c r="AD112" s="2"/>
       <c r="AE112">
         <v>1</v>
       </c>
@@ -16117,11 +15507,8 @@
       <c r="AH112">
         <v>145</v>
       </c>
-      <c r="AI112" s="2"/>
-      <c r="AJ112"/>
-      <c r="AK112"/>
     </row>
-    <row r="113" spans="1:37">
+    <row r="113" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>960</v>
       </c>
@@ -16129,16 +15516,14 @@
         <v>38</v>
       </c>
       <c r="C113" s="3">
-        <v>45150.396342593</v>
-      </c>
-      <c r="D113" s="2"/>
+        <v>45150.396342592998</v>
+      </c>
       <c r="E113" s="2" t="s">
         <v>961</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="G113" s="2"/>
       <c r="H113" s="2" t="s">
         <v>963</v>
       </c>
@@ -16205,7 +15590,6 @@
       <c r="AC113">
         <v>0</v>
       </c>
-      <c r="AD113" s="2"/>
       <c r="AE113">
         <v>1</v>
       </c>
@@ -16218,11 +15602,8 @@
       <c r="AH113">
         <v>595</v>
       </c>
-      <c r="AI113" s="2"/>
-      <c r="AJ113"/>
-      <c r="AK113"/>
     </row>
-    <row r="114" spans="1:37">
+    <row r="114" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>968</v>
       </c>
@@ -16232,14 +15613,12 @@
       <c r="C114" s="3">
         <v>45150.381608796</v>
       </c>
-      <c r="D114" s="2"/>
       <c r="E114" s="2" t="s">
         <v>969</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>970</v>
       </c>
-      <c r="G114" s="2"/>
       <c r="H114" s="2" t="s">
         <v>971</v>
       </c>
@@ -16306,7 +15685,7 @@
       <c r="AC114">
         <v>0</v>
       </c>
-      <c r="AD114" s="2" t="s">
+      <c r="AD114" s="5" t="s">
         <v>976</v>
       </c>
       <c r="AE114">
@@ -16321,11 +15700,8 @@
       <c r="AH114">
         <v>160</v>
       </c>
-      <c r="AI114" s="2"/>
-      <c r="AJ114"/>
-      <c r="AK114"/>
     </row>
-    <row r="115" spans="1:37">
+    <row r="115" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>978</v>
       </c>
@@ -16333,16 +15709,14 @@
         <v>38</v>
       </c>
       <c r="C115" s="3">
-        <v>45149.951979167</v>
-      </c>
-      <c r="D115" s="2"/>
+        <v>45149.951979167003</v>
+      </c>
       <c r="E115" s="2" t="s">
         <v>979</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>979</v>
       </c>
-      <c r="G115" s="2"/>
       <c r="H115" s="2" t="s">
         <v>980</v>
       </c>
@@ -16409,7 +15783,7 @@
       <c r="AC115">
         <v>0</v>
       </c>
-      <c r="AD115" s="2" t="s">
+      <c r="AD115" s="5" t="s">
         <v>985</v>
       </c>
       <c r="AE115">
@@ -16424,11 +15798,8 @@
       <c r="AH115">
         <v>290</v>
       </c>
-      <c r="AI115" s="2"/>
-      <c r="AJ115"/>
-      <c r="AK115"/>
     </row>
-    <row r="116" spans="1:37">
+    <row r="116" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>987</v>
       </c>
@@ -16436,16 +15807,14 @@
         <v>38</v>
       </c>
       <c r="C116" s="3">
-        <v>45149.922800926</v>
-      </c>
-      <c r="D116" s="2"/>
+        <v>45149.922800925997</v>
+      </c>
       <c r="E116" s="2" t="s">
         <v>988</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>989</v>
       </c>
-      <c r="G116" s="2"/>
       <c r="H116" s="2" t="s">
         <v>990</v>
       </c>
@@ -16512,7 +15881,7 @@
       <c r="AC116">
         <v>0</v>
       </c>
-      <c r="AD116" s="2" t="s">
+      <c r="AD116" s="5" t="s">
         <v>995</v>
       </c>
       <c r="AE116">
@@ -16527,11 +15896,8 @@
       <c r="AH116">
         <v>1039</v>
       </c>
-      <c r="AI116" s="2"/>
-      <c r="AJ116"/>
-      <c r="AK116"/>
     </row>
-    <row r="117" spans="1:37">
+    <row r="117" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>997</v>
       </c>
@@ -16541,14 +15907,12 @@
       <c r="C117" s="3">
         <v>45149.915891204</v>
       </c>
-      <c r="D117" s="2"/>
       <c r="E117" s="2" t="s">
         <v>998</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>999</v>
       </c>
-      <c r="G117" s="2"/>
       <c r="H117" s="2" t="s">
         <v>1000</v>
       </c>
@@ -16615,7 +15979,7 @@
       <c r="AC117">
         <v>0</v>
       </c>
-      <c r="AD117" s="2" t="s">
+      <c r="AD117" s="5" t="s">
         <v>1003</v>
       </c>
       <c r="AE117">
@@ -16630,11 +15994,8 @@
       <c r="AH117">
         <v>477</v>
       </c>
-      <c r="AI117" s="2"/>
-      <c r="AJ117"/>
-      <c r="AK117"/>
     </row>
-    <row r="118" spans="1:37">
+    <row r="118" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>1005</v>
       </c>
@@ -16642,16 +16003,14 @@
         <v>38</v>
       </c>
       <c r="C118" s="3">
-        <v>45149.893206019</v>
-      </c>
-      <c r="D118" s="2"/>
+        <v>45149.893206018998</v>
+      </c>
       <c r="E118" s="2" t="s">
         <v>1006</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>1007</v>
       </c>
-      <c r="G118" s="2"/>
       <c r="H118" s="2" t="s">
         <v>1008</v>
       </c>
@@ -16718,7 +16077,6 @@
       <c r="AC118">
         <v>0</v>
       </c>
-      <c r="AD118" s="2"/>
       <c r="AE118">
         <v>1</v>
       </c>
@@ -16731,11 +16089,8 @@
       <c r="AH118">
         <v>650</v>
       </c>
-      <c r="AI118" s="2"/>
-      <c r="AJ118"/>
-      <c r="AK118"/>
     </row>
-    <row r="119" spans="1:37">
+    <row r="119" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>1014</v>
       </c>
@@ -16743,16 +16098,14 @@
         <v>38</v>
       </c>
       <c r="C119" s="3">
-        <v>45149.840405093</v>
-      </c>
-      <c r="D119" s="2"/>
+        <v>45149.840405092997</v>
+      </c>
       <c r="E119" s="2" t="s">
         <v>1015</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>1016</v>
       </c>
-      <c r="G119" s="2"/>
       <c r="H119" s="2" t="s">
         <v>1017</v>
       </c>
@@ -16819,7 +16172,6 @@
       <c r="AC119">
         <v>0</v>
       </c>
-      <c r="AD119" s="2"/>
       <c r="AE119">
         <v>1</v>
       </c>
@@ -16832,11 +16184,8 @@
       <c r="AH119">
         <v>820</v>
       </c>
-      <c r="AI119" s="2"/>
-      <c r="AJ119"/>
-      <c r="AK119"/>
     </row>
-    <row r="120" spans="1:37">
+    <row r="120" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>1022</v>
       </c>
@@ -16844,16 +16193,14 @@
         <v>38</v>
       </c>
       <c r="C120" s="3">
-        <v>45149.803078704</v>
-      </c>
-      <c r="D120" s="2"/>
+        <v>45149.803078703997</v>
+      </c>
       <c r="E120" s="2" t="s">
         <v>1023</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>1024</v>
       </c>
-      <c r="G120" s="2"/>
       <c r="H120" s="2" t="s">
         <v>1025</v>
       </c>
@@ -16920,7 +16267,6 @@
       <c r="AC120">
         <v>0</v>
       </c>
-      <c r="AD120" s="2"/>
       <c r="AE120">
         <v>1</v>
       </c>
@@ -16933,11 +16279,8 @@
       <c r="AH120">
         <v>650</v>
       </c>
-      <c r="AI120" s="2"/>
-      <c r="AJ120"/>
-      <c r="AK120"/>
     </row>
-    <row r="121" spans="1:37">
+    <row r="121" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>1030</v>
       </c>
@@ -16945,16 +16288,14 @@
         <v>38</v>
       </c>
       <c r="C121" s="3">
-        <v>45149.793159722</v>
-      </c>
-      <c r="D121" s="2"/>
+        <v>45149.793159722001</v>
+      </c>
       <c r="E121" s="2" t="s">
         <v>1031</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>1032</v>
       </c>
-      <c r="G121" s="2"/>
       <c r="H121" s="2" t="s">
         <v>1033</v>
       </c>
@@ -17021,7 +16362,7 @@
       <c r="AC121">
         <v>0</v>
       </c>
-      <c r="AD121" s="2" t="s">
+      <c r="AD121" s="5" t="s">
         <v>1038</v>
       </c>
       <c r="AE121">
@@ -17036,11 +16377,8 @@
       <c r="AH121">
         <v>238</v>
       </c>
-      <c r="AI121" s="2"/>
-      <c r="AJ121"/>
-      <c r="AK121"/>
     </row>
-    <row r="122" spans="1:37">
+    <row r="122" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>1040</v>
       </c>
@@ -17048,16 +16386,14 @@
         <v>38</v>
       </c>
       <c r="C122" s="3">
-        <v>45149.781909722</v>
-      </c>
-      <c r="D122" s="2"/>
+        <v>45149.781909721998</v>
+      </c>
       <c r="E122" s="2" t="s">
         <v>1031</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>1032</v>
       </c>
-      <c r="G122" s="2"/>
       <c r="H122" s="2" t="s">
         <v>1033</v>
       </c>
@@ -17124,7 +16460,7 @@
       <c r="AC122">
         <v>0</v>
       </c>
-      <c r="AD122" s="2" t="s">
+      <c r="AD122" s="5" t="s">
         <v>1042</v>
       </c>
       <c r="AE122">
@@ -17139,11 +16475,8 @@
       <c r="AH122">
         <v>111</v>
       </c>
-      <c r="AI122" s="2"/>
-      <c r="AJ122"/>
-      <c r="AK122"/>
     </row>
-    <row r="123" spans="1:37">
+    <row r="123" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>1044</v>
       </c>
@@ -17151,16 +16484,14 @@
         <v>38</v>
       </c>
       <c r="C123" s="3">
-        <v>45149.737939815</v>
-      </c>
-      <c r="D123" s="2"/>
+        <v>45149.737939815001</v>
+      </c>
       <c r="E123" s="2" t="s">
         <v>1045</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="G123" s="2"/>
       <c r="H123" s="2" t="s">
         <v>1047</v>
       </c>
@@ -17227,7 +16558,7 @@
       <c r="AC123">
         <v>0</v>
       </c>
-      <c r="AD123" s="2" t="s">
+      <c r="AD123" s="5" t="s">
         <v>1052</v>
       </c>
       <c r="AE123">
@@ -17242,11 +16573,8 @@
       <c r="AH123">
         <v>428</v>
       </c>
-      <c r="AI123" s="2"/>
-      <c r="AJ123"/>
-      <c r="AK123"/>
     </row>
-    <row r="124" spans="1:37">
+    <row r="124" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>1054</v>
       </c>
@@ -17254,16 +16582,14 @@
         <v>38</v>
       </c>
       <c r="C124" s="3">
-        <v>45149.694652778</v>
-      </c>
-      <c r="D124" s="2"/>
+        <v>45149.694652778002</v>
+      </c>
       <c r="E124" s="2" t="s">
         <v>1055</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>1056</v>
       </c>
-      <c r="G124" s="2"/>
       <c r="H124" s="2" t="s">
         <v>1057</v>
       </c>
@@ -17330,7 +16656,7 @@
       <c r="AC124">
         <v>0</v>
       </c>
-      <c r="AD124" s="2" t="s">
+      <c r="AD124" s="5" t="s">
         <v>1062</v>
       </c>
       <c r="AE124">
@@ -17345,11 +16671,8 @@
       <c r="AH124">
         <v>227</v>
       </c>
-      <c r="AI124" s="2"/>
-      <c r="AJ124"/>
-      <c r="AK124"/>
     </row>
-    <row r="125" spans="1:37">
+    <row r="125" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>1054</v>
       </c>
@@ -17357,16 +16680,14 @@
         <v>38</v>
       </c>
       <c r="C125" s="3">
-        <v>45149.694652778</v>
-      </c>
-      <c r="D125" s="2"/>
+        <v>45149.694652778002</v>
+      </c>
       <c r="E125" s="2" t="s">
         <v>1055</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>1056</v>
       </c>
-      <c r="G125" s="2"/>
       <c r="H125" s="2" t="s">
         <v>1057</v>
       </c>
@@ -17433,7 +16754,7 @@
       <c r="AC125">
         <v>0</v>
       </c>
-      <c r="AD125" s="2" t="s">
+      <c r="AD125" s="5" t="s">
         <v>786</v>
       </c>
       <c r="AE125">
@@ -17448,11 +16769,8 @@
       <c r="AH125">
         <v>230</v>
       </c>
-      <c r="AI125" s="2"/>
-      <c r="AJ125"/>
-      <c r="AK125"/>
     </row>
-    <row r="126" spans="1:37">
+    <row r="126" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>1064</v>
       </c>
@@ -17460,16 +16778,14 @@
         <v>38</v>
       </c>
       <c r="C126" s="3">
-        <v>45149.659548611</v>
-      </c>
-      <c r="D126" s="2"/>
+        <v>45149.659548611002</v>
+      </c>
       <c r="E126" s="2" t="s">
         <v>1065</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G126" s="2"/>
       <c r="H126" s="2" t="s">
         <v>1066</v>
       </c>
@@ -17536,7 +16852,7 @@
       <c r="AC126">
         <v>0</v>
       </c>
-      <c r="AD126" s="2" t="s">
+      <c r="AD126" s="5" t="s">
         <v>1071</v>
       </c>
       <c r="AE126">
@@ -17551,11 +16867,8 @@
       <c r="AH126">
         <v>900</v>
       </c>
-      <c r="AI126" s="2"/>
-      <c r="AJ126"/>
-      <c r="AK126"/>
     </row>
-    <row r="127" spans="1:37">
+    <row r="127" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>1064</v>
       </c>
@@ -17563,16 +16876,14 @@
         <v>38</v>
       </c>
       <c r="C127" s="3">
-        <v>45149.659548611</v>
-      </c>
-      <c r="D127" s="2"/>
+        <v>45149.659548611002</v>
+      </c>
       <c r="E127" s="2" t="s">
         <v>1065</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G127" s="2"/>
       <c r="H127" s="2" t="s">
         <v>1066</v>
       </c>
@@ -17639,7 +16950,7 @@
       <c r="AC127">
         <v>0</v>
       </c>
-      <c r="AD127" s="2" t="s">
+      <c r="AD127" s="5" t="s">
         <v>1073</v>
       </c>
       <c r="AE127">
@@ -17654,11 +16965,8 @@
       <c r="AH127">
         <v>1317</v>
       </c>
-      <c r="AI127" s="2"/>
-      <c r="AJ127"/>
-      <c r="AK127"/>
     </row>
-    <row r="128" spans="1:37">
+    <row r="128" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>1075</v>
       </c>
@@ -17666,16 +16974,14 @@
         <v>38</v>
       </c>
       <c r="C128" s="3">
-        <v>45149.574560185</v>
-      </c>
-      <c r="D128" s="2"/>
+        <v>45149.574560184999</v>
+      </c>
       <c r="E128" s="2" t="s">
         <v>1076</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>1077</v>
       </c>
-      <c r="G128" s="2"/>
       <c r="H128" s="2" t="s">
         <v>1078</v>
       </c>
@@ -17742,7 +17048,7 @@
       <c r="AC128">
         <v>0</v>
       </c>
-      <c r="AD128" s="2" t="s">
+      <c r="AD128" s="5" t="s">
         <v>1082</v>
       </c>
       <c r="AE128">
@@ -17757,11 +17063,8 @@
       <c r="AH128">
         <v>233</v>
       </c>
-      <c r="AI128" s="2"/>
-      <c r="AJ128"/>
-      <c r="AK128"/>
     </row>
-    <row r="129" spans="1:37">
+    <row r="129" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>1084</v>
       </c>
@@ -17769,16 +17072,14 @@
         <v>38</v>
       </c>
       <c r="C129" s="3">
-        <v>45149.559201389</v>
-      </c>
-      <c r="D129" s="2"/>
+        <v>45149.559201388998</v>
+      </c>
       <c r="E129" s="2" t="s">
         <v>1085</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>1086</v>
       </c>
-      <c r="G129" s="2"/>
       <c r="H129" s="2" t="s">
         <v>1087</v>
       </c>
@@ -17845,7 +17146,7 @@
       <c r="AC129">
         <v>0</v>
       </c>
-      <c r="AD129" s="2" t="s">
+      <c r="AD129" s="5" t="s">
         <v>1092</v>
       </c>
       <c r="AE129">
@@ -17860,11 +17161,8 @@
       <c r="AH129">
         <v>1549</v>
       </c>
-      <c r="AI129" s="2"/>
-      <c r="AJ129"/>
-      <c r="AK129"/>
     </row>
-    <row r="130" spans="1:37">
+    <row r="130" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>1094</v>
       </c>
@@ -17874,14 +17172,12 @@
       <c r="C130" s="3">
         <v>45149.53712963</v>
       </c>
-      <c r="D130" s="2"/>
       <c r="E130" s="2" t="s">
         <v>1095</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>1096</v>
       </c>
-      <c r="G130" s="2"/>
       <c r="H130" s="2" t="s">
         <v>1097</v>
       </c>
@@ -17948,7 +17244,7 @@
       <c r="AC130">
         <v>0</v>
       </c>
-      <c r="AD130" s="2" t="s">
+      <c r="AD130" s="5" t="s">
         <v>1103</v>
       </c>
       <c r="AE130">
@@ -17963,11 +17259,8 @@
       <c r="AH130">
         <v>365</v>
       </c>
-      <c r="AI130" s="2"/>
-      <c r="AJ130"/>
-      <c r="AK130"/>
     </row>
-    <row r="131" spans="1:37">
+    <row r="131" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>1105</v>
       </c>
@@ -17975,16 +17268,14 @@
         <v>38</v>
       </c>
       <c r="C131" s="3">
-        <v>45149.485462963</v>
-      </c>
-      <c r="D131" s="2"/>
+        <v>45149.485462962999</v>
+      </c>
       <c r="E131" s="2" t="s">
         <v>1106</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>1107</v>
       </c>
-      <c r="G131" s="2"/>
       <c r="H131" s="2" t="s">
         <v>1108</v>
       </c>
@@ -18051,7 +17342,6 @@
       <c r="AC131">
         <v>0</v>
       </c>
-      <c r="AD131" s="2"/>
       <c r="AE131">
         <v>1</v>
       </c>
@@ -18064,11 +17354,8 @@
       <c r="AH131">
         <v>239</v>
       </c>
-      <c r="AI131" s="2"/>
-      <c r="AJ131"/>
-      <c r="AK131"/>
     </row>
-    <row r="132" spans="1:37">
+    <row r="132" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>1114</v>
       </c>
@@ -18076,16 +17363,14 @@
         <v>38</v>
       </c>
       <c r="C132" s="3">
-        <v>45149.345023148</v>
-      </c>
-      <c r="D132" s="2"/>
+        <v>45149.345023148002</v>
+      </c>
       <c r="E132" s="2" t="s">
         <v>1115</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>1116</v>
       </c>
-      <c r="G132" s="2"/>
       <c r="H132" s="2" t="s">
         <v>1117</v>
       </c>
@@ -18152,7 +17437,7 @@
       <c r="AC132">
         <v>0</v>
       </c>
-      <c r="AD132" s="2" t="s">
+      <c r="AD132" s="5" t="s">
         <v>1121</v>
       </c>
       <c r="AE132">
@@ -18167,11 +17452,8 @@
       <c r="AH132">
         <v>450</v>
       </c>
-      <c r="AI132" s="2"/>
-      <c r="AJ132"/>
-      <c r="AK132"/>
     </row>
-    <row r="133" spans="1:37">
+    <row r="133" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>1123</v>
       </c>
@@ -18179,16 +17461,14 @@
         <v>38</v>
       </c>
       <c r="C133" s="3">
-        <v>45148.917407407</v>
-      </c>
-      <c r="D133" s="2"/>
+        <v>45148.917407407003</v>
+      </c>
       <c r="E133" s="2" t="s">
         <v>1124</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="G133" s="2"/>
       <c r="H133" s="2" t="s">
         <v>1125</v>
       </c>
@@ -18255,7 +17535,7 @@
       <c r="AC133">
         <v>0</v>
       </c>
-      <c r="AD133" s="2" t="s">
+      <c r="AD133" s="5" t="s">
         <v>1131</v>
       </c>
       <c r="AE133">
@@ -18270,11 +17550,8 @@
       <c r="AH133">
         <v>2360</v>
       </c>
-      <c r="AI133" s="2"/>
-      <c r="AJ133"/>
-      <c r="AK133"/>
     </row>
-    <row r="134" spans="1:37">
+    <row r="134" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>1133</v>
       </c>
@@ -18282,16 +17559,14 @@
         <v>38</v>
       </c>
       <c r="C134" s="3">
-        <v>45148.803043981</v>
-      </c>
-      <c r="D134" s="2"/>
+        <v>45148.803043981003</v>
+      </c>
       <c r="E134" s="2" t="s">
         <v>1134</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>1135</v>
       </c>
-      <c r="G134" s="2"/>
       <c r="H134" s="2" t="s">
         <v>1136</v>
       </c>
@@ -18358,7 +17633,7 @@
       <c r="AC134">
         <v>0</v>
       </c>
-      <c r="AD134" s="2" t="s">
+      <c r="AD134" s="5" t="s">
         <v>1141</v>
       </c>
       <c r="AE134">
@@ -18373,11 +17648,8 @@
       <c r="AH134">
         <v>1178</v>
       </c>
-      <c r="AI134" s="2"/>
-      <c r="AJ134"/>
-      <c r="AK134"/>
     </row>
-    <row r="135" spans="1:37">
+    <row r="135" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>1143</v>
       </c>
@@ -18385,16 +17657,14 @@
         <v>38</v>
       </c>
       <c r="C135" s="3">
-        <v>45148.769178241</v>
-      </c>
-      <c r="D135" s="2"/>
+        <v>45148.769178240997</v>
+      </c>
       <c r="E135" s="2" t="s">
         <v>1144</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>1145</v>
       </c>
-      <c r="G135" s="2"/>
       <c r="H135" s="2" t="s">
         <v>1146</v>
       </c>
@@ -18461,7 +17731,7 @@
       <c r="AC135">
         <v>0</v>
       </c>
-      <c r="AD135" s="2" t="s">
+      <c r="AD135" s="5" t="s">
         <v>1150</v>
       </c>
       <c r="AE135">
@@ -18476,11 +17746,8 @@
       <c r="AH135">
         <v>553</v>
       </c>
-      <c r="AI135" s="2"/>
-      <c r="AJ135"/>
-      <c r="AK135"/>
     </row>
-    <row r="136" spans="1:37">
+    <row r="136" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>1152</v>
       </c>
@@ -18488,16 +17755,14 @@
         <v>38</v>
       </c>
       <c r="C136" s="3">
-        <v>45148.754097222</v>
-      </c>
-      <c r="D136" s="2"/>
+        <v>45148.754097222001</v>
+      </c>
       <c r="E136" s="2" t="s">
         <v>1153</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>919</v>
       </c>
-      <c r="G136" s="2"/>
       <c r="H136" s="2" t="s">
         <v>1154</v>
       </c>
@@ -18564,7 +17829,7 @@
       <c r="AC136">
         <v>0</v>
       </c>
-      <c r="AD136" s="2" t="s">
+      <c r="AD136" s="5" t="s">
         <v>1159</v>
       </c>
       <c r="AE136">
@@ -18579,11 +17844,8 @@
       <c r="AH136">
         <v>254</v>
       </c>
-      <c r="AI136" s="2"/>
-      <c r="AJ136"/>
-      <c r="AK136"/>
     </row>
-    <row r="137" spans="1:37">
+    <row r="137" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>1161</v>
       </c>
@@ -18591,16 +17853,14 @@
         <v>38</v>
       </c>
       <c r="C137" s="3">
-        <v>45148.736828704</v>
-      </c>
-      <c r="D137" s="2"/>
+        <v>45148.736828704001</v>
+      </c>
       <c r="E137" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>1163</v>
       </c>
-      <c r="G137" s="2"/>
       <c r="H137" s="2" t="s">
         <v>1164</v>
       </c>
@@ -18667,7 +17927,7 @@
       <c r="AC137">
         <v>0</v>
       </c>
-      <c r="AD137" s="2" t="s">
+      <c r="AD137" s="5" t="s">
         <v>1169</v>
       </c>
       <c r="AE137">
@@ -18682,11 +17942,8 @@
       <c r="AH137">
         <v>1629</v>
       </c>
-      <c r="AI137" s="2"/>
-      <c r="AJ137"/>
-      <c r="AK137"/>
     </row>
-    <row r="138" spans="1:37">
+    <row r="138" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>1171</v>
       </c>
@@ -18694,16 +17951,14 @@
         <v>38</v>
       </c>
       <c r="C138" s="3">
-        <v>45148.652835648</v>
-      </c>
-      <c r="D138" s="2"/>
+        <v>45148.652835647998</v>
+      </c>
       <c r="E138" s="2" t="s">
         <v>1172</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>1173</v>
       </c>
-      <c r="G138" s="2"/>
       <c r="H138" s="2" t="s">
         <v>1174</v>
       </c>
@@ -18770,7 +18025,7 @@
       <c r="AC138">
         <v>0</v>
       </c>
-      <c r="AD138" s="2" t="s">
+      <c r="AD138" s="5" t="s">
         <v>1179</v>
       </c>
       <c r="AE138">
@@ -18785,11 +18040,8 @@
       <c r="AH138">
         <v>7143</v>
       </c>
-      <c r="AI138" s="2"/>
-      <c r="AJ138"/>
-      <c r="AK138"/>
     </row>
-    <row r="139" spans="1:37">
+    <row r="139" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>1181</v>
       </c>
@@ -18797,16 +18049,14 @@
         <v>38</v>
       </c>
       <c r="C139" s="3">
-        <v>45148.540960648</v>
-      </c>
-      <c r="D139" s="2"/>
+        <v>45148.540960648003</v>
+      </c>
       <c r="E139" s="2" t="s">
         <v>1182</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>1183</v>
       </c>
-      <c r="G139" s="2"/>
       <c r="H139" s="2" t="s">
         <v>1184</v>
       </c>
@@ -18873,7 +18123,7 @@
       <c r="AC139">
         <v>0</v>
       </c>
-      <c r="AD139" s="2" t="s">
+      <c r="AD139" s="5" t="s">
         <v>1189</v>
       </c>
       <c r="AE139">
@@ -18888,11 +18138,8 @@
       <c r="AH139">
         <v>215</v>
       </c>
-      <c r="AI139" s="2"/>
-      <c r="AJ139"/>
-      <c r="AK139"/>
     </row>
-    <row r="140" spans="1:37">
+    <row r="140" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>1191</v>
       </c>
@@ -18900,16 +18147,14 @@
         <v>38</v>
       </c>
       <c r="C140" s="3">
-        <v>45148.314780093</v>
-      </c>
-      <c r="D140" s="2"/>
+        <v>45148.314780093002</v>
+      </c>
       <c r="E140" s="2" t="s">
         <v>1192</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="G140" s="2"/>
       <c r="H140" s="2" t="s">
         <v>1193</v>
       </c>
@@ -18976,7 +18221,6 @@
       <c r="AC140">
         <v>0</v>
       </c>
-      <c r="AD140" s="2"/>
       <c r="AE140">
         <v>1</v>
       </c>
@@ -18989,11 +18233,8 @@
       <c r="AH140">
         <v>590</v>
       </c>
-      <c r="AI140" s="2"/>
-      <c r="AJ140"/>
-      <c r="AK140"/>
     </row>
-    <row r="141" spans="1:37">
+    <row r="141" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>1199</v>
       </c>
@@ -19001,16 +18242,14 @@
         <v>38</v>
       </c>
       <c r="C141" s="3">
-        <v>45147.95400463</v>
-      </c>
-      <c r="D141" s="2"/>
+        <v>45147.954004630003</v>
+      </c>
       <c r="E141" s="2" t="s">
         <v>1200</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>1201</v>
       </c>
-      <c r="G141" s="2"/>
       <c r="H141" s="2" t="s">
         <v>1202</v>
       </c>
@@ -19077,7 +18316,7 @@
       <c r="AC141">
         <v>0</v>
       </c>
-      <c r="AD141" s="2" t="s">
+      <c r="AD141" s="5" t="s">
         <v>1207</v>
       </c>
       <c r="AE141">
@@ -19092,11 +18331,8 @@
       <c r="AH141">
         <v>949</v>
       </c>
-      <c r="AI141" s="2"/>
-      <c r="AJ141"/>
-      <c r="AK141"/>
     </row>
-    <row r="142" spans="1:37">
+    <row r="142" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>1209</v>
       </c>
@@ -19104,16 +18340,14 @@
         <v>38</v>
       </c>
       <c r="C142" s="3">
-        <v>45147.920740741</v>
-      </c>
-      <c r="D142" s="2"/>
+        <v>45147.920740740999</v>
+      </c>
       <c r="E142" s="2" t="s">
         <v>1210</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="G142" s="2"/>
       <c r="H142" s="2" t="s">
         <v>1211</v>
       </c>
@@ -19180,7 +18414,7 @@
       <c r="AC142">
         <v>0</v>
       </c>
-      <c r="AD142" s="2" t="s">
+      <c r="AD142" s="5" t="s">
         <v>1215</v>
       </c>
       <c r="AE142">
@@ -19195,11 +18429,8 @@
       <c r="AH142">
         <v>176</v>
       </c>
-      <c r="AI142" s="2"/>
-      <c r="AJ142"/>
-      <c r="AK142"/>
     </row>
-    <row r="143" spans="1:37">
+    <row r="143" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>1217</v>
       </c>
@@ -19207,16 +18438,14 @@
         <v>38</v>
       </c>
       <c r="C143" s="3">
-        <v>45147.701712963</v>
-      </c>
-      <c r="D143" s="2"/>
+        <v>45147.701712962997</v>
+      </c>
       <c r="E143" s="2" t="s">
         <v>1218</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>1219</v>
       </c>
-      <c r="G143" s="2"/>
       <c r="H143" s="2" t="s">
         <v>1220</v>
       </c>
@@ -19283,7 +18512,7 @@
       <c r="AC143">
         <v>0</v>
       </c>
-      <c r="AD143" s="2" t="s">
+      <c r="AD143" s="5" t="s">
         <v>1225</v>
       </c>
       <c r="AE143">
@@ -19298,11 +18527,8 @@
       <c r="AH143">
         <v>1942</v>
       </c>
-      <c r="AI143" s="2"/>
-      <c r="AJ143"/>
-      <c r="AK143"/>
     </row>
-    <row r="144" spans="1:37">
+    <row r="144" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>1227</v>
       </c>
@@ -19310,16 +18536,14 @@
         <v>38</v>
       </c>
       <c r="C144" s="3">
-        <v>45147.680648148</v>
-      </c>
-      <c r="D144" s="2"/>
+        <v>45147.680648148002</v>
+      </c>
       <c r="E144" s="2" t="s">
         <v>1228</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>1229</v>
       </c>
-      <c r="G144" s="2"/>
       <c r="H144" s="2" t="s">
         <v>1230</v>
       </c>
@@ -19386,7 +18610,6 @@
       <c r="AC144">
         <v>0</v>
       </c>
-      <c r="AD144" s="2"/>
       <c r="AE144">
         <v>1</v>
       </c>
@@ -19399,11 +18622,8 @@
       <c r="AH144">
         <v>145</v>
       </c>
-      <c r="AI144" s="2"/>
-      <c r="AJ144"/>
-      <c r="AK144"/>
     </row>
-    <row r="145" spans="1:37">
+    <row r="145" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>1235</v>
       </c>
@@ -19411,16 +18631,14 @@
         <v>38</v>
       </c>
       <c r="C145" s="3">
-        <v>45147.586435185</v>
-      </c>
-      <c r="D145" s="2"/>
+        <v>45147.586435185003</v>
+      </c>
       <c r="E145" s="2" t="s">
         <v>1236</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="G145" s="2"/>
       <c r="H145" s="2" t="s">
         <v>1237</v>
       </c>
@@ -19487,7 +18705,6 @@
       <c r="AC145">
         <v>0</v>
       </c>
-      <c r="AD145" s="2"/>
       <c r="AE145">
         <v>1</v>
       </c>
@@ -19500,11 +18717,8 @@
       <c r="AH145">
         <v>820</v>
       </c>
-      <c r="AI145" s="2"/>
-      <c r="AJ145"/>
-      <c r="AK145"/>
     </row>
-    <row r="146" spans="1:37">
+    <row r="146" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>1241</v>
       </c>
@@ -19514,14 +18728,12 @@
       <c r="C146" s="3">
         <v>45147.448854167</v>
       </c>
-      <c r="D146" s="2"/>
       <c r="E146" s="2" t="s">
         <v>1242</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>1242</v>
       </c>
-      <c r="G146" s="2"/>
       <c r="H146" s="2" t="s">
         <v>1243</v>
       </c>
@@ -19588,7 +18800,6 @@
       <c r="AC146">
         <v>0</v>
       </c>
-      <c r="AD146" s="2"/>
       <c r="AE146">
         <v>1</v>
       </c>
@@ -19601,11 +18812,8 @@
       <c r="AH146">
         <v>145</v>
       </c>
-      <c r="AI146" s="2"/>
-      <c r="AJ146"/>
-      <c r="AK146"/>
     </row>
-    <row r="147" spans="1:37">
+    <row r="147" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>1248</v>
       </c>
@@ -19613,16 +18821,14 @@
         <v>38</v>
       </c>
       <c r="C147" s="3">
-        <v>45147.446215278</v>
-      </c>
-      <c r="D147" s="2"/>
+        <v>45147.446215278003</v>
+      </c>
       <c r="E147" s="2" t="s">
         <v>1249</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>1250</v>
       </c>
-      <c r="G147" s="2"/>
       <c r="H147" s="2" t="s">
         <v>1251</v>
       </c>
@@ -19689,7 +18895,6 @@
       <c r="AC147">
         <v>0</v>
       </c>
-      <c r="AD147" s="2"/>
       <c r="AE147">
         <v>1</v>
       </c>
@@ -19702,11 +18907,8 @@
       <c r="AH147">
         <v>795</v>
       </c>
-      <c r="AI147" s="2"/>
-      <c r="AJ147"/>
-      <c r="AK147"/>
     </row>
-    <row r="148" spans="1:37">
+    <row r="148" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>1256</v>
       </c>
@@ -19714,16 +18916,14 @@
         <v>38</v>
       </c>
       <c r="C148" s="3">
-        <v>45146.95005787</v>
-      </c>
-      <c r="D148" s="2"/>
+        <v>45146.950057870003</v>
+      </c>
       <c r="E148" s="2" t="s">
         <v>1257</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>1258</v>
       </c>
-      <c r="G148" s="2"/>
       <c r="H148" s="2" t="s">
         <v>1259</v>
       </c>
@@ -19790,7 +18990,6 @@
       <c r="AC148">
         <v>0</v>
       </c>
-      <c r="AD148" s="2"/>
       <c r="AE148">
         <v>1</v>
       </c>
@@ -19803,11 +19002,8 @@
       <c r="AH148">
         <v>145</v>
       </c>
-      <c r="AI148" s="2"/>
-      <c r="AJ148"/>
-      <c r="AK148"/>
     </row>
-    <row r="149" spans="1:37">
+    <row r="149" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>1264</v>
       </c>
@@ -19815,16 +19011,14 @@
         <v>38</v>
       </c>
       <c r="C149" s="3">
-        <v>45146.886053241</v>
-      </c>
-      <c r="D149" s="2"/>
+        <v>45146.886053241004</v>
+      </c>
       <c r="E149" s="2" t="s">
         <v>1265</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>1266</v>
       </c>
-      <c r="G149" s="2"/>
       <c r="H149" s="2" t="s">
         <v>1267</v>
       </c>
@@ -19891,7 +19085,6 @@
       <c r="AC149">
         <v>0</v>
       </c>
-      <c r="AD149" s="2"/>
       <c r="AE149">
         <v>1</v>
       </c>
@@ -19904,11 +19097,8 @@
       <c r="AH149">
         <v>649</v>
       </c>
-      <c r="AI149" s="2"/>
-      <c r="AJ149"/>
-      <c r="AK149"/>
     </row>
-    <row r="150" spans="1:37">
+    <row r="150" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>1272</v>
       </c>
@@ -19916,16 +19106,14 @@
         <v>38</v>
       </c>
       <c r="C150" s="3">
-        <v>45146.849594907</v>
-      </c>
-      <c r="D150" s="2"/>
+        <v>45146.849594906998</v>
+      </c>
       <c r="E150" s="2" t="s">
         <v>1273</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>1274</v>
       </c>
-      <c r="G150" s="2"/>
       <c r="H150" s="2" t="s">
         <v>1275</v>
       </c>
@@ -19992,7 +19180,7 @@
       <c r="AC150">
         <v>0</v>
       </c>
-      <c r="AD150" s="2" t="s">
+      <c r="AD150" s="5" t="s">
         <v>579</v>
       </c>
       <c r="AE150">
@@ -20007,11 +19195,8 @@
       <c r="AH150">
         <v>89</v>
       </c>
-      <c r="AI150" s="2"/>
-      <c r="AJ150"/>
-      <c r="AK150"/>
     </row>
-    <row r="151" spans="1:37">
+    <row r="151" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>1280</v>
       </c>
@@ -20019,16 +19204,14 @@
         <v>38</v>
       </c>
       <c r="C151" s="3">
-        <v>45146.847777778</v>
-      </c>
-      <c r="D151" s="2"/>
+        <v>45146.847777777999</v>
+      </c>
       <c r="E151" s="2" t="s">
         <v>1007</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>1281</v>
       </c>
-      <c r="G151" s="2"/>
       <c r="H151" s="2" t="s">
         <v>1282</v>
       </c>
@@ -20095,7 +19278,6 @@
       <c r="AC151">
         <v>0</v>
       </c>
-      <c r="AD151" s="2"/>
       <c r="AE151">
         <v>1</v>
       </c>
@@ -20108,11 +19290,8 @@
       <c r="AH151">
         <v>430</v>
       </c>
-      <c r="AI151" s="2"/>
-      <c r="AJ151"/>
-      <c r="AK151"/>
     </row>
-    <row r="152" spans="1:37">
+    <row r="152" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>1280</v>
       </c>
@@ -20120,16 +19299,14 @@
         <v>38</v>
       </c>
       <c r="C152" s="3">
-        <v>45146.847777778</v>
-      </c>
-      <c r="D152" s="2"/>
+        <v>45146.847777777999</v>
+      </c>
       <c r="E152" s="2" t="s">
         <v>1007</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>1281</v>
       </c>
-      <c r="G152" s="2"/>
       <c r="H152" s="2" t="s">
         <v>1282</v>
       </c>
@@ -20196,7 +19373,7 @@
       <c r="AC152">
         <v>0</v>
       </c>
-      <c r="AD152" s="2" t="s">
+      <c r="AD152" s="5" t="s">
         <v>1288</v>
       </c>
       <c r="AE152">
@@ -20211,11 +19388,8 @@
       <c r="AH152">
         <v>290</v>
       </c>
-      <c r="AI152" s="2"/>
-      <c r="AJ152"/>
-      <c r="AK152"/>
     </row>
-    <row r="153" spans="1:37">
+    <row r="153" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>1290</v>
       </c>
@@ -20223,16 +19397,14 @@
         <v>38</v>
       </c>
       <c r="C153" s="3">
-        <v>45146.79744213</v>
-      </c>
-      <c r="D153" s="2"/>
+        <v>45146.797442130002</v>
+      </c>
       <c r="E153" s="2" t="s">
         <v>1291</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>1292</v>
       </c>
-      <c r="G153" s="2"/>
       <c r="H153" s="2" t="s">
         <v>1293</v>
       </c>
@@ -20299,7 +19471,7 @@
       <c r="AC153">
         <v>0</v>
       </c>
-      <c r="AD153" s="2" t="s">
+      <c r="AD153" s="5" t="s">
         <v>1297</v>
       </c>
       <c r="AE153">
@@ -20314,11 +19486,8 @@
       <c r="AH153">
         <v>549</v>
       </c>
-      <c r="AI153" s="2"/>
-      <c r="AJ153"/>
-      <c r="AK153"/>
     </row>
-    <row r="154" spans="1:37">
+    <row r="154" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>1299</v>
       </c>
@@ -20326,16 +19495,14 @@
         <v>38</v>
       </c>
       <c r="C154" s="3">
-        <v>45146.789178241</v>
-      </c>
-      <c r="D154" s="2"/>
+        <v>45146.789178241001</v>
+      </c>
       <c r="E154" s="2" t="s">
         <v>323</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="G154" s="2"/>
       <c r="H154" s="2" t="s">
         <v>1300</v>
       </c>
@@ -20402,7 +19569,6 @@
       <c r="AC154">
         <v>0</v>
       </c>
-      <c r="AD154" s="2"/>
       <c r="AE154">
         <v>1</v>
       </c>
@@ -20415,11 +19581,8 @@
       <c r="AH154">
         <v>375</v>
       </c>
-      <c r="AI154" s="2"/>
-      <c r="AJ154"/>
-      <c r="AK154"/>
     </row>
-    <row r="155" spans="1:37">
+    <row r="155" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>1305</v>
       </c>
@@ -20429,14 +19592,12 @@
       <c r="C155" s="3">
         <v>45146.690439815</v>
       </c>
-      <c r="D155" s="2"/>
       <c r="E155" s="2" t="s">
         <v>1306</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>1307</v>
       </c>
-      <c r="G155" s="2"/>
       <c r="H155" s="2" t="s">
         <v>1308</v>
       </c>
@@ -20503,7 +19664,7 @@
       <c r="AC155">
         <v>0</v>
       </c>
-      <c r="AD155" s="2" t="s">
+      <c r="AD155" s="5" t="s">
         <v>1311</v>
       </c>
       <c r="AE155">
@@ -20518,11 +19679,8 @@
       <c r="AH155">
         <v>200</v>
       </c>
-      <c r="AI155" s="2"/>
-      <c r="AJ155"/>
-      <c r="AK155"/>
     </row>
-    <row r="156" spans="1:37">
+    <row r="156" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>1313</v>
       </c>
@@ -20530,16 +19688,14 @@
         <v>38</v>
       </c>
       <c r="C156" s="3">
-        <v>45146.564814815</v>
-      </c>
-      <c r="D156" s="2"/>
+        <v>45146.564814814999</v>
+      </c>
       <c r="E156" s="2" t="s">
         <v>1314</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="G156" s="2"/>
       <c r="H156" s="2" t="s">
         <v>1316</v>
       </c>
@@ -20606,7 +19762,7 @@
       <c r="AC156">
         <v>0</v>
       </c>
-      <c r="AD156" s="2" t="s">
+      <c r="AD156" s="5" t="s">
         <v>1321</v>
       </c>
       <c r="AE156">
@@ -20621,11 +19777,8 @@
       <c r="AH156">
         <v>375</v>
       </c>
-      <c r="AI156" s="2"/>
-      <c r="AJ156"/>
-      <c r="AK156"/>
     </row>
-    <row r="157" spans="1:37">
+    <row r="157" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>1323</v>
       </c>
@@ -20633,16 +19786,14 @@
         <v>38</v>
       </c>
       <c r="C157" s="3">
-        <v>45146.546898148</v>
-      </c>
-      <c r="D157" s="2"/>
+        <v>45146.546898148001</v>
+      </c>
       <c r="E157" s="2" t="s">
         <v>1324</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>1325</v>
       </c>
-      <c r="G157" s="2"/>
       <c r="H157" s="2" t="s">
         <v>1326</v>
       </c>
@@ -20709,7 +19860,6 @@
       <c r="AC157">
         <v>0</v>
       </c>
-      <c r="AD157" s="2"/>
       <c r="AE157">
         <v>1</v>
       </c>
@@ -20722,11 +19872,8 @@
       <c r="AH157">
         <v>145</v>
       </c>
-      <c r="AI157" s="2"/>
-      <c r="AJ157"/>
-      <c r="AK157"/>
     </row>
-    <row r="158" spans="1:37">
+    <row r="158" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>1331</v>
       </c>
@@ -20734,16 +19881,14 @@
         <v>38</v>
       </c>
       <c r="C158" s="3">
-        <v>45145.064733796</v>
-      </c>
-      <c r="D158" s="2"/>
+        <v>45145.064733796004</v>
+      </c>
       <c r="E158" s="2" t="s">
         <v>1332</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>1333</v>
       </c>
-      <c r="G158" s="2"/>
       <c r="H158" s="2" t="s">
         <v>1334</v>
       </c>
@@ -20810,7 +19955,7 @@
       <c r="AC158">
         <v>0</v>
       </c>
-      <c r="AD158" s="2" t="s">
+      <c r="AD158" s="5" t="s">
         <v>1339</v>
       </c>
       <c r="AE158">
@@ -20825,11 +19970,8 @@
       <c r="AH158">
         <v>970</v>
       </c>
-      <c r="AI158" s="2"/>
-      <c r="AJ158"/>
-      <c r="AK158"/>
     </row>
-    <row r="159" spans="1:37">
+    <row r="159" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>1341</v>
       </c>
@@ -20837,16 +19979,14 @@
         <v>38</v>
       </c>
       <c r="C159" s="3">
-        <v>45144.893969907</v>
-      </c>
-      <c r="D159" s="2"/>
+        <v>45144.893969907003</v>
+      </c>
       <c r="E159" s="2" t="s">
         <v>1342</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G159" s="2"/>
       <c r="H159" s="2" t="s">
         <v>1343</v>
       </c>
@@ -20913,7 +20053,7 @@
       <c r="AC159">
         <v>0</v>
       </c>
-      <c r="AD159" s="2" t="s">
+      <c r="AD159" s="5" t="s">
         <v>1349</v>
       </c>
       <c r="AE159">
@@ -20928,11 +20068,8 @@
       <c r="AH159">
         <v>557</v>
       </c>
-      <c r="AI159" s="2"/>
-      <c r="AJ159"/>
-      <c r="AK159"/>
     </row>
-    <row r="160" spans="1:37">
+    <row r="160" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>1351</v>
       </c>
@@ -20940,16 +20077,14 @@
         <v>38</v>
       </c>
       <c r="C160" s="3">
-        <v>45144.479074074</v>
-      </c>
-      <c r="D160" s="2"/>
+        <v>45144.479074073999</v>
+      </c>
       <c r="E160" s="2" t="s">
         <v>1352</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>1352</v>
       </c>
-      <c r="G160" s="2"/>
       <c r="H160" s="2" t="s">
         <v>1353</v>
       </c>
@@ -21016,7 +20151,7 @@
       <c r="AC160">
         <v>0</v>
       </c>
-      <c r="AD160" s="2" t="s">
+      <c r="AD160" s="5" t="s">
         <v>976</v>
       </c>
       <c r="AE160">
@@ -21031,11 +20166,8 @@
       <c r="AH160">
         <v>160</v>
       </c>
-      <c r="AI160" s="2"/>
-      <c r="AJ160"/>
-      <c r="AK160"/>
     </row>
-    <row r="161" spans="1:37">
+    <row r="161" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>1358</v>
       </c>
@@ -21043,16 +20175,14 @@
         <v>38</v>
       </c>
       <c r="C161" s="3">
-        <v>45144.466608796</v>
-      </c>
-      <c r="D161" s="2"/>
+        <v>45144.466608795999</v>
+      </c>
       <c r="E161" s="2" t="s">
         <v>1359</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="G161" s="2"/>
       <c r="H161" s="2" t="s">
         <v>1360</v>
       </c>
@@ -21119,7 +20249,6 @@
       <c r="AC161">
         <v>0</v>
       </c>
-      <c r="AD161" s="2"/>
       <c r="AE161">
         <v>1</v>
       </c>
@@ -21132,11 +20261,8 @@
       <c r="AH161">
         <v>367</v>
       </c>
-      <c r="AI161" s="2"/>
-      <c r="AJ161"/>
-      <c r="AK161"/>
     </row>
-    <row r="162" spans="1:37">
+    <row r="162" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>1365</v>
       </c>
@@ -21144,16 +20270,14 @@
         <v>38</v>
       </c>
       <c r="C162" s="3">
-        <v>45143.909733796</v>
-      </c>
-      <c r="D162" s="2"/>
+        <v>45143.909733795997</v>
+      </c>
       <c r="E162" s="2" t="s">
         <v>1366</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>1367</v>
       </c>
-      <c r="G162" s="2"/>
       <c r="H162" s="2" t="s">
         <v>1368</v>
       </c>
@@ -21220,7 +20344,6 @@
       <c r="AC162">
         <v>0</v>
       </c>
-      <c r="AD162" s="2"/>
       <c r="AE162">
         <v>1</v>
       </c>
@@ -21233,11 +20356,8 @@
       <c r="AH162">
         <v>575</v>
       </c>
-      <c r="AI162" s="2"/>
-      <c r="AJ162"/>
-      <c r="AK162"/>
     </row>
-    <row r="163" spans="1:37">
+    <row r="163" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>1373</v>
       </c>
@@ -21245,16 +20365,14 @@
         <v>38</v>
       </c>
       <c r="C163" s="3">
-        <v>45143.885023148</v>
-      </c>
-      <c r="D163" s="2"/>
+        <v>45143.885023148003</v>
+      </c>
       <c r="E163" s="2" t="s">
         <v>1374</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>1375</v>
       </c>
-      <c r="G163" s="2"/>
       <c r="H163" s="2" t="s">
         <v>1376</v>
       </c>
@@ -21321,7 +20439,7 @@
       <c r="AC163">
         <v>0</v>
       </c>
-      <c r="AD163" s="2" t="s">
+      <c r="AD163" s="5" t="s">
         <v>1380</v>
       </c>
       <c r="AE163">
@@ -21336,11 +20454,8 @@
       <c r="AH163">
         <v>640</v>
       </c>
-      <c r="AI163" s="2"/>
-      <c r="AJ163"/>
-      <c r="AK163"/>
     </row>
-    <row r="164" spans="1:37">
+    <row r="164" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>1382</v>
       </c>
@@ -21348,16 +20463,14 @@
         <v>38</v>
       </c>
       <c r="C164" s="3">
-        <v>45142.932210648</v>
-      </c>
-      <c r="D164" s="2"/>
+        <v>45142.932210648003</v>
+      </c>
       <c r="E164" s="2" t="s">
         <v>1383</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>1384</v>
       </c>
-      <c r="G164" s="2"/>
       <c r="H164" s="2" t="s">
         <v>1385</v>
       </c>
@@ -21424,7 +20537,6 @@
       <c r="AC164">
         <v>0</v>
       </c>
-      <c r="AD164" s="2"/>
       <c r="AE164">
         <v>1</v>
       </c>
@@ -21437,11 +20549,8 @@
       <c r="AH164">
         <v>589</v>
       </c>
-      <c r="AI164" s="2"/>
-      <c r="AJ164"/>
-      <c r="AK164"/>
     </row>
-    <row r="165" spans="1:37">
+    <row r="165" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>1391</v>
       </c>
@@ -21451,14 +20560,12 @@
       <c r="C165" s="3">
         <v>45142.730520833</v>
       </c>
-      <c r="D165" s="2"/>
       <c r="E165" s="2" t="s">
         <v>1392</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>1393</v>
       </c>
-      <c r="G165" s="2"/>
       <c r="H165" s="2" t="s">
         <v>1394</v>
       </c>
@@ -21525,7 +20632,7 @@
       <c r="AC165">
         <v>0</v>
       </c>
-      <c r="AD165" s="2" t="s">
+      <c r="AD165" s="5" t="s">
         <v>60</v>
       </c>
       <c r="AE165">
@@ -21540,11 +20647,8 @@
       <c r="AH165">
         <v>110</v>
       </c>
-      <c r="AI165" s="2"/>
-      <c r="AJ165"/>
-      <c r="AK165"/>
     </row>
-    <row r="166" spans="1:37">
+    <row r="166" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>1399</v>
       </c>
@@ -21552,16 +20656,14 @@
         <v>38</v>
       </c>
       <c r="C166" s="3">
-        <v>45142.508958333</v>
-      </c>
-      <c r="D166" s="2"/>
+        <v>45142.508958332997</v>
+      </c>
       <c r="E166" s="2" t="s">
         <v>1400</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="G166" s="2"/>
       <c r="H166" s="2" t="s">
         <v>1401</v>
       </c>
@@ -21628,7 +20730,7 @@
       <c r="AC166">
         <v>0</v>
       </c>
-      <c r="AD166" s="2" t="s">
+      <c r="AD166" s="5" t="s">
         <v>1380</v>
       </c>
       <c r="AE166">
@@ -21643,11 +20745,8 @@
       <c r="AH166">
         <v>640</v>
       </c>
-      <c r="AI166" s="2"/>
-      <c r="AJ166"/>
-      <c r="AK166"/>
     </row>
-    <row r="167" spans="1:37">
+    <row r="167" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>1406</v>
       </c>
@@ -21655,16 +20754,14 @@
         <v>38</v>
       </c>
       <c r="C167" s="3">
-        <v>45141.961469907</v>
-      </c>
-      <c r="D167" s="2"/>
+        <v>45141.961469907001</v>
+      </c>
       <c r="E167" s="2" t="s">
         <v>1407</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>1408</v>
       </c>
-      <c r="G167" s="2"/>
       <c r="H167" s="2" t="s">
         <v>1409</v>
       </c>
@@ -21731,7 +20828,7 @@
       <c r="AC167">
         <v>0</v>
       </c>
-      <c r="AD167" s="2" t="s">
+      <c r="AD167" s="5" t="s">
         <v>1082</v>
       </c>
       <c r="AE167">
@@ -21746,11 +20843,8 @@
       <c r="AH167">
         <v>233</v>
       </c>
-      <c r="AI167" s="2"/>
-      <c r="AJ167"/>
-      <c r="AK167"/>
     </row>
-    <row r="168" spans="1:37">
+    <row r="168" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>1414</v>
       </c>
@@ -21758,16 +20852,14 @@
         <v>38</v>
       </c>
       <c r="C168" s="3">
-        <v>45141.035358796</v>
-      </c>
-      <c r="D168" s="2"/>
+        <v>45141.035358795998</v>
+      </c>
       <c r="E168" s="2" t="s">
         <v>1415</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>1416</v>
       </c>
-      <c r="G168" s="2"/>
       <c r="H168" s="2" t="s">
         <v>1417</v>
       </c>
@@ -21834,7 +20926,7 @@
       <c r="AC168">
         <v>0</v>
       </c>
-      <c r="AD168" s="2" t="s">
+      <c r="AD168" s="5" t="s">
         <v>619</v>
       </c>
       <c r="AE168">
@@ -21849,22 +20941,9 @@
       <c r="AH168">
         <v>1249</v>
       </c>
-      <c r="AI168" s="2"/>
-      <c r="AJ168"/>
-      <c r="AK168"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>